--- a/ssj/new ssj.xlsx
+++ b/ssj/new ssj.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkProject\PACVIC\ssj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B54803-E845-4116-B08F-C462AB57CC23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FDBF8A-895A-4C47-8A7A-89EB0966BA64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-75" windowWidth="29040" windowHeight="15840" xr2:uid="{2D8AD6FB-06A8-429F-AD3B-DAC79497FD29}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2D8AD6FB-06A8-429F-AD3B-DAC79497FD29}"/>
   </bookViews>
   <sheets>
     <sheet name="СП" sheetId="2" r:id="rId1"/>
     <sheet name="состав по бортам" sheetId="4" r:id="rId2"/>
-    <sheet name="Камеры" sheetId="3" r:id="rId3"/>
+    <sheet name="запрос КП" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="154">
   <si>
     <t>Видеокамеры</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Коммутатор Ethernet</t>
   </si>
   <si>
-    <t>Пропускная способность</t>
-  </si>
-  <si>
     <t>Мбит/с</t>
   </si>
   <si>
@@ -130,9 +127,6 @@
   </si>
   <si>
     <t>дюйм</t>
-  </si>
-  <si>
-    <t>Требуемая модель: FPM-3171G-R3BE</t>
   </si>
   <si>
     <t>Разрешение экрана</t>
@@ -812,37 +806,10 @@
     <t>Комплект соединительных кабелей и сменных объективов, к-т</t>
   </si>
   <si>
-    <t>Видеокамера обзора аэродинамических поверхностей</t>
-  </si>
-  <si>
-    <t>2 к-т</t>
-  </si>
-  <si>
     <t>Разрешение</t>
   </si>
   <si>
-    <t>Прочее</t>
-  </si>
-  <si>
     <t>Поддержка протокола ONVIF, Поддержка питания PoE,Поддержка стандарта сжатия видео Н.265</t>
-  </si>
-  <si>
-    <t>2560 x 1440*</t>
-  </si>
-  <si>
-    <t>* - обсуждаемая позиция</t>
-  </si>
-  <si>
-    <t>Комплект конструктивных элементов для крепления видеокамер, к-т</t>
-  </si>
-  <si>
-    <t>В составе присутствует сервер точного времени, допускаетсяобеспечение двумя видеосерверами</t>
-  </si>
-  <si>
-    <t>Комплект соединительных кабелей, разъемов</t>
-  </si>
-  <si>
-    <t>Видеосервер на подключение 30 камер</t>
   </si>
   <si>
     <t>Система видеорегистрации (СВР)</t>
@@ -864,6 +831,74 @@
   </si>
   <si>
     <t>Преобразователь напряжения 28В/220В в 19”</t>
+  </si>
+  <si>
+    <t>Стойка монтажная с комплектом монтажных компонентов 32U</t>
+  </si>
+  <si>
+    <t>Элементы для крепления видеокамер, комплект</t>
+  </si>
+  <si>
+    <t>Видеосервер на подключение 30 камер, шт</t>
+  </si>
+  <si>
+    <t>Накопитель информации, шт</t>
+  </si>
+  <si>
+    <t>Промышленный безвентиляторный компьютер</t>
+  </si>
+  <si>
+    <t>₽</t>
+  </si>
+  <si>
+    <t>1 $ =</t>
+  </si>
+  <si>
+    <t>Соединительные кабеля, разъемы, комплект</t>
+  </si>
+  <si>
+    <t>i5, 8Гб ОП, 500Гб SSD,VGA, USB 2.0 x3шт</t>
+  </si>
+  <si>
+    <t>i7, 8Гб ОП, 500Гб + 1000Гб SSD, 19" исполнение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPS, ГЛОНАСС, NTN-сервер, PTР, IRIG-B </t>
+  </si>
+  <si>
+    <t>Инвертор 28В в 220В в стоечном 19 дюймовом исполнении</t>
+  </si>
+  <si>
+    <r>
+      <t>Видеокамера обзора аэродинамических поверхностей (минус 55 плюс 70</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>÷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>85 С)</t>
+    </r>
+  </si>
+  <si>
+    <t>Примечания</t>
+  </si>
+  <si>
+    <t>FPM-3171G-R3BE</t>
   </si>
 </sst>
 </file>
@@ -874,7 +909,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1012,6 +1047,22 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1021,7 +1072,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1175,22 +1226,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1234,9 +1275,6 @@
     </xf>
     <xf numFmtId="46" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1326,10 +1364,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1338,58 +1372,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1421,7 +1407,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1434,9 +1419,65 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Пояснение" xfId="1" builtinId="53"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1748,154 +1789,154 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D65DFA5-8C93-4E26-B00E-3D8602AC39AD}">
-  <dimension ref="A1:H89"/>
+  <dimension ref="A1:H88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K74" sqref="K74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.28515625" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="58.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" customWidth="1"/>
     <col min="4" max="4" width="38" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="42" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="41" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="38" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" style="37" customWidth="1"/>
     <col min="8" max="8" width="16.42578125" customWidth="1"/>
     <col min="10" max="23" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="76" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="96" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="81" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="80" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="82" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="80" t="s">
-        <v>131</v>
-      </c>
-      <c r="G1" s="83" t="s">
-        <v>132</v>
-      </c>
-      <c r="H1" s="80" t="s">
-        <v>148</v>
+      <c r="E1" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="61" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" s="64" t="s">
+        <v>130</v>
+      </c>
+      <c r="H1" s="61" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="80"/>
+      <c r="A2" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="61"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="61"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="85"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="66"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>22</v>
-      </c>
       <c r="D4" s="9"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="85"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="66"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="9"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="85"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="66"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="9"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="85"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="66"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="9"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="85"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="66"/>
     </row>
     <row r="8" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="87"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="85"/>
+        <v>21</v>
+      </c>
+      <c r="D8" s="68"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="66"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
@@ -1903,41 +1944,41 @@
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="85"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="66"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="87"/>
-      <c r="E10" s="84">
+      <c r="D10" s="68"/>
+      <c r="E10" s="65">
         <v>20</v>
       </c>
-      <c r="F10" s="40">
-        <f>H10/140</f>
+      <c r="F10" s="39">
+        <f>H10/$G$75</f>
         <v>3571.4285714285716</v>
       </c>
-      <c r="G10" s="86">
+      <c r="G10" s="67">
         <f>E10*F10</f>
         <v>71428.571428571435</v>
       </c>
-      <c r="H10" s="85">
+      <c r="H10" s="66">
         <v>500000</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>7</v>
@@ -1945,25 +1986,25 @@
       <c r="C11" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="87"/>
-      <c r="E11" s="84">
+      <c r="D11" s="68"/>
+      <c r="E11" s="65">
         <v>7</v>
       </c>
-      <c r="F11" s="40">
-        <f t="shared" ref="F11:F14" si="0">H11/140</f>
+      <c r="F11" s="39">
+        <f t="shared" ref="F11" si="0">H11/140</f>
         <v>3571.4285714285716</v>
       </c>
-      <c r="G11" s="86">
+      <c r="G11" s="67">
         <f>E11*F11</f>
         <v>25000</v>
       </c>
-      <c r="H11" s="85">
+      <c r="H11" s="66">
         <v>500000</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>5</v>
@@ -1971,64 +2012,64 @@
       <c r="C12" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="87"/>
-      <c r="E12" s="84">
+      <c r="D12" s="68"/>
+      <c r="E12" s="65">
         <v>6</v>
       </c>
-      <c r="F12" s="40">
-        <f t="shared" si="0"/>
+      <c r="F12" s="39">
+        <f>H12/$G$75</f>
         <v>3571.4285714285716</v>
       </c>
-      <c r="G12" s="86">
+      <c r="G12" s="67">
         <f>E12*F12</f>
         <v>21428.571428571428</v>
       </c>
-      <c r="H12" s="85">
+      <c r="H12" s="66">
         <v>500000</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="84">
+      <c r="D13" s="68"/>
+      <c r="E13" s="65">
         <v>1</v>
       </c>
-      <c r="F13" s="40">
-        <f t="shared" si="0"/>
+      <c r="F13" s="39">
+        <f>H13/$G$75</f>
         <v>9714.2857142857138</v>
       </c>
-      <c r="G13" s="86">
+      <c r="G13" s="67">
         <f>E13*F13</f>
         <v>9714.2857142857138</v>
       </c>
-      <c r="H13" s="85">
+      <c r="H13" s="66">
         <f>34*40000</f>
         <v>1360000</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="84">
+      <c r="D14" s="68"/>
+      <c r="E14" s="65">
         <v>1</v>
       </c>
-      <c r="F14" s="40">
-        <f t="shared" si="0"/>
+      <c r="F14" s="39">
+        <f>H14/$G$75</f>
         <v>14285.714285714286</v>
       </c>
-      <c r="G14" s="86">
+      <c r="G14" s="67">
         <f>E14*F14</f>
         <v>14285.714285714286</v>
       </c>
-      <c r="H14" s="85">
+      <c r="H14" s="66">
         <v>2000000</v>
       </c>
     </row>
@@ -2036,1039 +2077,1188 @@
       <c r="A15" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="85"/>
+      <c r="B15" s="9">
+        <v>1000</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E15" s="65">
+        <v>2</v>
+      </c>
+      <c r="F15" s="39">
+        <f>H15/$G$75</f>
+        <v>85.714285714285708</v>
+      </c>
+      <c r="G15" s="67">
+        <f>E15*F15</f>
+        <v>171.42857142857142</v>
+      </c>
+      <c r="H15" s="66">
+        <v>12000</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="9">
-        <v>1000</v>
-      </c>
-      <c r="C16" s="9" t="s">
+      <c r="A16" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="39">
+        <f>H16/$G$75</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="67"/>
+      <c r="H16" s="66"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E16" s="84">
-        <v>2</v>
-      </c>
-      <c r="F16" s="40">
-        <f>H16/140</f>
-        <v>85.714285714285708</v>
-      </c>
-      <c r="G16" s="86">
-        <f>E16*F16</f>
-        <v>171.42857142857142</v>
-      </c>
-      <c r="H16" s="85">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="85"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E17" s="65">
+        <v>10</v>
+      </c>
+      <c r="F17" s="39">
+        <f>H17/$G$75</f>
+        <v>1785.7142857142858</v>
+      </c>
+      <c r="G17" s="69">
+        <f>E17*F17</f>
+        <v>17857.142857142859</v>
+      </c>
+      <c r="H17" s="66">
+        <v>250000</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="84">
-        <v>10</v>
-      </c>
-      <c r="F18" s="40">
-        <v>1753.32</v>
-      </c>
-      <c r="G18" s="88">
-        <f>E18*F18</f>
-        <v>17533.2</v>
-      </c>
-      <c r="H18" s="85"/>
+        <v>29</v>
+      </c>
+      <c r="B18" s="10">
+        <v>17</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="39">
+        <f>H18/$G$75</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="67"/>
+      <c r="H18" s="66"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="10">
-        <v>17</v>
+        <v>31</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D19" s="9"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="85"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="39">
+        <f>H19/$G$75</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="67"/>
+      <c r="H19" s="66"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>27</v>
-      </c>
       <c r="C20" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="85"/>
+        <v>34</v>
+      </c>
+      <c r="D20" s="70"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="39">
+        <f>H20/$G$75</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="67"/>
+      <c r="H20" s="66"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="10" t="s">
         <v>35</v>
       </c>
+      <c r="B21" s="15">
+        <v>29.167361111111109</v>
+      </c>
       <c r="C21" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="89"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="85"/>
+        <v>21</v>
+      </c>
+      <c r="D21" s="68"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="39">
+        <f>H21/$G$75</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="67"/>
+      <c r="H21" s="66"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="15">
-        <v>29.167361111111109</v>
-      </c>
       <c r="C22" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="87"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="85"/>
+        <v>21</v>
+      </c>
+      <c r="D22" s="68"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="39">
+        <f>H22/$G$75</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="67"/>
+      <c r="H22" s="66"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="87"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="85"/>
+        <v>21</v>
+      </c>
+      <c r="D23" s="68"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="39">
+        <f>H23/$G$75</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="67"/>
+      <c r="H23" s="66"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="87"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="85"/>
+      <c r="A24" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="65">
+        <v>4</v>
+      </c>
+      <c r="F24" s="39">
+        <f>H24/$G$75</f>
+        <v>714.28571428571433</v>
+      </c>
+      <c r="G24" s="67">
+        <f>E24*F24</f>
+        <v>2857.1428571428573</v>
+      </c>
+      <c r="H24" s="66">
+        <v>100000</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="80" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="84">
-        <v>4</v>
-      </c>
-      <c r="F25" s="40">
-        <f>H25/140</f>
-        <v>714.28571428571433</v>
-      </c>
-      <c r="G25" s="86">
-        <f>E25*F25</f>
-        <v>2857.1428571428573</v>
-      </c>
-      <c r="H25" s="85">
-        <v>100000</v>
-      </c>
+      <c r="A25" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="39">
+        <f>H25/$G$75</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="67"/>
+      <c r="H25" s="66"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
+      <c r="B26" s="10">
+        <v>8</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="D26" s="9"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="85"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="39">
+        <f>H26/$G$75</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="67"/>
+      <c r="H26" s="66"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B27" s="10">
-        <v>8</v>
+        <v>270</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="84"/>
-      <c r="F27" s="85"/>
-      <c r="G27" s="86"/>
-      <c r="H27" s="85"/>
+        <v>40</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="65"/>
+      <c r="F27" s="39">
+        <f>H27/$G$75</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="67"/>
+      <c r="H27" s="66"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>41</v>
       </c>
       <c r="B28" s="10">
-        <v>270</v>
+        <v>188</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" s="84"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="86"/>
-      <c r="H28" s="85"/>
+        <v>40</v>
+      </c>
+      <c r="D28" s="68"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="39">
+        <f>H28/$G$75</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="67"/>
+      <c r="H28" s="66"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="10">
+        <v>19</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="68"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="39">
+        <f>H29/$G$75</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="67"/>
+      <c r="H29" s="66"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="10">
-        <v>188</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" s="87"/>
-      <c r="E29" s="84"/>
-      <c r="F29" s="85"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="85"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
+      <c r="B30" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="10">
-        <v>19</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" s="87"/>
-      <c r="E30" s="84"/>
-      <c r="F30" s="85"/>
-      <c r="G30" s="86"/>
-      <c r="H30" s="85"/>
+      <c r="C30" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="71"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="39">
+        <f>H30/$G$75</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="67"/>
+      <c r="H30" s="66"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31" s="91"/>
-      <c r="E31" s="84"/>
-      <c r="F31" s="85"/>
-      <c r="G31" s="86"/>
-      <c r="H31" s="85"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="65">
+        <v>8</v>
+      </c>
+      <c r="F31" s="39">
+        <f>H31/$G$75</f>
+        <v>1428.5714285714287</v>
+      </c>
+      <c r="G31" s="67">
+        <f>E31*F31</f>
+        <v>11428.571428571429</v>
+      </c>
+      <c r="H31" s="66">
+        <v>200000</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="80" t="s">
-        <v>47</v>
-      </c>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="84">
-        <v>8</v>
-      </c>
-      <c r="F32" s="40">
-        <f>H32/140</f>
-        <v>1428.5714285714287</v>
-      </c>
-      <c r="G32" s="86">
-        <f>E32*F32</f>
-        <v>11428.571428571429</v>
-      </c>
-      <c r="H32" s="85">
-        <v>200000</v>
-      </c>
+      <c r="A32" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="39">
+        <f>H32/$G$75</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="67"/>
+      <c r="H32" s="66"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D33" s="9"/>
-      <c r="E33" s="84"/>
-      <c r="F33" s="85"/>
-      <c r="G33" s="86"/>
-      <c r="H33" s="85"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E33" s="65"/>
+      <c r="F33" s="39">
+        <f>H33/$G$75</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="67"/>
+      <c r="H33" s="66"/>
+    </row>
+    <row r="34" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="10">
+        <v>8</v>
+      </c>
+      <c r="C34" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D34" s="9"/>
-      <c r="E34" s="84"/>
-      <c r="F34" s="85"/>
-      <c r="G34" s="86"/>
-      <c r="H34" s="85"/>
-    </row>
-    <row r="35" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D34" s="20"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="39">
+        <f>H34/$G$75</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="36"/>
+      <c r="H34" s="38"/>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="10">
-        <v>8</v>
-      </c>
-      <c r="C35" s="20" t="s">
+      <c r="B35" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D35" s="21"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="39"/>
-    </row>
-    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="40"/>
+      <c r="F35" s="39">
+        <f>H35/$G$75</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="36"/>
+      <c r="H35" s="38"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B36" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E36" s="41"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="39"/>
+      <c r="B36" s="10">
+        <v>500</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="12"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="39">
+        <f>H36/$G$75</f>
+        <v>0</v>
+      </c>
+      <c r="G36" s="36"/>
+      <c r="H36" s="38"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B37" s="10">
-        <v>500</v>
-      </c>
-      <c r="C37" s="20" t="s">
-        <v>51</v>
+      <c r="C37" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="D37" s="12"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="39"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="39">
+        <f>H37/$G$75</f>
+        <v>0</v>
+      </c>
+      <c r="G37" s="36"/>
+      <c r="H37" s="38"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="10">
+        <v>3</v>
+      </c>
+      <c r="C38" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C38" s="10" t="s">
-        <v>22</v>
-      </c>
       <c r="D38" s="12"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="39"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="39">
+        <f>H38/$G$75</f>
+        <v>0</v>
+      </c>
+      <c r="G38" s="36"/>
+      <c r="H38" s="38"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B39" s="10">
-        <v>3</v>
-      </c>
-      <c r="C39" s="20" t="s">
+      <c r="B39" s="10" t="s">
         <v>58</v>
       </c>
+      <c r="C39" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="D39" s="12"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="39"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="39">
+        <f>H39/$G$75</f>
+        <v>0</v>
+      </c>
+      <c r="G39" s="36"/>
+      <c r="H39" s="38"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>59</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D40" s="12"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="39"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="39">
+        <f>H40/$G$75</f>
+        <v>0</v>
+      </c>
+      <c r="G40" s="36"/>
+      <c r="H40" s="38"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="39">
+        <f>H41/$G$75</f>
+        <v>0</v>
+      </c>
+      <c r="G41" s="36"/>
+      <c r="H41" s="38"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="40">
+        <v>4</v>
+      </c>
+      <c r="F42" s="39">
+        <f>H42/$G$75</f>
+        <v>585.71428571428567</v>
+      </c>
+      <c r="G42" s="36">
+        <f t="shared" ref="G42:G68" si="1">E42*F42</f>
+        <v>2342.8571428571427</v>
+      </c>
+      <c r="H42" s="38">
+        <v>82000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B41" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D41" s="12"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="39"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="41">
-        <v>2</v>
-      </c>
-      <c r="F42" s="39"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="39"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="80" t="s">
-        <v>62</v>
-      </c>
-      <c r="B43" s="23"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="41">
-        <v>4</v>
-      </c>
-      <c r="F43" s="40">
-        <f>H43/140</f>
-        <v>585.71428571428567</v>
-      </c>
-      <c r="G43" s="37">
-        <f t="shared" ref="G43:G69" si="1">E43*F43</f>
-        <v>2342.8571428571427</v>
-      </c>
-      <c r="H43" s="39">
-        <v>82000</v>
-      </c>
+      <c r="B43" s="10">
+        <v>38</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="40"/>
+      <c r="F43" s="39">
+        <f>H43/$G$75</f>
+        <v>0</v>
+      </c>
+      <c r="G43" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H43" s="38"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B44" s="10">
-        <v>38</v>
-      </c>
-      <c r="C44" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E44" s="41"/>
-      <c r="F44" s="39"/>
-      <c r="G44" s="37">
+        <v>105</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" s="9"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="39">
+        <f>H44/$G$75</f>
+        <v>0</v>
+      </c>
+      <c r="G44" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H44" s="39"/>
+      <c r="H44" s="38"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B45" s="10">
-        <v>105</v>
-      </c>
-      <c r="C45" s="20" t="s">
-        <v>58</v>
+      <c r="C45" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="D45" s="9"/>
-      <c r="E45" s="41"/>
-      <c r="F45" s="39"/>
-      <c r="G45" s="37">
+      <c r="E45" s="40"/>
+      <c r="F45" s="39">
+        <f>H45/$G$75</f>
+        <v>0</v>
+      </c>
+      <c r="G45" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H45" s="39"/>
+      <c r="H45" s="38"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="39">
+        <f>H46/$G$75</f>
+        <v>0</v>
+      </c>
+      <c r="G46" s="36"/>
+      <c r="H46" s="38"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B46" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D46" s="9"/>
-      <c r="E46" s="41"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="37">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H46" s="39"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="41"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="39"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="40">
+        <v>2</v>
+      </c>
+      <c r="F47" s="39">
+        <f>H47/$G$75</f>
+        <v>1428.5714285714287</v>
+      </c>
+      <c r="G47" s="36">
+        <f>E47*F47</f>
+        <v>2857.1428571428573</v>
+      </c>
+      <c r="H47" s="38">
+        <v>200000</v>
+      </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B48" s="23"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="41">
-        <v>2</v>
-      </c>
-      <c r="F48" s="40">
-        <f>H48/140</f>
-        <v>1428.5714285714287</v>
-      </c>
-      <c r="G48" s="37">
-        <f>E48*F48</f>
-        <v>2857.1428571428573</v>
-      </c>
-      <c r="H48" s="39">
-        <v>200000</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" s="11"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="39">
+        <f>H48/$G$75</f>
+        <v>0</v>
+      </c>
+      <c r="G48" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H48" s="38"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>22</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C49" s="13"/>
       <c r="D49" s="11"/>
-      <c r="E49" s="41"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="37">
+      <c r="E49" s="40"/>
+      <c r="F49" s="39">
+        <f>H49/$G$75</f>
+        <v>0</v>
+      </c>
+      <c r="G49" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H49" s="39"/>
+      <c r="H49" s="38"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C50" s="13"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="41"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="37">
+        <v>48</v>
+      </c>
+      <c r="B50" s="10">
+        <v>8</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" s="21"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="39">
+        <f>H50/$G$75</f>
+        <v>0</v>
+      </c>
+      <c r="G50" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H50" s="39"/>
+      <c r="H50" s="38"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B51" s="10">
-        <v>8</v>
-      </c>
-      <c r="C51" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D51" s="22"/>
-      <c r="E51" s="41"/>
-      <c r="F51" s="39"/>
-      <c r="G51" s="37">
+        <v>83</v>
+      </c>
+      <c r="B51" s="9">
+        <v>500</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" s="40"/>
+      <c r="F51" s="39">
+        <f>H51/$G$75</f>
+        <v>0</v>
+      </c>
+      <c r="G51" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H51" s="39"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H51" s="38"/>
+    </row>
+    <row r="52" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B52" s="9">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D52" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D52" s="12"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="39">
+        <f>H52/$G$75</f>
+        <v>0</v>
+      </c>
+      <c r="G52" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H52" s="38"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="13"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="39">
+        <f>H53/$G$75</f>
+        <v>0</v>
+      </c>
+      <c r="G53" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H53" s="38"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="40">
+        <v>2</v>
+      </c>
+      <c r="F54" s="39">
+        <f>H54/$G$75</f>
+        <v>1571.4285714285713</v>
+      </c>
+      <c r="G54" s="36">
+        <f t="shared" si="1"/>
+        <v>3142.8571428571427</v>
+      </c>
+      <c r="H54" s="38">
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55" s="20"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="39">
+        <f>H55/$G$75</f>
+        <v>0</v>
+      </c>
+      <c r="G55" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H55" s="38"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B56" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D56" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E52" s="41"/>
-      <c r="F52" s="39"/>
-      <c r="G52" s="37">
+      <c r="E56" s="40"/>
+      <c r="F56" s="39">
+        <f>H56/$G$75</f>
+        <v>0</v>
+      </c>
+      <c r="G56" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H52" s="39"/>
-    </row>
-    <row r="53" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B53" s="9">
-        <v>1000</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D53" s="12"/>
-      <c r="E53" s="41"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="37">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H53" s="39"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C54" s="13"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="41"/>
-      <c r="F54" s="39"/>
-      <c r="G54" s="37">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H54" s="39"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="B55" s="23"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="41">
-        <v>2</v>
-      </c>
-      <c r="F55" s="40">
-        <f>H55/140</f>
-        <v>1428.5714285714287</v>
-      </c>
-      <c r="G55" s="37">
-        <f t="shared" si="1"/>
-        <v>2857.1428571428573</v>
-      </c>
-      <c r="H55" s="39">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D56" s="21"/>
-      <c r="E56" s="41"/>
-      <c r="F56" s="39"/>
-      <c r="G56" s="37">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H56" s="39"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H56" s="38"/>
+    </row>
+    <row r="57" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="77" t="s">
         <v>72</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E57" s="41"/>
-      <c r="F57" s="39"/>
-      <c r="G57" s="37">
+        <v>21</v>
+      </c>
+      <c r="D57" s="12"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="39">
+        <f>H57/$G$75</f>
+        <v>0</v>
+      </c>
+      <c r="G57" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H57" s="39"/>
-    </row>
-    <row r="58" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="s">
+      <c r="H57" s="38"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E58" s="40"/>
+      <c r="F58" s="39">
+        <f>H58/$G$75</f>
+        <v>0</v>
+      </c>
+      <c r="G58" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H58" s="38"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C58" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D58" s="12"/>
-      <c r="E58" s="41"/>
-      <c r="F58" s="39"/>
-      <c r="G58" s="37">
+      <c r="B59" s="10">
+        <v>28</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D59" t="s">
+        <v>82</v>
+      </c>
+      <c r="E59" s="40"/>
+      <c r="F59" s="39">
+        <f>H59/$G$75</f>
+        <v>0</v>
+      </c>
+      <c r="G59" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H58" s="39"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="80" t="s">
-        <v>75</v>
-      </c>
-      <c r="B59" s="23"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E59" s="41"/>
-      <c r="F59" s="39"/>
-      <c r="G59" s="37">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H59" s="39"/>
+      <c r="H59" s="38"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B60" s="10">
-        <v>28</v>
+      <c r="B60" s="10" t="s">
+        <v>77</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D60" s="16"/>
-      <c r="E60" s="41"/>
-      <c r="F60" s="39"/>
-      <c r="G60" s="37">
+        <v>21</v>
+      </c>
+      <c r="D60" s="1"/>
+      <c r="E60" s="40"/>
+      <c r="F60" s="39">
+        <f>H60/$G$75</f>
+        <v>0</v>
+      </c>
+      <c r="G60" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H60" s="39"/>
+      <c r="H60" s="38"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="9" t="s">
+      <c r="A61" s="61" t="s">
+        <v>138</v>
+      </c>
+      <c r="B61" s="22"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="40">
+        <v>1</v>
+      </c>
+      <c r="F61" s="39">
+        <f>H61/$G$75</f>
+        <v>1428.5714285714287</v>
+      </c>
+      <c r="G61" s="36">
+        <f t="shared" si="1"/>
+        <v>1428.5714285714287</v>
+      </c>
+      <c r="H61" s="38">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B62" s="10">
+        <v>1000</v>
+      </c>
+      <c r="C62" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="C61" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D61" t="s">
-        <v>84</v>
-      </c>
-      <c r="E61" s="41"/>
-      <c r="F61" s="39"/>
-      <c r="G61" s="37">
+      <c r="D62" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" s="40"/>
+      <c r="F62" s="39">
+        <f>H62/$G$75</f>
+        <v>0</v>
+      </c>
+      <c r="G62" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H61" s="39"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="80" t="s">
-        <v>149</v>
-      </c>
-      <c r="B62" s="23"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="41"/>
-      <c r="F62" s="39"/>
-      <c r="G62" s="37">
+      <c r="H62" s="38"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B63" s="18">
+        <v>220</v>
+      </c>
+      <c r="C63" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D63" s="17"/>
+      <c r="E63" s="72"/>
+      <c r="F63" s="39">
+        <f>H63/$G$75</f>
+        <v>0</v>
+      </c>
+      <c r="G63" s="74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H62" s="39"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B63" s="10">
-        <v>1000</v>
-      </c>
-      <c r="C63" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E63" s="41"/>
-      <c r="F63" s="39"/>
-      <c r="G63" s="37">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H63" s="39"/>
+      <c r="H63" s="73"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="B64" s="19">
-        <v>220</v>
-      </c>
-      <c r="C64" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="D64" s="18"/>
-      <c r="E64" s="92"/>
-      <c r="F64" s="93"/>
-      <c r="G64" s="94">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H64" s="93"/>
+      <c r="A64" s="75" t="s">
+        <v>139</v>
+      </c>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="40">
+        <v>4</v>
+      </c>
+      <c r="F64" s="39">
+        <f>H64/$G$75</f>
+        <v>757.14285714285711</v>
+      </c>
+      <c r="G64" s="74">
+        <f>E64*F64</f>
+        <v>3028.5714285714284</v>
+      </c>
+      <c r="H64" s="38">
+        <v>106000</v>
+      </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="95" t="s">
-        <v>114</v>
-      </c>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="41">
-        <v>4</v>
-      </c>
-      <c r="F65" s="40">
-        <f>H65/140</f>
-        <v>757.14285714285711</v>
-      </c>
-      <c r="G65" s="94">
+      <c r="A65" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" s="22"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="65">
+        <v>2</v>
+      </c>
+      <c r="F65" s="39">
+        <f>H65/$G$75</f>
+        <v>85.714285714285708</v>
+      </c>
+      <c r="G65" s="67">
         <f>E65*F65</f>
-        <v>3028.5714285714284</v>
-      </c>
-      <c r="H65" s="39">
-        <v>106000</v>
+        <v>171.42857142857142</v>
+      </c>
+      <c r="H65" s="38">
+        <v>12000</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B66" s="23"/>
-      <c r="C66" s="23"/>
-      <c r="D66" s="23"/>
-      <c r="E66" s="84">
+      <c r="A66" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="40">
         <v>2</v>
       </c>
-      <c r="F66" s="40">
-        <f>H66/140</f>
-        <v>85.714285714285708</v>
-      </c>
-      <c r="G66" s="86">
-        <f>E66*F66</f>
-        <v>171.42857142857142</v>
-      </c>
-      <c r="H66" s="85">
-        <v>12000</v>
+      <c r="F66" s="39">
+        <f>H66/$G$75</f>
+        <v>1571.4285714285713</v>
+      </c>
+      <c r="G66" s="36">
+        <f t="shared" ref="G66" si="2">E66*F66</f>
+        <v>3142.8571428571427</v>
+      </c>
+      <c r="H66" s="38">
+        <v>220000</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="80" t="s">
-        <v>109</v>
+      <c r="A67" s="61" t="s">
+        <v>104</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
-      <c r="E67" s="41"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="94">
+      <c r="E67" s="40">
+        <v>8</v>
+      </c>
+      <c r="F67" s="39">
+        <f>H67/$G$75</f>
+        <v>35.714285714285715</v>
+      </c>
+      <c r="G67" s="74">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H67" s="1"/>
+        <v>285.71428571428572</v>
+      </c>
+      <c r="H67" s="38">
+        <v>5000</v>
+      </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="9" t="s">
-        <v>106</v>
+      <c r="A68" s="61" t="s">
+        <v>110</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
-      <c r="E68" s="41"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="94">
+      <c r="E68" s="40">
+        <v>8</v>
+      </c>
+      <c r="F68" s="39">
+        <f>H68/$G$75</f>
+        <v>35.714285714285715</v>
+      </c>
+      <c r="G68" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H68" s="1"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="41"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="37">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H69" s="1"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G71" s="38">
-        <f>SUM(G3:G69)</f>
-        <v>185104.62857142862</v>
-      </c>
-      <c r="H71" s="43">
-        <f>G71*140</f>
-        <v>25914648.000000007</v>
-      </c>
+        <v>285.71428571428572</v>
+      </c>
+      <c r="H68" s="38">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G70" s="37">
+        <f>SUM(G3:G68)</f>
+        <v>190857.14285714287</v>
+      </c>
+      <c r="H70" s="42">
+        <f>G70*140</f>
+        <v>26720000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="56"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="74"/>
+      <c r="A74" s="48"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="49"/>
+      <c r="A75" s="48"/>
+      <c r="F75" s="93" t="s">
+        <v>145</v>
+      </c>
+      <c r="G75" s="94">
+        <v>140</v>
+      </c>
+      <c r="H75" s="95" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="49"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="49"/>
-    </row>
-    <row r="78" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A78" s="75"/>
+      <c r="A76" s="48"/>
+    </row>
+    <row r="77" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A77" s="57"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="48"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="49"/>
+      <c r="A79" s="47"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="48"/>
+      <c r="A80" s="47"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="48"/>
+      <c r="A81" s="79"/>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="76"/>
+      <c r="A82" s="79"/>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="76"/>
+      <c r="A83" s="79"/>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="76"/>
+      <c r="A84" s="48"/>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="49"/>
+      <c r="A85" s="48"/>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="49"/>
+      <c r="A86" s="47"/>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="48"/>
+      <c r="A87" s="47"/>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="48"/>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="48"/>
+      <c r="A88" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="A81:A83"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3080,7 +3270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F5F18FA-93CB-4509-8941-2E26BAFE3826}">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -3093,74 +3283,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="24"/>
-      <c r="B1" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="D1" s="27"/>
+      <c r="A1" s="23"/>
+      <c r="B1" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="26"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="77"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="79"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="60"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="C3" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="26" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="86" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="88"/>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="46" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="64" t="s">
-        <v>92</v>
-      </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="66"/>
-    </row>
-    <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="47" t="s">
-        <v>93</v>
-      </c>
       <c r="B5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="2">
         <v>20</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="47" t="s">
-        <v>95</v>
+      <c r="A6" s="46" t="s">
+        <v>93</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2">
         <v>7</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="47" t="s">
-        <v>97</v>
+      <c r="A7" s="46" t="s">
+        <v>95</v>
       </c>
       <c r="B7" s="2">
         <v>3</v>
@@ -3169,11 +3359,11 @@
         <v>3</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="46" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="2">
@@ -3183,136 +3373,136 @@
         <v>1</v>
       </c>
       <c r="D8" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="47" t="s">
+      <c r="C9" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="46"/>
+      <c r="B10" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="86" t="s">
         <v>101</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="B11" s="87"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="88"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="83">
+        <v>5</v>
+      </c>
+      <c r="C12" s="83">
+        <v>5</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="47"/>
-      <c r="B10" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D10" s="6" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="81"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="81"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="82"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="80" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="83">
+        <v>4</v>
+      </c>
+      <c r="C16" s="83">
+        <v>4</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="64" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="81"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="82"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="66"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="60" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="62">
-        <v>5</v>
-      </c>
-      <c r="C12" s="62">
-        <v>5</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="67"/>
-      <c r="B13" s="68"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="67"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="61"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="62">
-        <v>4</v>
-      </c>
-      <c r="C16" s="62">
-        <v>4</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="67"/>
-      <c r="B17" s="68"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="61"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="6" t="s">
-        <v>105</v>
-      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="60" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" s="62">
+      <c r="A19" s="80" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="83">
         <v>2</v>
       </c>
-      <c r="C19" s="62">
+      <c r="C19" s="83">
         <v>2</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="61"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
+      <c r="A20" s="82"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="85"/>
       <c r="D20" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
+      <c r="A21" s="28"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="47" t="s">
-        <v>16</v>
+      <c r="A22" s="46" t="s">
+        <v>15</v>
       </c>
       <c r="B22" s="2">
         <v>2</v>
@@ -3321,33 +3511,33 @@
         <v>2</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="47" t="s">
+      <c r="A23" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="44" t="s">
-        <v>108</v>
-      </c>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="46"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="45"/>
     </row>
     <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="47" t="s">
+      <c r="A25" s="46" t="s">
         <v>8</v>
       </c>
       <c r="B25" s="2">
@@ -3357,39 +3547,39 @@
         <v>1</v>
       </c>
       <c r="D25" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="C26" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D26" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="C27" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="30"/>
+      <c r="A28" s="29"/>
       <c r="B28" s="2">
         <v>2</v>
       </c>
@@ -3397,12 +3587,12 @@
         <v>2</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="47" t="s">
-        <v>110</v>
+      <c r="A29" s="46" t="s">
+        <v>108</v>
       </c>
       <c r="B29" s="2">
         <v>2</v>
@@ -3411,70 +3601,70 @@
         <v>2</v>
       </c>
       <c r="D29" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="47" t="s">
-        <v>106</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="47" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="80" t="s">
         <v>112</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D31" s="6" t="s">
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="31" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="81"/>
+      <c r="B33" s="5" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="60" t="s">
-        <v>114</v>
-      </c>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="32" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="67"/>
-      <c r="B33" s="5" t="s">
+      <c r="C33" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D33" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D33" s="33" t="s">
-        <v>117</v>
-      </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="61"/>
+      <c r="A34" s="82"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
-      <c r="D34" s="34" t="s">
-        <v>118</v>
+      <c r="D34" s="33" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="47" t="s">
-        <v>70</v>
+      <c r="A35" s="46" t="s">
+        <v>68</v>
       </c>
       <c r="B35" s="2">
         <v>1</v>
@@ -3483,79 +3673,79 @@
         <v>1</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="47" t="s">
+      <c r="A36" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="B36" s="91" t="s">
+        <v>118</v>
+      </c>
+      <c r="C36" s="92"/>
+      <c r="D36" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="90" t="s">
         <v>119</v>
       </c>
-      <c r="B36" s="71" t="s">
+      <c r="B38" s="90"/>
+      <c r="C38" s="90"/>
+      <c r="D38" s="90"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="89" t="s">
         <v>120</v>
       </c>
-      <c r="C36" s="72"/>
-      <c r="D36" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="70" t="s">
+      <c r="B39" s="89"/>
+      <c r="C39" s="89"/>
+      <c r="D39" s="89"/>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="90" t="s">
         <v>121</v>
       </c>
-      <c r="B38" s="70"/>
-      <c r="C38" s="70"/>
-      <c r="D38" s="70"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="69" t="s">
+      <c r="B40" s="90"/>
+      <c r="C40" s="90"/>
+      <c r="D40" s="90"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="B39" s="69"/>
-      <c r="C39" s="69"/>
-      <c r="D39" s="69"/>
-    </row>
-    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="70" t="s">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="34"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="B40" s="70"/>
-      <c r="C40" s="70"/>
-      <c r="D40" s="70"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="35" t="s">
+    </row>
+    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="35" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="35"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="35" t="s">
+    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="35" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="36" t="s">
+    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="35" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="36" t="s">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="35"/>
+    </row>
+    <row r="48" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="16" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="36" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="36"/>
-    </row>
-    <row r="48" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="17" t="s">
-        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -3568,14 +3758,14 @@
     <mergeCell ref="A32:A34"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C16:C18"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="B12:B15"/>
     <mergeCell ref="C12:C15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="C16:C18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3583,126 +3773,149 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{650A72E0-513B-499A-8298-BC1A582937B2}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="D2" sqref="D2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="69.140625" customWidth="1"/>
+    <col min="1" max="1" width="73.7109375" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" customWidth="1"/>
     <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="47.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="B1" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="50" t="s">
-        <v>138</v>
-      </c>
-      <c r="D1" s="52" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="B2" s="53">
+      <c r="A1" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="52">
         <v>20</v>
       </c>
-      <c r="C2" s="57" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="73" t="s">
+      <c r="C2" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="53" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="52">
+        <v>7</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="53"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="52">
+        <v>6</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="53"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="53" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="B3" s="53">
-        <v>7</v>
-      </c>
-      <c r="C3" s="57" t="s">
+      <c r="B5" s="50">
+        <v>1</v>
+      </c>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="55" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" s="50">
+        <v>1</v>
+      </c>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="53" t="s">
         <v>141</v>
       </c>
-      <c r="D3" s="73"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
-        <v>97</v>
-      </c>
-      <c r="B4" s="53">
-        <v>6</v>
-      </c>
-      <c r="C4" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="73"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="56" t="s">
+      <c r="B7" s="49">
+        <v>2</v>
+      </c>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" s="49">
+        <v>2</v>
+      </c>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9" s="49">
+        <v>1</v>
+      </c>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="B5" s="51">
+      <c r="B10" s="49">
+        <v>8</v>
+      </c>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="49">
         <v>2</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="58" t="s">
-        <v>145</v>
-      </c>
-      <c r="B6" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-    </row>
-    <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="56" t="s">
-        <v>146</v>
-      </c>
-      <c r="B7" s="50" t="s">
-        <v>137</v>
-      </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="54" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="56" t="s">
-        <v>109</v>
-      </c>
-      <c r="B8" s="50" t="s">
-        <v>137</v>
-      </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="59" t="s">
-        <v>142</v>
-      </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49" t="s">
+        <v>149</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D2:D4"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/ssj/new ssj.xlsx
+++ b/ssj/new ssj.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkProject\PACVIC\ssj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FDBF8A-895A-4C47-8A7A-89EB0966BA64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F93EFB-6970-4F0E-801F-1604DBB5D34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2D8AD6FB-06A8-429F-AD3B-DAC79497FD29}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="155">
   <si>
     <t>Видеокамеры</t>
   </si>
@@ -900,14 +900,18 @@
   <si>
     <t>FPM-3171G-R3BE</t>
   </si>
+  <si>
+    <t>Отсек аккумуляторной батареи</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="168" formatCode="[$$-409]#,##0.00"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -1231,7 +1235,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1425,27 +1429,46 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1455,25 +1478,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1789,10 +1794,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D65DFA5-8C93-4E26-B00E-3D8602AC39AD}">
-  <dimension ref="A1:H88"/>
+  <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K74" sqref="K74"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J65" sqref="J65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1801,7 +1806,7 @@
     <col min="2" max="2" width="30.28515625" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" customWidth="1"/>
     <col min="4" max="4" width="38" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="41" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="41" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" style="37" customWidth="1"/>
     <col min="8" max="8" width="16.42578125" customWidth="1"/>
@@ -1962,15 +1967,15 @@
       </c>
       <c r="D10" s="68"/>
       <c r="E10" s="65">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F10" s="39">
-        <f>H10/$G$75</f>
+        <f>H10/$G$77</f>
         <v>3571.4285714285716</v>
       </c>
       <c r="G10" s="67">
-        <f>E10*F10</f>
-        <v>71428.571428571435</v>
+        <f t="shared" ref="G10:G15" si="0">E10*F10</f>
+        <v>75000</v>
       </c>
       <c r="H10" s="66">
         <v>500000</v>
@@ -1988,15 +1993,15 @@
       </c>
       <c r="D11" s="68"/>
       <c r="E11" s="65">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F11" s="39">
-        <f t="shared" ref="F11" si="0">H11/140</f>
+        <f t="shared" ref="F11" si="1">H11/140</f>
         <v>3571.4285714285716</v>
       </c>
       <c r="G11" s="67">
-        <f>E11*F11</f>
-        <v>25000</v>
+        <f t="shared" si="0"/>
+        <v>28571.428571428572</v>
       </c>
       <c r="H11" s="66">
         <v>500000</v>
@@ -2017,11 +2022,11 @@
         <v>6</v>
       </c>
       <c r="F12" s="39">
-        <f>H12/$G$75</f>
+        <f t="shared" ref="F12:F43" si="2">H12/$G$77</f>
         <v>3571.4285714285716</v>
       </c>
       <c r="G12" s="67">
-        <f>E12*F12</f>
+        <f t="shared" si="0"/>
         <v>21428.571428571428</v>
       </c>
       <c r="H12" s="66">
@@ -2039,11 +2044,11 @@
         <v>1</v>
       </c>
       <c r="F13" s="39">
-        <f>H13/$G$75</f>
+        <f t="shared" si="2"/>
         <v>9714.2857142857138</v>
       </c>
       <c r="G13" s="67">
-        <f>E13*F13</f>
+        <f t="shared" si="0"/>
         <v>9714.2857142857138</v>
       </c>
       <c r="H13" s="66">
@@ -2062,11 +2067,11 @@
         <v>1</v>
       </c>
       <c r="F14" s="39">
-        <f>H14/$G$75</f>
+        <f t="shared" si="2"/>
         <v>14285.714285714286</v>
       </c>
       <c r="G14" s="67">
-        <f>E14*F14</f>
+        <f t="shared" si="0"/>
         <v>14285.714285714286</v>
       </c>
       <c r="H14" s="66">
@@ -2087,15 +2092,15 @@
         <v>128</v>
       </c>
       <c r="E15" s="65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15" s="39">
-        <f>H15/$G$75</f>
+        <f t="shared" si="2"/>
         <v>85.714285714285708</v>
       </c>
       <c r="G15" s="67">
-        <f>E15*F15</f>
-        <v>171.42857142857142</v>
+        <f t="shared" si="0"/>
+        <v>257.14285714285711</v>
       </c>
       <c r="H15" s="66">
         <v>12000</v>
@@ -2110,7 +2115,7 @@
       <c r="D16" s="9"/>
       <c r="E16" s="65"/>
       <c r="F16" s="39">
-        <f>H16/$G$75</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G16" s="67"/>
@@ -2129,7 +2134,7 @@
         <v>10</v>
       </c>
       <c r="F17" s="39">
-        <f>H17/$G$75</f>
+        <f t="shared" si="2"/>
         <v>1785.7142857142858</v>
       </c>
       <c r="G17" s="69">
@@ -2153,7 +2158,7 @@
       <c r="D18" s="9"/>
       <c r="E18" s="65"/>
       <c r="F18" s="39">
-        <f>H18/$G$75</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G18" s="67"/>
@@ -2172,7 +2177,7 @@
       <c r="D19" s="9"/>
       <c r="E19" s="65"/>
       <c r="F19" s="39">
-        <f>H19/$G$75</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G19" s="67"/>
@@ -2191,7 +2196,7 @@
       <c r="D20" s="70"/>
       <c r="E20" s="65"/>
       <c r="F20" s="39">
-        <f>H20/$G$75</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G20" s="67"/>
@@ -2210,7 +2215,7 @@
       <c r="D21" s="68"/>
       <c r="E21" s="65"/>
       <c r="F21" s="39">
-        <f>H21/$G$75</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G21" s="67"/>
@@ -2229,7 +2234,7 @@
       <c r="D22" s="68"/>
       <c r="E22" s="65"/>
       <c r="F22" s="39">
-        <f>H22/$G$75</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G22" s="67"/>
@@ -2248,7 +2253,7 @@
       <c r="D23" s="68"/>
       <c r="E23" s="65"/>
       <c r="F23" s="39">
-        <f>H23/$G$75</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G23" s="67"/>
@@ -2262,15 +2267,15 @@
       <c r="C24" s="22"/>
       <c r="D24" s="22"/>
       <c r="E24" s="65">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F24" s="39">
-        <f>H24/$G$75</f>
+        <f t="shared" si="2"/>
         <v>714.28571428571433</v>
       </c>
       <c r="G24" s="67">
         <f>E24*F24</f>
-        <v>2857.1428571428573</v>
+        <v>3571.4285714285716</v>
       </c>
       <c r="H24" s="66">
         <v>100000</v>
@@ -2285,7 +2290,7 @@
       <c r="D25" s="9"/>
       <c r="E25" s="65"/>
       <c r="F25" s="39">
-        <f>H25/$G$75</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G25" s="67"/>
@@ -2304,7 +2309,7 @@
       <c r="D26" s="9"/>
       <c r="E26" s="65"/>
       <c r="F26" s="39">
-        <f>H26/$G$75</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G26" s="67"/>
@@ -2325,7 +2330,7 @@
       </c>
       <c r="E27" s="65"/>
       <c r="F27" s="39">
-        <f>H27/$G$75</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G27" s="67"/>
@@ -2344,7 +2349,7 @@
       <c r="D28" s="68"/>
       <c r="E28" s="65"/>
       <c r="F28" s="39">
-        <f>H28/$G$75</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G28" s="67"/>
@@ -2363,7 +2368,7 @@
       <c r="D29" s="68"/>
       <c r="E29" s="65"/>
       <c r="F29" s="39">
-        <f>H29/$G$75</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G29" s="67"/>
@@ -2382,7 +2387,7 @@
       <c r="D30" s="71"/>
       <c r="E30" s="65"/>
       <c r="F30" s="39">
-        <f>H30/$G$75</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G30" s="67"/>
@@ -2396,15 +2401,15 @@
       <c r="C31" s="22"/>
       <c r="D31" s="22"/>
       <c r="E31" s="65">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F31" s="39">
-        <f>H31/$G$75</f>
+        <f t="shared" si="2"/>
         <v>1428.5714285714287</v>
       </c>
       <c r="G31" s="67">
         <f>E31*F31</f>
-        <v>11428.571428571429</v>
+        <v>12857.142857142859</v>
       </c>
       <c r="H31" s="66">
         <v>200000</v>
@@ -2423,7 +2428,7 @@
       <c r="D32" s="9"/>
       <c r="E32" s="65"/>
       <c r="F32" s="39">
-        <f>H32/$G$75</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G32" s="67"/>
@@ -2442,7 +2447,7 @@
       <c r="D33" s="9"/>
       <c r="E33" s="65"/>
       <c r="F33" s="39">
-        <f>H33/$G$75</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G33" s="67"/>
@@ -2461,7 +2466,7 @@
       <c r="D34" s="20"/>
       <c r="E34" s="40"/>
       <c r="F34" s="39">
-        <f>H34/$G$75</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G34" s="36"/>
@@ -2482,7 +2487,7 @@
       </c>
       <c r="E35" s="40"/>
       <c r="F35" s="39">
-        <f>H35/$G$75</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G35" s="36"/>
@@ -2501,7 +2506,7 @@
       <c r="D36" s="12"/>
       <c r="E36" s="40"/>
       <c r="F36" s="39">
-        <f>H36/$G$75</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G36" s="36"/>
@@ -2520,7 +2525,7 @@
       <c r="D37" s="12"/>
       <c r="E37" s="40"/>
       <c r="F37" s="39">
-        <f>H37/$G$75</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G37" s="36"/>
@@ -2539,7 +2544,7 @@
       <c r="D38" s="12"/>
       <c r="E38" s="40"/>
       <c r="F38" s="39">
-        <f>H38/$G$75</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G38" s="36"/>
@@ -2558,7 +2563,7 @@
       <c r="D39" s="12"/>
       <c r="E39" s="40"/>
       <c r="F39" s="39">
-        <f>H39/$G$75</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G39" s="36"/>
@@ -2577,7 +2582,7 @@
       <c r="D40" s="12"/>
       <c r="E40" s="40"/>
       <c r="F40" s="39">
-        <f>H40/$G$75</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G40" s="36"/>
@@ -2592,7 +2597,7 @@
       <c r="D41" s="12"/>
       <c r="E41" s="40"/>
       <c r="F41" s="39">
-        <f>H41/$G$75</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G41" s="36"/>
@@ -2609,11 +2614,11 @@
         <v>4</v>
       </c>
       <c r="F42" s="39">
-        <f>H42/$G$75</f>
+        <f t="shared" si="2"/>
         <v>585.71428571428567</v>
       </c>
       <c r="G42" s="36">
-        <f t="shared" ref="G42:G68" si="1">E42*F42</f>
+        <f t="shared" ref="G42:G70" si="3">E42*F42</f>
         <v>2342.8571428571427</v>
       </c>
       <c r="H42" s="38">
@@ -2635,11 +2640,11 @@
       </c>
       <c r="E43" s="40"/>
       <c r="F43" s="39">
-        <f>H43/$G$75</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G43" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H43" s="38"/>
@@ -2657,11 +2662,11 @@
       <c r="D44" s="9"/>
       <c r="E44" s="40"/>
       <c r="F44" s="39">
-        <f>H44/$G$75</f>
+        <f>H44/$G$77</f>
         <v>0</v>
       </c>
       <c r="G44" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H44" s="38"/>
@@ -2679,586 +2684,630 @@
       <c r="D45" s="9"/>
       <c r="E45" s="40"/>
       <c r="F45" s="39">
-        <f>H45/$G$75</f>
+        <f>H45/$G$77</f>
         <v>0</v>
       </c>
       <c r="G45" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H45" s="38"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="22" t="s">
+      <c r="A46" s="61" t="s">
+        <v>104</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="40">
+        <v>9</v>
+      </c>
+      <c r="F46" s="39">
+        <f>H46/$G$77</f>
+        <v>35.714285714285715</v>
+      </c>
+      <c r="G46" s="74">
+        <f>E46*F46</f>
+        <v>321.42857142857144</v>
+      </c>
+      <c r="H46" s="38">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="40"/>
-      <c r="F46" s="39">
-        <f>H46/$G$75</f>
-        <v>0</v>
-      </c>
-      <c r="G46" s="36"/>
-      <c r="H46" s="38"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="39">
+        <f>H47/$G$77</f>
+        <v>0</v>
+      </c>
+      <c r="G47" s="36"/>
+      <c r="H47" s="38"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="40">
-        <v>2</v>
-      </c>
-      <c r="F47" s="39">
-        <f>H47/$G$75</f>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="40">
+        <v>3</v>
+      </c>
+      <c r="F48" s="39">
+        <f>H48/$G$77</f>
         <v>1428.5714285714287</v>
       </c>
-      <c r="G47" s="36">
-        <f>E47*F47</f>
-        <v>2857.1428571428573</v>
-      </c>
-      <c r="H47" s="38">
+      <c r="G48" s="36">
+        <f>E48*F48</f>
+        <v>4285.7142857142862</v>
+      </c>
+      <c r="H48" s="38">
         <v>200000</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D48" s="11"/>
-      <c r="E48" s="40"/>
-      <c r="F48" s="39">
-        <f>H48/$G$75</f>
-        <v>0</v>
-      </c>
-      <c r="G48" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H48" s="38"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C49" s="13"/>
+        <v>51</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="D49" s="11"/>
       <c r="E49" s="40"/>
       <c r="F49" s="39">
-        <f>H49/$G$75</f>
+        <f>H49/$G$77</f>
         <v>0</v>
       </c>
       <c r="G49" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H49" s="38"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B50" s="10">
-        <v>8</v>
-      </c>
-      <c r="C50" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D50" s="21"/>
+        <v>66</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50" s="13"/>
+      <c r="D50" s="11"/>
       <c r="E50" s="40"/>
       <c r="F50" s="39">
-        <f>H50/$G$75</f>
+        <f>H50/$G$77</f>
         <v>0</v>
       </c>
       <c r="G50" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H50" s="38"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="B51" s="9">
-        <v>500</v>
-      </c>
-      <c r="C51" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51" s="10">
+        <v>8</v>
+      </c>
+      <c r="C51" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D51" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="D51" s="21"/>
       <c r="E51" s="40"/>
       <c r="F51" s="39">
-        <f>H51/$G$75</f>
+        <f>H51/$G$77</f>
         <v>0</v>
       </c>
       <c r="G51" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H51" s="38"/>
     </row>
-    <row r="52" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B52" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D52" s="12"/>
+      <c r="D52" s="9" t="s">
+        <v>3</v>
+      </c>
       <c r="E52" s="40"/>
       <c r="F52" s="39">
-        <f>H52/$G$75</f>
+        <f>H52/$G$77</f>
         <v>0</v>
       </c>
       <c r="G52" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H52" s="38"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C53" s="13"/>
+        <v>84</v>
+      </c>
+      <c r="B53" s="9">
+        <v>1000</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="D53" s="12"/>
       <c r="E53" s="40"/>
       <c r="F53" s="39">
-        <f>H53/$G$75</f>
+        <f>H53/$G$77</f>
         <v>0</v>
       </c>
       <c r="G53" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H53" s="38"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="61" t="s">
+      <c r="A54" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="13"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="39">
+        <f>H54/$G$77</f>
+        <v>0</v>
+      </c>
+      <c r="G54" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H54" s="38"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="40">
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="40">
         <v>2</v>
       </c>
-      <c r="F54" s="39">
-        <f>H54/$G$75</f>
+      <c r="F55" s="39">
+        <f>H55/$G$77</f>
         <v>1571.4285714285713</v>
       </c>
-      <c r="G54" s="36">
-        <f t="shared" si="1"/>
+      <c r="G55" s="36">
+        <f t="shared" si="3"/>
         <v>3142.8571428571427</v>
       </c>
-      <c r="H54" s="38">
+      <c r="H55" s="38">
         <v>220000</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="9" t="s">
+    <row r="56" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B56" s="10" t="s">
         <v>11</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D55" s="20"/>
-      <c r="E55" s="40"/>
-      <c r="F55" s="39">
-        <f>H55/$G$75</f>
-        <v>0</v>
-      </c>
-      <c r="G55" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H55" s="38"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B56" s="78" t="s">
-        <v>70</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D56" s="9" t="s">
-        <v>3</v>
-      </c>
+      <c r="D56" s="20"/>
       <c r="E56" s="40"/>
       <c r="F56" s="39">
-        <f>H56/$G$75</f>
+        <f>H56/$G$77</f>
         <v>0</v>
       </c>
       <c r="G56" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H56" s="38"/>
     </row>
-    <row r="57" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B57" s="77" t="s">
-        <v>72</v>
+        <v>69</v>
+      </c>
+      <c r="B57" s="78" t="s">
+        <v>70</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D57" s="12"/>
+      <c r="D57" s="9" t="s">
+        <v>3</v>
+      </c>
       <c r="E57" s="40"/>
       <c r="F57" s="39">
-        <f>H57/$G$75</f>
+        <f>H57/$G$77</f>
         <v>0</v>
       </c>
       <c r="G57" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H57" s="38"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="B58" s="22"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="9" t="s">
-        <v>81</v>
-      </c>
+    <row r="58" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B58" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" s="12"/>
       <c r="E58" s="40"/>
       <c r="F58" s="39">
-        <f>H58/$G$75</f>
+        <f>H58/$G$77</f>
         <v>0</v>
       </c>
       <c r="G58" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H58" s="38"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B59" s="10">
-        <v>28</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D59" t="s">
-        <v>82</v>
+      <c r="A59" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="E59" s="40"/>
       <c r="F59" s="39">
-        <f>H59/$G$75</f>
+        <f>H59/$G$77</f>
         <v>0</v>
       </c>
       <c r="G59" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H59" s="38"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>77</v>
+        <v>74</v>
+      </c>
+      <c r="B60" s="10">
+        <v>28</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D60" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="D60" t="s">
+        <v>82</v>
+      </c>
       <c r="E60" s="40"/>
       <c r="F60" s="39">
-        <f>H60/$G$75</f>
+        <f>H60/$G$77</f>
         <v>0</v>
       </c>
       <c r="G60" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H60" s="38"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="61" t="s">
+      <c r="A61" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D61" s="1"/>
+      <c r="E61" s="40"/>
+      <c r="F61" s="39">
+        <f>H61/$G$77</f>
+        <v>0</v>
+      </c>
+      <c r="G61" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H61" s="38"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="61" t="s">
+        <v>154</v>
+      </c>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="40">
+        <v>4</v>
+      </c>
+      <c r="F62" s="39">
+        <f>H62/$G$77</f>
+        <v>1428.5714285714287</v>
+      </c>
+      <c r="G62" s="36">
+        <f t="shared" ref="G62" si="4">E62*F62</f>
+        <v>5714.2857142857147</v>
+      </c>
+      <c r="H62" s="38">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="B61" s="22"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="40">
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="40">
         <v>1</v>
       </c>
-      <c r="F61" s="39">
-        <f>H61/$G$75</f>
+      <c r="F63" s="39">
+        <f>H63/$G$77</f>
         <v>1428.5714285714287</v>
       </c>
-      <c r="G61" s="36">
-        <f t="shared" si="1"/>
+      <c r="G63" s="36">
+        <f t="shared" si="3"/>
         <v>1428.5714285714287</v>
       </c>
-      <c r="H61" s="38">
+      <c r="H63" s="38">
         <v>200000</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="9" t="s">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B62" s="10">
+      <c r="B64" s="10">
         <v>1000</v>
       </c>
-      <c r="C62" s="19" t="s">
+      <c r="C64" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="D62" s="9" t="s">
+      <c r="D64" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E62" s="40"/>
-      <c r="F62" s="39">
-        <f>H62/$G$75</f>
-        <v>0</v>
-      </c>
-      <c r="G62" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H62" s="38"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="17" t="s">
+      <c r="E64" s="40"/>
+      <c r="F64" s="39">
+        <f>H64/$G$77</f>
+        <v>0</v>
+      </c>
+      <c r="G64" s="36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H64" s="38"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="B63" s="18">
+      <c r="B65" s="18">
         <v>220</v>
       </c>
-      <c r="C63" s="18" t="s">
+      <c r="C65" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="D63" s="17"/>
-      <c r="E63" s="72"/>
-      <c r="F63" s="39">
-        <f>H63/$G$75</f>
-        <v>0</v>
-      </c>
-      <c r="G63" s="74">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H63" s="73"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="75" t="s">
+      <c r="D65" s="17"/>
+      <c r="E65" s="72"/>
+      <c r="F65" s="39">
+        <f>H65/$G$77</f>
+        <v>0</v>
+      </c>
+      <c r="G65" s="74">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H65" s="73"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="75" t="s">
         <v>139</v>
-      </c>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="40">
-        <v>4</v>
-      </c>
-      <c r="F64" s="39">
-        <f>H64/$G$75</f>
-        <v>757.14285714285711</v>
-      </c>
-      <c r="G64" s="74">
-        <f>E64*F64</f>
-        <v>3028.5714285714284</v>
-      </c>
-      <c r="H64" s="38">
-        <v>106000</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B65" s="22"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="22"/>
-      <c r="E65" s="65">
-        <v>2</v>
-      </c>
-      <c r="F65" s="39">
-        <f>H65/$G$75</f>
-        <v>85.714285714285708</v>
-      </c>
-      <c r="G65" s="67">
-        <f>E65*F65</f>
-        <v>171.42857142857142</v>
-      </c>
-      <c r="H65" s="38">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="61" t="s">
-        <v>107</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F66" s="39">
-        <f>H66/$G$75</f>
-        <v>1571.4285714285713</v>
-      </c>
-      <c r="G66" s="36">
-        <f t="shared" ref="G66" si="2">E66*F66</f>
-        <v>3142.8571428571427</v>
+        <f>H66/$G$77</f>
+        <v>757.14285714285711</v>
+      </c>
+      <c r="G66" s="74">
+        <f>E66*F66</f>
+        <v>3028.5714285714284</v>
       </c>
       <c r="H66" s="38">
-        <v>220000</v>
+        <v>106000</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="61" t="s">
-        <v>104</v>
-      </c>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="40">
         <v>8</v>
       </c>
+      <c r="B67" s="22"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="65">
+        <v>2</v>
+      </c>
       <c r="F67" s="39">
-        <f>H67/$G$75</f>
-        <v>35.714285714285715</v>
-      </c>
-      <c r="G67" s="74">
-        <f t="shared" si="1"/>
-        <v>285.71428571428572</v>
+        <f>H67/$G$77</f>
+        <v>85.714285714285708</v>
+      </c>
+      <c r="G67" s="67">
+        <f>E67*F67</f>
+        <v>171.42857142857142</v>
       </c>
       <c r="H67" s="38">
-        <v>5000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="61" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="40">
+        <v>2</v>
+      </c>
+      <c r="F68" s="39">
+        <f>H68/$G$77</f>
+        <v>1571.4285714285713</v>
+      </c>
+      <c r="G68" s="36">
+        <f t="shared" ref="G68" si="5">E68*F68</f>
+        <v>3142.8571428571427</v>
+      </c>
+      <c r="H68" s="38">
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="61" t="s">
+        <v>104</v>
+      </c>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="40">
+        <v>9</v>
+      </c>
+      <c r="F69" s="39">
+        <f>H69/$G$77</f>
+        <v>35.714285714285715</v>
+      </c>
+      <c r="G69" s="74">
+        <f>E69*F69</f>
+        <v>321.42857142857144</v>
+      </c>
+      <c r="H69" s="38">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="61" t="s">
+        <v>104</v>
+      </c>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="40">
         <v>8</v>
       </c>
-      <c r="F68" s="39">
-        <f>H68/$G$75</f>
+      <c r="F70" s="39">
+        <f>H70/$G$77</f>
         <v>35.714285714285715</v>
       </c>
-      <c r="G68" s="36">
-        <f t="shared" si="1"/>
+      <c r="G70" s="36">
+        <f t="shared" si="3"/>
         <v>285.71428571428572</v>
       </c>
-      <c r="H68" s="38">
+      <c r="H70" s="38">
         <v>5000</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G70" s="37">
-        <f>SUM(G3:G68)</f>
-        <v>190857.14285714287</v>
-      </c>
-      <c r="H70" s="42">
-        <f>G70*140</f>
-        <v>26720000</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="56"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="48"/>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G72" s="96">
+        <f>SUM(G3:G70)</f>
+        <v>207728.57142857145</v>
+      </c>
+      <c r="H72" s="42">
+        <f>G72*140</f>
+        <v>29082000.000000004</v>
+      </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="48"/>
-      <c r="F75" s="93" t="s">
-        <v>145</v>
-      </c>
-      <c r="G75" s="94">
-        <v>140</v>
-      </c>
-      <c r="H75" s="95" t="s">
-        <v>144</v>
-      </c>
+      <c r="A75" s="56"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="48"/>
     </row>
-    <row r="77" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A77" s="57"/>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="48"/>
+      <c r="F77" s="79" t="s">
+        <v>145</v>
+      </c>
+      <c r="G77" s="80">
+        <v>140</v>
+      </c>
+      <c r="H77" s="81" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="48"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="47"/>
+    <row r="79" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A79" s="57"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="47"/>
+      <c r="A80" s="48"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="79"/>
+      <c r="A81" s="47"/>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="79"/>
+      <c r="A82" s="47"/>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="79"/>
+      <c r="A83" s="82"/>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="48"/>
+      <c r="A84" s="82"/>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="48"/>
+      <c r="A85" s="82"/>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="47"/>
+      <c r="A86" s="48"/>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="47"/>
+      <c r="A87" s="48"/>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="47"/>
     </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="47"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="47"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="A83:A85"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3270,7 +3319,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F5F18FA-93CB-4509-8941-2E26BAFE3826}">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -3313,12 +3362,12 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="93" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="88"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="95"/>
     </row>
     <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="46" t="s">
@@ -3403,21 +3452,21 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="86" t="s">
+      <c r="A11" s="93" t="s">
         <v>101</v>
       </c>
-      <c r="B11" s="87"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="88"/>
+      <c r="B11" s="94"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="95"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="80" t="s">
+      <c r="A12" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="83">
+      <c r="B12" s="87">
         <v>5</v>
       </c>
-      <c r="C12" s="83">
+      <c r="C12" s="87">
         <v>5</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -3425,33 +3474,33 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="81"/>
-      <c r="B13" s="84"/>
-      <c r="C13" s="84"/>
+      <c r="A13" s="89"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="92"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="81"/>
-      <c r="B14" s="84"/>
-      <c r="C14" s="84"/>
+      <c r="A14" s="89"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="92"/>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="82"/>
-      <c r="B15" s="85"/>
-      <c r="C15" s="85"/>
+      <c r="A15" s="86"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="88"/>
       <c r="D15" s="6" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="80" t="s">
+      <c r="A16" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="83">
+      <c r="B16" s="87">
         <v>4</v>
       </c>
-      <c r="C16" s="83">
+      <c r="C16" s="87">
         <v>4</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -3459,27 +3508,27 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="81"/>
-      <c r="B17" s="84"/>
-      <c r="C17" s="84"/>
+      <c r="A17" s="89"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="92"/>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="82"/>
-      <c r="B18" s="85"/>
-      <c r="C18" s="85"/>
+      <c r="A18" s="86"/>
+      <c r="B18" s="88"/>
+      <c r="C18" s="88"/>
       <c r="D18" s="6" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="80" t="s">
+      <c r="A19" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="83">
+      <c r="B19" s="87">
         <v>2</v>
       </c>
-      <c r="C19" s="83">
+      <c r="C19" s="87">
         <v>2</v>
       </c>
       <c r="D19" s="3" t="s">
@@ -3487,9 +3536,9 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="82"/>
-      <c r="B20" s="85"/>
-      <c r="C20" s="85"/>
+      <c r="A20" s="86"/>
+      <c r="B20" s="88"/>
+      <c r="C20" s="88"/>
       <c r="D20" s="6" t="s">
         <v>103</v>
       </c>
@@ -3633,7 +3682,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="80" t="s">
+      <c r="A32" s="85" t="s">
         <v>112</v>
       </c>
       <c r="B32" s="30"/>
@@ -3643,7 +3692,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="81"/>
+      <c r="A33" s="89"/>
       <c r="B33" s="5" t="s">
         <v>113</v>
       </c>
@@ -3655,7 +3704,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="82"/>
+      <c r="A34" s="86"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="33" t="s">
@@ -3680,37 +3729,37 @@
       <c r="A36" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="B36" s="91" t="s">
+      <c r="B36" s="90" t="s">
         <v>118</v>
       </c>
-      <c r="C36" s="92"/>
+      <c r="C36" s="91"/>
       <c r="D36" s="6" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="90" t="s">
+      <c r="A38" s="84" t="s">
         <v>119</v>
       </c>
-      <c r="B38" s="90"/>
-      <c r="C38" s="90"/>
-      <c r="D38" s="90"/>
+      <c r="B38" s="84"/>
+      <c r="C38" s="84"/>
+      <c r="D38" s="84"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="89" t="s">
+      <c r="A39" s="83" t="s">
         <v>120</v>
       </c>
-      <c r="B39" s="89"/>
-      <c r="C39" s="89"/>
-      <c r="D39" s="89"/>
+      <c r="B39" s="83"/>
+      <c r="C39" s="83"/>
+      <c r="D39" s="83"/>
     </row>
     <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="90" t="s">
+      <c r="A40" s="84" t="s">
         <v>121</v>
       </c>
-      <c r="B40" s="90"/>
-      <c r="C40" s="90"/>
-      <c r="D40" s="90"/>
+      <c r="B40" s="84"/>
+      <c r="C40" s="84"/>
+      <c r="D40" s="84"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="34" t="s">
@@ -3750,6 +3799,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C12:C15"/>
     <mergeCell ref="A39:D39"/>
     <mergeCell ref="A40:D40"/>
     <mergeCell ref="A19:A20"/>
@@ -3758,14 +3815,6 @@
     <mergeCell ref="A32:A34"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C12:C15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ssj/new ssj.xlsx
+++ b/ssj/new ssj.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkProject\PACVIC\ssj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F93EFB-6970-4F0E-801F-1604DBB5D34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6A2D91-ACD1-47E5-999C-458A51EFB94F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2D8AD6FB-06A8-429F-AD3B-DAC79497FD29}"/>
+    <workbookView xWindow="-28920" yWindow="-75" windowWidth="29040" windowHeight="15840" xr2:uid="{2D8AD6FB-06A8-429F-AD3B-DAC79497FD29}"/>
   </bookViews>
   <sheets>
     <sheet name="СП" sheetId="2" r:id="rId1"/>
@@ -809,9 +809,6 @@
     <t>Разрешение</t>
   </si>
   <si>
-    <t>Поддержка протокола ONVIF, Поддержка питания PoE,Поддержка стандарта сжатия видео Н.265</t>
-  </si>
-  <si>
     <t>Система видеорегистрации (СВР)</t>
   </si>
   <si>
@@ -834,9 +831,6 @@
   </si>
   <si>
     <t>Стойка монтажная с комплектом монтажных компонентов 32U</t>
-  </si>
-  <si>
-    <t>Элементы для крепления видеокамер, комплект</t>
   </si>
   <si>
     <t>Видеосервер на подключение 30 камер, шт</t>
@@ -903,6 +897,12 @@
   <si>
     <t>Отсек аккумуляторной батареи</t>
   </si>
+  <si>
+    <t>Элементы для крепления видеокамер к металлической поверхости, комплект</t>
+  </si>
+  <si>
+    <t>Поддержка протокола ONVIF, Поддержка питания PoE, Поддержка стандарта сжатия видео Н.265</t>
+  </si>
 </sst>
 </file>
 
@@ -911,7 +911,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;₽&quot;"/>
-    <numFmt numFmtId="168" formatCode="[$$-409]#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="[$$-409]#,##0.00"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -1076,7 +1076,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1230,12 +1230,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1436,49 +1460,58 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1796,8 +1829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D65DFA5-8C93-4E26-B00E-3D8602AC39AD}">
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J65" sqref="J65"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1836,12 +1869,12 @@
         <v>130</v>
       </c>
       <c r="H1" s="61" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B2" s="61"/>
       <c r="C2" s="62"/>
@@ -2128,7 +2161,7 @@
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
       <c r="D17" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E17" s="65">
         <v>10</v>
@@ -2662,7 +2695,7 @@
       <c r="D44" s="9"/>
       <c r="E44" s="40"/>
       <c r="F44" s="39">
-        <f>H44/$G$77</f>
+        <f t="shared" ref="F44:F70" si="4">H44/$G$77</f>
         <v>0</v>
       </c>
       <c r="G44" s="36">
@@ -2684,7 +2717,7 @@
       <c r="D45" s="9"/>
       <c r="E45" s="40"/>
       <c r="F45" s="39">
-        <f>H45/$G$77</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G45" s="36">
@@ -2704,7 +2737,7 @@
         <v>9</v>
       </c>
       <c r="F46" s="39">
-        <f>H46/$G$77</f>
+        <f t="shared" si="4"/>
         <v>35.714285714285715</v>
       </c>
       <c r="G46" s="74">
@@ -2724,7 +2757,7 @@
       <c r="D47" s="9"/>
       <c r="E47" s="40"/>
       <c r="F47" s="39">
-        <f>H47/$G$77</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G47" s="36"/>
@@ -2741,15 +2774,14 @@
         <v>3</v>
       </c>
       <c r="F48" s="39">
-        <f>H48/$G$77</f>
-        <v>1428.5714285714287</v>
+        <v>9642.8571428571431</v>
       </c>
       <c r="G48" s="36">
         <f>E48*F48</f>
-        <v>4285.7142857142862</v>
+        <v>28928.571428571428</v>
       </c>
       <c r="H48" s="38">
-        <v>200000</v>
+        <v>1350000</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -2765,7 +2797,7 @@
       <c r="D49" s="11"/>
       <c r="E49" s="40"/>
       <c r="F49" s="39">
-        <f>H49/$G$77</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G49" s="36">
@@ -2785,7 +2817,7 @@
       <c r="D50" s="11"/>
       <c r="E50" s="40"/>
       <c r="F50" s="39">
-        <f>H50/$G$77</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G50" s="36">
@@ -2807,7 +2839,7 @@
       <c r="D51" s="21"/>
       <c r="E51" s="40"/>
       <c r="F51" s="39">
-        <f>H51/$G$77</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G51" s="36">
@@ -2831,7 +2863,7 @@
       </c>
       <c r="E52" s="40"/>
       <c r="F52" s="39">
-        <f>H52/$G$77</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G52" s="36">
@@ -2853,7 +2885,7 @@
       <c r="D53" s="12"/>
       <c r="E53" s="40"/>
       <c r="F53" s="39">
-        <f>H53/$G$77</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G53" s="36">
@@ -2873,7 +2905,7 @@
       <c r="D54" s="12"/>
       <c r="E54" s="40"/>
       <c r="F54" s="39">
-        <f>H54/$G$77</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G54" s="36">
@@ -2893,7 +2925,7 @@
         <v>2</v>
       </c>
       <c r="F55" s="39">
-        <f>H55/$G$77</f>
+        <f t="shared" si="4"/>
         <v>1571.4285714285713</v>
       </c>
       <c r="G55" s="36">
@@ -2917,7 +2949,7 @@
       <c r="D56" s="20"/>
       <c r="E56" s="40"/>
       <c r="F56" s="39">
-        <f>H56/$G$77</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G56" s="36">
@@ -2941,7 +2973,7 @@
       </c>
       <c r="E57" s="40"/>
       <c r="F57" s="39">
-        <f>H57/$G$77</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G57" s="36">
@@ -2963,7 +2995,7 @@
       <c r="D58" s="12"/>
       <c r="E58" s="40"/>
       <c r="F58" s="39">
-        <f>H58/$G$77</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G58" s="36">
@@ -2983,7 +3015,7 @@
       </c>
       <c r="E59" s="40"/>
       <c r="F59" s="39">
-        <f>H59/$G$77</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G59" s="36">
@@ -3007,7 +3039,7 @@
       </c>
       <c r="E60" s="40"/>
       <c r="F60" s="39">
-        <f>H60/$G$77</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G60" s="36">
@@ -3029,7 +3061,7 @@
       <c r="D61" s="1"/>
       <c r="E61" s="40"/>
       <c r="F61" s="39">
-        <f>H61/$G$77</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G61" s="36">
@@ -3040,7 +3072,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="61" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -3049,11 +3081,11 @@
         <v>4</v>
       </c>
       <c r="F62" s="39">
-        <f>H62/$G$77</f>
+        <f t="shared" si="4"/>
         <v>1428.5714285714287</v>
       </c>
       <c r="G62" s="36">
-        <f t="shared" ref="G62" si="4">E62*F62</f>
+        <f t="shared" ref="G62" si="5">E62*F62</f>
         <v>5714.2857142857147</v>
       </c>
       <c r="H62" s="38">
@@ -3062,7 +3094,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="61" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B63" s="22"/>
       <c r="C63" s="22"/>
@@ -3071,7 +3103,7 @@
         <v>1</v>
       </c>
       <c r="F63" s="39">
-        <f>H63/$G$77</f>
+        <f t="shared" si="4"/>
         <v>1428.5714285714287</v>
       </c>
       <c r="G63" s="36">
@@ -3097,7 +3129,7 @@
       </c>
       <c r="E64" s="40"/>
       <c r="F64" s="39">
-        <f>H64/$G$77</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G64" s="36">
@@ -3119,7 +3151,7 @@
       <c r="D65" s="17"/>
       <c r="E65" s="72"/>
       <c r="F65" s="39">
-        <f>H65/$G$77</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G65" s="74">
@@ -3130,7 +3162,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="75" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -3139,7 +3171,7 @@
         <v>4</v>
       </c>
       <c r="F66" s="39">
-        <f>H66/$G$77</f>
+        <f t="shared" si="4"/>
         <v>757.14285714285711</v>
       </c>
       <c r="G66" s="74">
@@ -3161,7 +3193,7 @@
         <v>2</v>
       </c>
       <c r="F67" s="39">
-        <f>H67/$G$77</f>
+        <f t="shared" si="4"/>
         <v>85.714285714285708</v>
       </c>
       <c r="G67" s="67">
@@ -3183,11 +3215,11 @@
         <v>2</v>
       </c>
       <c r="F68" s="39">
-        <f>H68/$G$77</f>
+        <f t="shared" si="4"/>
         <v>1571.4285714285713</v>
       </c>
       <c r="G68" s="36">
-        <f t="shared" ref="G68" si="5">E68*F68</f>
+        <f t="shared" ref="G68" si="6">E68*F68</f>
         <v>3142.8571428571427</v>
       </c>
       <c r="H68" s="38">
@@ -3205,7 +3237,7 @@
         <v>9</v>
       </c>
       <c r="F69" s="39">
-        <f>H69/$G$77</f>
+        <f t="shared" si="4"/>
         <v>35.714285714285715</v>
       </c>
       <c r="G69" s="74">
@@ -3227,7 +3259,7 @@
         <v>8</v>
       </c>
       <c r="F70" s="39">
-        <f>H70/$G$77</f>
+        <f t="shared" si="4"/>
         <v>35.714285714285715</v>
       </c>
       <c r="G70" s="36">
@@ -3239,13 +3271,13 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G72" s="96">
-        <f>SUM(G3:G70)</f>
-        <v>207728.57142857145</v>
+      <c r="G72" s="82">
+        <f>SUM(G2:G70)</f>
+        <v>232371.42857142858</v>
       </c>
       <c r="H72" s="42">
         <f>G72*140</f>
-        <v>29082000.000000004</v>
+        <v>32532000</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -3257,13 +3289,13 @@
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="48"/>
       <c r="F77" s="79" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G77" s="80">
         <v>140</v>
       </c>
       <c r="H77" s="81" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -3282,13 +3314,13 @@
       <c r="A82" s="47"/>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="82"/>
+      <c r="A83" s="83"/>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="82"/>
+      <c r="A84" s="83"/>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="82"/>
+      <c r="A85" s="83"/>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="48"/>
@@ -3362,12 +3394,12 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="90" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="94"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="95"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="92"/>
     </row>
     <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="46" t="s">
@@ -3452,15 +3484,15 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="93" t="s">
+      <c r="A11" s="90" t="s">
         <v>101</v>
       </c>
-      <c r="B11" s="94"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="95"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="92"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="85" t="s">
+      <c r="A12" s="84" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="87">
@@ -3474,27 +3506,27 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="89"/>
-      <c r="B13" s="92"/>
-      <c r="C13" s="92"/>
+      <c r="A13" s="85"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="88"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="89"/>
-      <c r="B14" s="92"/>
-      <c r="C14" s="92"/>
+      <c r="A14" s="85"/>
+      <c r="B14" s="88"/>
+      <c r="C14" s="88"/>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="86"/>
-      <c r="B15" s="88"/>
-      <c r="C15" s="88"/>
+      <c r="B15" s="89"/>
+      <c r="C15" s="89"/>
       <c r="D15" s="6" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="85" t="s">
+      <c r="A16" s="84" t="s">
         <v>45</v>
       </c>
       <c r="B16" s="87">
@@ -3508,21 +3540,21 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="89"/>
-      <c r="B17" s="92"/>
-      <c r="C17" s="92"/>
+      <c r="A17" s="85"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="88"/>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="86"/>
-      <c r="B18" s="88"/>
-      <c r="C18" s="88"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="89"/>
       <c r="D18" s="6" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="85" t="s">
+      <c r="A19" s="84" t="s">
         <v>60</v>
       </c>
       <c r="B19" s="87">
@@ -3537,8 +3569,8 @@
     </row>
     <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="86"/>
-      <c r="B20" s="88"/>
-      <c r="C20" s="88"/>
+      <c r="B20" s="89"/>
+      <c r="C20" s="89"/>
       <c r="D20" s="6" t="s">
         <v>103</v>
       </c>
@@ -3682,7 +3714,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="85" t="s">
+      <c r="A32" s="84" t="s">
         <v>112</v>
       </c>
       <c r="B32" s="30"/>
@@ -3692,7 +3724,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="89"/>
+      <c r="A33" s="85"/>
       <c r="B33" s="5" t="s">
         <v>113</v>
       </c>
@@ -3729,37 +3761,37 @@
       <c r="A36" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="B36" s="90" t="s">
+      <c r="B36" s="95" t="s">
         <v>118</v>
       </c>
-      <c r="C36" s="91"/>
+      <c r="C36" s="96"/>
       <c r="D36" s="6" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="84" t="s">
+      <c r="A38" s="94" t="s">
         <v>119</v>
       </c>
-      <c r="B38" s="84"/>
-      <c r="C38" s="84"/>
-      <c r="D38" s="84"/>
+      <c r="B38" s="94"/>
+      <c r="C38" s="94"/>
+      <c r="D38" s="94"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="83" t="s">
+      <c r="A39" s="93" t="s">
         <v>120</v>
       </c>
-      <c r="B39" s="83"/>
-      <c r="C39" s="83"/>
-      <c r="D39" s="83"/>
+      <c r="B39" s="93"/>
+      <c r="C39" s="93"/>
+      <c r="D39" s="93"/>
     </row>
     <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="84" t="s">
+      <c r="A40" s="94" t="s">
         <v>121</v>
       </c>
-      <c r="B40" s="84"/>
-      <c r="C40" s="84"/>
-      <c r="D40" s="84"/>
+      <c r="B40" s="94"/>
+      <c r="C40" s="94"/>
+      <c r="D40" s="94"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="34" t="s">
@@ -3799,6 +3831,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="A38:D38"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="C16:C18"/>
@@ -3807,14 +3847,6 @@
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="B12:B15"/>
     <mergeCell ref="C12:C15"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="A38:D38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3825,7 +3857,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D4"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3847,21 +3879,21 @@
         <v>134</v>
       </c>
       <c r="D1" s="51" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B2" s="52">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="53" t="s">
-        <v>135</v>
+      <c r="D2" s="97" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3869,12 +3901,12 @@
         <v>93</v>
       </c>
       <c r="B3" s="52">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="53"/>
+      <c r="D3" s="98"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="53" t="s">
@@ -3886,11 +3918,11 @@
       <c r="C4" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="53"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" s="99"/>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="53" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="B5" s="50">
         <v>1</v>
@@ -3900,7 +3932,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="55" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B6" s="50">
         <v>1</v>
@@ -3910,19 +3942,19 @@
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="53" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B7" s="49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" s="49"/>
       <c r="D7" s="49" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="53" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B8" s="49">
         <v>2</v>
@@ -3932,7 +3964,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="53" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B9" s="49">
         <v>1</v>
@@ -3942,14 +3974,14 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="53" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B10" s="49">
         <v>8</v>
       </c>
       <c r="C10" s="49"/>
       <c r="D10" s="49" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -3957,14 +3989,17 @@
         <v>68</v>
       </c>
       <c r="B11" s="49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11" s="49"/>
       <c r="D11" s="49" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D2:D4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/ssj/new ssj.xlsx
+++ b/ssj/new ssj.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkProject\PACVIC\ssj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6A2D91-ACD1-47E5-999C-458A51EFB94F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA84F86-D157-4346-8C1E-57A4C75F0132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-75" windowWidth="29040" windowHeight="15840" xr2:uid="{2D8AD6FB-06A8-429F-AD3B-DAC79497FD29}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{2D8AD6FB-06A8-429F-AD3B-DAC79497FD29}"/>
   </bookViews>
   <sheets>
     <sheet name="СП" sheetId="2" r:id="rId1"/>
     <sheet name="состав по бортам" sheetId="4" r:id="rId2"/>
     <sheet name="запрос КП" sheetId="3" r:id="rId3"/>
+    <sheet name="ТХ камер" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="238">
   <si>
     <t>Видеокамеры</t>
   </si>
@@ -320,23 +321,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Система видеорегистрации (СВР)*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
     <t>Видеокамера обзора аэродинамических поверхно- стей</t>
   </si>
   <si>
@@ -397,9 +381,6 @@
     <t>В стойке АРМ</t>
   </si>
   <si>
-    <t>Комплект конструктивных элементов для крепле- ния компонентов СВР</t>
-  </si>
-  <si>
     <t>1 к-т</t>
   </si>
   <si>
@@ -425,9 +406,6 @@
     <t>На РМО-1 и РМО-2</t>
   </si>
   <si>
-    <t>см. Приложение А</t>
-  </si>
-  <si>
     <t>Комплект соединительных кабелей</t>
   </si>
   <si>
@@ -466,25 +444,6 @@
   </si>
   <si>
     <t>Стойка монтажная с комплектом монтажных компонентов</t>
-  </si>
-  <si>
-    <r>
-      <t>2 к-та*</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <t>В пассажирской кабине:</t>
   </si>
   <si>
     <r>
@@ -788,9 +747,6 @@
     </r>
   </si>
   <si>
-    <t>Tp-link TL-SG1016D 16</t>
-  </si>
-  <si>
     <t>Цена $ за шт</t>
   </si>
   <si>
@@ -898,10 +854,279 @@
     <t>Отсек аккумуляторной батареи</t>
   </si>
   <si>
-    <t>Элементы для крепления видеокамер к металлической поверхости, комплект</t>
-  </si>
-  <si>
     <t>Поддержка протокола ONVIF, Поддержка питания PoE, Поддержка стандарта сжатия видео Н.265</t>
+  </si>
+  <si>
+    <t>Температура и высота</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>Повышенная температура среды (рабочая/предельная), °С</t>
+  </si>
+  <si>
+    <t>Пониженная температура среды (рабочая/предельная), °С</t>
+  </si>
+  <si>
+    <t>Высота (эквивалент высоты при работающей КСКВ), м</t>
+  </si>
+  <si>
+    <t>Допустимая высота разгерметизации, м</t>
+  </si>
+  <si>
+    <t>Повышенное давление, кПа</t>
+  </si>
+  <si>
+    <t>Изменение температуры</t>
+  </si>
+  <si>
+    <t>С</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Влажность</t>
+  </si>
+  <si>
+    <t>А</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Ударные эксплуатационные нагрузки и безопасность разрушения</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Вибрация</t>
+  </si>
+  <si>
+    <t>S[C]; H[R]</t>
+  </si>
+  <si>
+    <t>Взрывобезопасность</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Водонепроницаемость</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Пыль и песок</t>
+  </si>
+  <si>
+    <t>Грибоустойчивость</t>
+  </si>
+  <si>
+    <t>Соляной туман</t>
+  </si>
+  <si>
+    <t>Магнитное воздействие</t>
+  </si>
+  <si>
+    <t>Электропитание</t>
+  </si>
+  <si>
+    <t>A(RХ)</t>
+  </si>
+  <si>
+    <t>Импульсы напряжения</t>
+  </si>
+  <si>
+    <t>Помехи звуковых частот</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Радиочастотная восприимчивость</t>
+  </si>
+  <si>
+    <t>ТТ</t>
+  </si>
+  <si>
+    <t>Восприимчивость к переходным процессам, вызванным молнией</t>
+  </si>
+  <si>
+    <t>Прямое воздействие молнии</t>
+  </si>
+  <si>
+    <t>Обледенение</t>
+  </si>
+  <si>
+    <t>Х</t>
+  </si>
+  <si>
+    <t>70 / 85</t>
+  </si>
+  <si>
+    <t>55 / 85</t>
+  </si>
+  <si>
+    <t>5 / -55</t>
+  </si>
+  <si>
+    <t>-55 / -55</t>
+  </si>
+  <si>
+    <t>Пассажирская кабина</t>
+  </si>
+  <si>
+    <t>Кабина экипажа</t>
+  </si>
+  <si>
+    <t>Внешняя</t>
+  </si>
+  <si>
+    <t>S[B]; H[P]</t>
+  </si>
+  <si>
+    <t>ACХ</t>
+  </si>
+  <si>
+    <t>МM</t>
+  </si>
+  <si>
+    <t>НН</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Требования ТЗ</t>
+  </si>
+  <si>
+    <t>нет требования</t>
+  </si>
+  <si>
+    <t>Внутреняя</t>
+  </si>
+  <si>
+    <t>БАЙТ ЭРГ</t>
+  </si>
+  <si>
+    <t>R (C, C1)</t>
+  </si>
+  <si>
+    <t>66 г 41 в</t>
+  </si>
+  <si>
+    <t>73 г 43 в</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R (E и E1) </t>
+  </si>
+  <si>
+    <t>Ethernet 100BASE-TX (IEEE 802.3)</t>
+  </si>
+  <si>
+    <t>Ethernet 100BASE-TX (IEEE 802.3).</t>
+  </si>
+  <si>
+    <t>Мощность (макс подогрев), Вт</t>
+  </si>
+  <si>
+    <t>SOURIAU 8533-2Y12-12PN '+28В</t>
+  </si>
+  <si>
+    <t>ИК подсвет</t>
+  </si>
+  <si>
+    <t>Нет</t>
+  </si>
+  <si>
+    <t>Устойчивость к возгоранию</t>
+  </si>
+  <si>
+    <t>Прим</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Загрязняющие жидкости </t>
+  </si>
+  <si>
+    <t>инженерный анализ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Помехи индукции </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Излучение радиочастотной энергии </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Электростатический разряд </t>
+  </si>
+  <si>
+    <t>если применимо</t>
+  </si>
+  <si>
+    <t>Ethernet 100/1000BASE-T</t>
+  </si>
+  <si>
+    <t>Поле зрения, °</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>AWX</t>
+  </si>
+  <si>
+    <t>TT</t>
+  </si>
+  <si>
+    <t>1A1A</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A2G2L2
+ A2J2L2 </t>
+  </si>
+  <si>
+    <t>B3H3L3 
+B3K3L3</t>
+  </si>
+  <si>
+    <t>12200</t>
+  </si>
+  <si>
+    <t>Элементы для крепления видеокамер, комплект</t>
+  </si>
+  <si>
+    <t>ЭП</t>
+  </si>
+  <si>
+    <t>Комплект конструктивных элементов для крепления компонентов СВР,  к-т</t>
+  </si>
+  <si>
+    <t>Комплект соединительных кабелей, к-т</t>
   </si>
 </sst>
 </file>
@@ -913,7 +1138,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;₽&quot;"/>
     <numFmt numFmtId="166" formatCode="[$$-409]#,##0.00"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -969,13 +1194,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="9.5"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -1008,15 +1226,6 @@
       <b/>
       <vertAlign val="superscript"/>
       <sz val="8"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <vertAlign val="superscript"/>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -1068,15 +1277,39 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1100,51 +1333,356 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1152,137 +1690,35 @@
     <border>
       <left/>
       <right style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1305,56 +1741,23 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
@@ -1371,48 +1774,27 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1428,19 +1810,19 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1453,64 +1835,262 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1829,8 +2409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D65DFA5-8C93-4E26-B00E-3D8602AC39AD}">
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M40" sqref="M40"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68:XFD68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1839,1509 +2419,1507 @@
     <col min="2" max="2" width="30.28515625" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" customWidth="1"/>
     <col min="4" max="4" width="38" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="41" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="23" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="37" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" style="19" customWidth="1"/>
     <col min="8" max="8" width="16.42578125" customWidth="1"/>
     <col min="10" max="23" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="63" t="s">
+      <c r="E1" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="61" t="s">
+      <c r="F1" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="G1" s="64" t="s">
-        <v>130</v>
-      </c>
-      <c r="H1" s="61" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="61"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="36"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="66"/>
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="41"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="66"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="41"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="66"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="41"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="66"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="41"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="66"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="41"/>
     </row>
     <row r="8" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="68"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="66"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="41"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="66"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="41"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="68"/>
-      <c r="E10" s="65">
+      <c r="D10" s="43"/>
+      <c r="E10" s="40">
         <v>21</v>
       </c>
-      <c r="F10" s="39">
+      <c r="F10" s="21">
         <f>H10/$G$77</f>
         <v>3571.4285714285716</v>
       </c>
-      <c r="G10" s="67">
+      <c r="G10" s="42">
         <f t="shared" ref="G10:G15" si="0">E10*F10</f>
         <v>75000</v>
       </c>
-      <c r="H10" s="66">
+      <c r="H10" s="41">
         <v>500000</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="68"/>
-      <c r="E11" s="65">
+      <c r="D11" s="43"/>
+      <c r="E11" s="40">
         <v>8</v>
       </c>
-      <c r="F11" s="39">
+      <c r="F11" s="21">
         <f t="shared" ref="F11" si="1">H11/140</f>
         <v>3571.4285714285716</v>
       </c>
-      <c r="G11" s="67">
+      <c r="G11" s="42">
         <f t="shared" si="0"/>
         <v>28571.428571428572</v>
       </c>
-      <c r="H11" s="66">
+      <c r="H11" s="41">
         <v>500000</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="68"/>
-      <c r="E12" s="65">
+      <c r="D12" s="43"/>
+      <c r="E12" s="40">
         <v>6</v>
       </c>
-      <c r="F12" s="39">
+      <c r="F12" s="21">
         <f t="shared" ref="F12:F43" si="2">H12/$G$77</f>
         <v>3571.4285714285716</v>
       </c>
-      <c r="G12" s="67">
+      <c r="G12" s="42">
         <f t="shared" si="0"/>
         <v>21428.571428571428</v>
       </c>
-      <c r="H12" s="66">
+      <c r="H12" s="41">
         <v>500000</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="65">
+      <c r="A13" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="40">
         <v>1</v>
       </c>
-      <c r="F13" s="39">
+      <c r="F13" s="21">
         <f t="shared" si="2"/>
         <v>9714.2857142857138</v>
       </c>
-      <c r="G13" s="67">
+      <c r="G13" s="42">
         <f t="shared" si="0"/>
         <v>9714.2857142857138</v>
       </c>
-      <c r="H13" s="66">
+      <c r="H13" s="41">
         <f>34*40000</f>
         <v>1360000</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="65">
+      <c r="A14" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="40">
         <v>1</v>
       </c>
-      <c r="F14" s="39">
+      <c r="F14" s="21">
         <f t="shared" si="2"/>
         <v>14285.714285714286</v>
       </c>
-      <c r="G14" s="67">
+      <c r="G14" s="42">
         <f t="shared" si="0"/>
         <v>14285.714285714286</v>
       </c>
-      <c r="H14" s="66">
+      <c r="H14" s="41">
         <v>2000000</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="2">
         <v>1000</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E15" s="65">
+      <c r="D15" s="2"/>
+      <c r="E15" s="40">
         <v>3</v>
       </c>
-      <c r="F15" s="39">
+      <c r="F15" s="21">
         <f t="shared" si="2"/>
-        <v>85.714285714285708</v>
-      </c>
-      <c r="G15" s="67">
+        <v>1357.1428571428571</v>
+      </c>
+      <c r="G15" s="42">
         <f t="shared" si="0"/>
-        <v>257.14285714285711</v>
-      </c>
-      <c r="H15" s="66">
-        <v>12000</v>
+        <v>4071.4285714285716</v>
+      </c>
+      <c r="H15" s="41">
+        <v>190000</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="39">
+      <c r="A16" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G16" s="67"/>
-      <c r="H16" s="66"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="41"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E17" s="65">
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E17" s="40">
         <v>10</v>
       </c>
-      <c r="F17" s="39">
+      <c r="F17" s="21">
         <f t="shared" si="2"/>
         <v>1785.7142857142858</v>
       </c>
-      <c r="G17" s="69">
+      <c r="G17" s="44">
         <f>E17*F17</f>
         <v>17857.142857142859</v>
       </c>
-      <c r="H17" s="66">
+      <c r="H17" s="41">
         <v>250000</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="3">
         <v>17</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="39">
+      <c r="D18" s="2"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G18" s="67"/>
-      <c r="H18" s="66"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="41"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="39">
+      <c r="D19" s="2"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G19" s="67"/>
-      <c r="H19" s="66"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="41"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="70"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="39">
+      <c r="D20" s="45"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G20" s="67"/>
-      <c r="H20" s="66"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="41"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="15">
+      <c r="B21" s="8">
         <v>29.167361111111109</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="68"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="39">
+      <c r="D21" s="43"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G21" s="67"/>
-      <c r="H21" s="66"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="41"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="68"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="39">
+      <c r="D22" s="43"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G22" s="67"/>
-      <c r="H22" s="66"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="41"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="68"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="39">
+      <c r="D23" s="43"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G23" s="67"/>
-      <c r="H23" s="66"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="41"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="61" t="s">
+      <c r="A24" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="65">
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="40">
         <v>5</v>
       </c>
-      <c r="F24" s="39">
+      <c r="F24" s="21">
         <f t="shared" si="2"/>
         <v>714.28571428571433</v>
       </c>
-      <c r="G24" s="67">
+      <c r="G24" s="42">
         <f>E24*F24</f>
         <v>3571.4285714285716</v>
       </c>
-      <c r="H24" s="66">
+      <c r="H24" s="41">
         <v>100000</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="39">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G25" s="67"/>
-      <c r="H25" s="66"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="41"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="3">
         <v>8</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="39">
+      <c r="D26" s="2"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G26" s="67"/>
-      <c r="H26" s="66"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="41"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="3">
         <v>270</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="65"/>
-      <c r="F27" s="39">
+      <c r="E27" s="40"/>
+      <c r="F27" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G27" s="67"/>
-      <c r="H27" s="66"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="41"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="3">
         <v>188</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="68"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="39">
+      <c r="D28" s="43"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G28" s="67"/>
-      <c r="H28" s="66"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="41"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="3">
         <v>19</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="68"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="39">
+      <c r="D29" s="43"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G29" s="67"/>
-      <c r="H29" s="66"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="41"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="71"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="39">
+      <c r="D30" s="46"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G30" s="67"/>
-      <c r="H30" s="66"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="41"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="61" t="s">
+      <c r="A31" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="65">
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="40">
         <v>9</v>
       </c>
-      <c r="F31" s="39">
+      <c r="F31" s="21">
         <f t="shared" si="2"/>
         <v>1428.5714285714287</v>
       </c>
-      <c r="G31" s="67">
+      <c r="G31" s="42">
         <f>E31*F31</f>
         <v>12857.142857142859</v>
       </c>
-      <c r="H31" s="66">
+      <c r="H31" s="41">
         <v>200000</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="39">
+      <c r="D32" s="2"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G32" s="67"/>
-      <c r="H32" s="66"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="41"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="39">
+      <c r="D33" s="2"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G33" s="67"/>
-      <c r="H33" s="66"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="41"/>
     </row>
     <row r="34" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B34" s="10">
+      <c r="B34" s="3">
         <v>8</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D34" s="20"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="39">
+      <c r="D34" s="13"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G34" s="36"/>
-      <c r="H34" s="38"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="20"/>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E35" s="40"/>
-      <c r="F35" s="39">
+      <c r="E35" s="22"/>
+      <c r="F35" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G35" s="36"/>
-      <c r="H35" s="38"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="20"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B36" s="10">
+      <c r="B36" s="3">
         <v>500</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C36" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D36" s="12"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="39">
+      <c r="D36" s="5"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G36" s="36"/>
-      <c r="H36" s="38"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="20"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D37" s="12"/>
-      <c r="E37" s="40"/>
-      <c r="F37" s="39">
+      <c r="D37" s="5"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G37" s="36"/>
-      <c r="H37" s="38"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="20"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B38" s="10">
+      <c r="B38" s="3">
         <v>3</v>
       </c>
-      <c r="C38" s="19" t="s">
+      <c r="C38" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D38" s="12"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="39">
+      <c r="D38" s="5"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G38" s="36"/>
-      <c r="H38" s="38"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="20"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D39" s="12"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="39">
+      <c r="D39" s="5"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G39" s="36"/>
-      <c r="H39" s="38"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="20"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D40" s="12"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="39">
+      <c r="D40" s="5"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G40" s="36"/>
-      <c r="H40" s="38"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="20"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="39">
+      <c r="A41" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G41" s="36"/>
-      <c r="H41" s="38"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="20"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="61" t="s">
+      <c r="A42" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="40">
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="22">
         <v>4</v>
       </c>
-      <c r="F42" s="39">
+      <c r="F42" s="21">
         <f t="shared" si="2"/>
         <v>585.71428571428567</v>
       </c>
-      <c r="G42" s="36">
+      <c r="G42" s="18">
         <f t="shared" ref="G42:G70" si="3">E42*F42</f>
         <v>2342.8571428571427</v>
       </c>
-      <c r="H42" s="38">
+      <c r="H42" s="20">
         <v>82000</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B43" s="10">
+      <c r="B43" s="3">
         <v>38</v>
       </c>
-      <c r="C43" s="19" t="s">
+      <c r="C43" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D43" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="40"/>
-      <c r="F43" s="39">
+      <c r="E43" s="22"/>
+      <c r="F43" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G43" s="36">
+      <c r="G43" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H43" s="38"/>
+      <c r="H43" s="20"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B44" s="10">
+      <c r="B44" s="3">
         <v>105</v>
       </c>
-      <c r="C44" s="19" t="s">
+      <c r="C44" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D44" s="9"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="39">
+      <c r="D44" s="2"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="21">
         <f t="shared" ref="F44:F70" si="4">H44/$G$77</f>
         <v>0</v>
       </c>
-      <c r="G44" s="36">
+      <c r="G44" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H44" s="38"/>
+      <c r="H44" s="20"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D45" s="9"/>
-      <c r="E45" s="40"/>
-      <c r="F45" s="39">
+      <c r="D45" s="2"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G45" s="36">
+      <c r="G45" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H45" s="38"/>
+      <c r="H45" s="20"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="61" t="s">
-        <v>104</v>
+      <c r="A46" s="36" t="s">
+        <v>101</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="40">
+      <c r="E46" s="22">
         <v>9</v>
       </c>
-      <c r="F46" s="39">
+      <c r="F46" s="21">
         <f t="shared" si="4"/>
         <v>35.714285714285715</v>
       </c>
-      <c r="G46" s="74">
+      <c r="G46" s="49">
         <f>E46*F46</f>
         <v>321.42857142857144</v>
       </c>
-      <c r="H46" s="38">
+      <c r="H46" s="20">
         <v>5000</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="40"/>
-      <c r="F47" s="39">
+      <c r="A47" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G47" s="36"/>
-      <c r="H47" s="38"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="20"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="61" t="s">
+      <c r="A48" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="40">
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="22">
         <v>3</v>
       </c>
-      <c r="F48" s="39">
+      <c r="F48" s="21">
         <v>9642.8571428571431</v>
       </c>
-      <c r="G48" s="36">
+      <c r="G48" s="18">
         <f>E48*F48</f>
         <v>28928.571428571428</v>
       </c>
-      <c r="H48" s="38">
+      <c r="H48" s="20">
         <v>1350000</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D49" s="11"/>
-      <c r="E49" s="40"/>
-      <c r="F49" s="39">
+      <c r="D49" s="4"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G49" s="36">
+      <c r="G49" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H49" s="38"/>
+      <c r="H49" s="20"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C50" s="13"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="39">
+      <c r="C50" s="6"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G50" s="36">
+      <c r="G50" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H50" s="38"/>
+      <c r="H50" s="20"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B51" s="10">
+      <c r="B51" s="3">
         <v>8</v>
       </c>
-      <c r="C51" s="19" t="s">
+      <c r="C51" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D51" s="21"/>
-      <c r="E51" s="40"/>
-      <c r="F51" s="39">
+      <c r="D51" s="14"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G51" s="36">
+      <c r="G51" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H51" s="38"/>
+      <c r="H51" s="20"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B52" s="9">
+      <c r="B52" s="2">
         <v>500</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C52" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D52" s="9" t="s">
+      <c r="D52" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E52" s="40"/>
-      <c r="F52" s="39">
+      <c r="E52" s="22"/>
+      <c r="F52" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G52" s="36">
+      <c r="G52" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H52" s="38"/>
+      <c r="H52" s="20"/>
     </row>
     <row r="53" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B53" s="9">
+      <c r="B53" s="2">
         <v>1000</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C53" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D53" s="12"/>
-      <c r="E53" s="40"/>
-      <c r="F53" s="39">
+      <c r="D53" s="5"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G53" s="36">
+      <c r="G53" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H53" s="38"/>
+      <c r="H53" s="20"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C54" s="13"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="40"/>
-      <c r="F54" s="39">
+      <c r="C54" s="6"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G54" s="36">
+      <c r="G54" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H54" s="38"/>
+      <c r="H54" s="20"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="61" t="s">
+      <c r="A55" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="B55" s="22"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="40">
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="22">
         <v>2</v>
       </c>
-      <c r="F55" s="39">
+      <c r="F55" s="21">
         <f t="shared" si="4"/>
         <v>1571.4285714285713</v>
       </c>
-      <c r="G55" s="36">
+      <c r="G55" s="18">
         <f t="shared" si="3"/>
         <v>3142.8571428571427</v>
       </c>
-      <c r="H55" s="38">
+      <c r="H55" s="20">
         <v>220000</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C56" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D56" s="20"/>
-      <c r="E56" s="40"/>
-      <c r="F56" s="39">
+      <c r="D56" s="13"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G56" s="36">
+      <c r="G56" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H56" s="38"/>
+      <c r="H56" s="20"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B57" s="78" t="s">
+      <c r="B57" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C57" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D57" s="9" t="s">
+      <c r="D57" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E57" s="40"/>
-      <c r="F57" s="39">
+      <c r="E57" s="22"/>
+      <c r="F57" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G57" s="36">
+      <c r="G57" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H57" s="38"/>
+      <c r="H57" s="20"/>
     </row>
     <row r="58" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B58" s="77" t="s">
+      <c r="B58" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C58" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D58" s="12"/>
-      <c r="E58" s="40"/>
-      <c r="F58" s="39">
+      <c r="D58" s="5"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G58" s="36">
+      <c r="G58" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H58" s="38"/>
+      <c r="H58" s="20"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="61" t="s">
+      <c r="A59" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="B59" s="22"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="9" t="s">
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E59" s="40"/>
-      <c r="F59" s="39">
+      <c r="E59" s="22"/>
+      <c r="F59" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G59" s="36">
+      <c r="G59" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H59" s="38"/>
+      <c r="H59" s="20"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="9" t="s">
+      <c r="A60" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B60" s="10">
+      <c r="B60" s="3">
         <v>28</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C60" s="3" t="s">
         <v>75</v>
       </c>
       <c r="D60" t="s">
         <v>82</v>
       </c>
-      <c r="E60" s="40"/>
-      <c r="F60" s="39">
+      <c r="E60" s="22"/>
+      <c r="F60" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G60" s="36">
+      <c r="G60" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H60" s="38"/>
+      <c r="H60" s="20"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="9" t="s">
+      <c r="A61" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C61" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D61" s="1"/>
-      <c r="E61" s="40"/>
-      <c r="F61" s="39">
+      <c r="E61" s="22"/>
+      <c r="F61" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G61" s="36">
+      <c r="G61" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H61" s="38"/>
+      <c r="H61" s="20"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="61" t="s">
-        <v>152</v>
-      </c>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
+      <c r="A62" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
       <c r="D62" s="1"/>
-      <c r="E62" s="40">
+      <c r="E62" s="22">
         <v>4</v>
       </c>
-      <c r="F62" s="39">
+      <c r="F62" s="21">
         <f t="shared" si="4"/>
         <v>1428.5714285714287</v>
       </c>
-      <c r="G62" s="36">
+      <c r="G62" s="18">
         <f t="shared" ref="G62" si="5">E62*F62</f>
         <v>5714.2857142857147</v>
       </c>
-      <c r="H62" s="38">
+      <c r="H62" s="20">
         <v>200000</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="61" t="s">
-        <v>137</v>
-      </c>
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="40">
+      <c r="A63" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="B63" s="15"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="22">
         <v>1</v>
       </c>
-      <c r="F63" s="39">
+      <c r="F63" s="21">
         <f t="shared" si="4"/>
         <v>1428.5714285714287</v>
       </c>
-      <c r="G63" s="36">
+      <c r="G63" s="18">
         <f t="shared" si="3"/>
         <v>1428.5714285714287</v>
       </c>
-      <c r="H63" s="38">
+      <c r="H63" s="20">
         <v>200000</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="9" t="s">
+      <c r="A64" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B64" s="10">
+      <c r="B64" s="3">
         <v>1000</v>
       </c>
-      <c r="C64" s="19" t="s">
+      <c r="C64" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D64" s="9" t="s">
+      <c r="D64" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E64" s="40"/>
-      <c r="F64" s="39">
+      <c r="E64" s="22"/>
+      <c r="F64" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G64" s="36">
+      <c r="G64" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H64" s="38"/>
+      <c r="H64" s="20"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="17" t="s">
+      <c r="A65" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B65" s="18">
+      <c r="B65" s="11">
         <v>220</v>
       </c>
-      <c r="C65" s="18" t="s">
+      <c r="C65" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D65" s="17"/>
-      <c r="E65" s="72"/>
-      <c r="F65" s="39">
+      <c r="D65" s="10"/>
+      <c r="E65" s="47"/>
+      <c r="F65" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G65" s="74">
+      <c r="G65" s="49">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H65" s="73"/>
+      <c r="H65" s="48"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="75" t="s">
-        <v>138</v>
+      <c r="A66" s="50" t="s">
+        <v>132</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
-      <c r="E66" s="40">
+      <c r="E66" s="22">
         <v>4</v>
       </c>
-      <c r="F66" s="39">
+      <c r="F66" s="21">
         <f t="shared" si="4"/>
         <v>757.14285714285711</v>
       </c>
-      <c r="G66" s="74">
+      <c r="G66" s="49">
         <f>E66*F66</f>
         <v>3028.5714285714284</v>
       </c>
-      <c r="H66" s="38">
+      <c r="H66" s="20">
         <v>106000</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="61" t="s">
+      <c r="A67" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B67" s="22"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
-      <c r="E67" s="65">
+      <c r="B67" s="15"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="40">
         <v>2</v>
       </c>
-      <c r="F67" s="39">
+      <c r="F67" s="21">
         <f t="shared" si="4"/>
-        <v>85.714285714285708</v>
-      </c>
-      <c r="G67" s="67">
+        <v>1357.1428571428571</v>
+      </c>
+      <c r="G67" s="42">
         <f>E67*F67</f>
-        <v>171.42857142857142</v>
-      </c>
-      <c r="H67" s="38">
-        <v>12000</v>
+        <v>2714.2857142857142</v>
+      </c>
+      <c r="H67" s="20">
+        <v>190000</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="61" t="s">
-        <v>107</v>
+      <c r="A68" s="36" t="s">
+        <v>104</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
-      <c r="E68" s="40">
+      <c r="E68" s="22">
         <v>2</v>
       </c>
-      <c r="F68" s="39">
+      <c r="F68" s="21">
         <f t="shared" si="4"/>
         <v>1571.4285714285713</v>
       </c>
-      <c r="G68" s="36">
+      <c r="G68" s="18">
         <f t="shared" ref="G68" si="6">E68*F68</f>
         <v>3142.8571428571427</v>
       </c>
-      <c r="H68" s="38">
+      <c r="H68" s="20">
         <v>220000</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="61" t="s">
-        <v>104</v>
+      <c r="A69" s="36" t="s">
+        <v>101</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
-      <c r="E69" s="40">
+      <c r="E69" s="22">
         <v>9</v>
       </c>
-      <c r="F69" s="39">
+      <c r="F69" s="21">
         <f t="shared" si="4"/>
         <v>35.714285714285715</v>
       </c>
-      <c r="G69" s="74">
+      <c r="G69" s="49">
         <f>E69*F69</f>
         <v>321.42857142857144</v>
       </c>
-      <c r="H69" s="38">
+      <c r="H69" s="20">
         <v>5000</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="61" t="s">
-        <v>104</v>
+      <c r="A70" s="36" t="s">
+        <v>101</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
-      <c r="E70" s="40">
+      <c r="E70" s="22">
         <v>8</v>
       </c>
-      <c r="F70" s="39">
+      <c r="F70" s="21">
         <f t="shared" si="4"/>
         <v>35.714285714285715</v>
       </c>
-      <c r="G70" s="36">
+      <c r="G70" s="18">
         <f t="shared" si="3"/>
         <v>285.71428571428572</v>
       </c>
-      <c r="H70" s="38">
+      <c r="H70" s="20">
         <v>5000</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G72" s="82">
+      <c r="G72" s="57">
         <f>SUM(G2:G70)</f>
-        <v>232371.42857142858</v>
-      </c>
-      <c r="H72" s="42">
+        <v>238728.57142857142</v>
+      </c>
+      <c r="H72" s="24">
         <f>G72*140</f>
-        <v>32532000</v>
+        <v>33422000</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="56"/>
+      <c r="A75" s="34"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="48"/>
+      <c r="A76" s="26"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="48"/>
-      <c r="F77" s="79" t="s">
-        <v>143</v>
-      </c>
-      <c r="G77" s="80">
+      <c r="A77" s="26"/>
+      <c r="F77" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="G77" s="55">
         <v>140</v>
       </c>
-      <c r="H77" s="81" t="s">
-        <v>142</v>
+      <c r="H77" s="56" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="48"/>
+      <c r="A78" s="26"/>
     </row>
     <row r="79" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A79" s="57"/>
+      <c r="A79" s="35"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="48"/>
+      <c r="A80" s="26"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="47"/>
+      <c r="A81" s="25"/>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="47"/>
+      <c r="A82" s="25"/>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="83"/>
+      <c r="A83" s="59"/>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="83"/>
+      <c r="A84" s="59"/>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="83"/>
+      <c r="A85" s="59"/>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="48"/>
+      <c r="A86" s="26"/>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="48"/>
+      <c r="A87" s="26"/>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="47"/>
+      <c r="A88" s="25"/>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="47"/>
+      <c r="A89" s="25"/>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="47"/>
+      <c r="A90" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A83:A85"/>
   </mergeCells>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -3349,504 +3927,488 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F5F18FA-93CB-4509-8941-2E26BAFE3826}">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="69.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="56.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="63" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="63" customWidth="1"/>
+    <col min="4" max="4" width="16" style="63" customWidth="1"/>
+    <col min="5" max="5" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="23"/>
-      <c r="B1" s="24" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="134"/>
+      <c r="B1" s="135" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" s="26"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="58"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="60"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="134"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="135" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B2" s="135" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" s="135" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="D2" s="135" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="E2" s="135" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="90" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="136" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="92"/>
-    </row>
-    <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="46" t="s">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="3">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="2" t="s">
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="2">
-        <v>20</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="46" t="s">
+      <c r="D5" s="3">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="2">
-        <v>7</v>
-      </c>
-      <c r="D6" s="6" t="s">
+    </row>
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="46" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B7" s="2">
-        <v>3</v>
-      </c>
-      <c r="C7" s="2">
-        <v>3</v>
-      </c>
-      <c r="D7" s="6" t="s">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="46" t="s">
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="136" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="136"/>
+      <c r="C10" s="136"/>
+      <c r="D10" s="136"/>
+      <c r="E10" s="136"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3">
+        <v>5</v>
+      </c>
+      <c r="D11" s="3">
+        <v>5</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>4</v>
+      </c>
+      <c r="D12" s="3">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3">
+        <v>2</v>
+      </c>
+      <c r="D13" s="3">
+        <v>2</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>2</v>
+      </c>
+      <c r="D14" s="3">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="36"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3">
         <v>1</v>
       </c>
-      <c r="C8" s="2">
+      <c r="D17" s="3">
         <v>1</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="E17" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="141" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" s="139"/>
+      <c r="C20" s="3">
+        <v>2</v>
+      </c>
+      <c r="D20" s="3">
+        <v>2</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="142"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3">
+        <v>2</v>
+      </c>
+      <c r="D21" s="3">
+        <v>2</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="46" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="46"/>
-      <c r="B10" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="90" t="s">
-        <v>101</v>
-      </c>
-      <c r="B11" s="91"/>
-      <c r="C11" s="91"/>
-      <c r="D11" s="92"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="87">
-        <v>5</v>
-      </c>
-      <c r="C12" s="87">
-        <v>5</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="D22" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="85"/>
-      <c r="B13" s="88"/>
-      <c r="C13" s="88"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="85"/>
-      <c r="B14" s="88"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="86"/>
-      <c r="B15" s="89"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="84" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="87">
-        <v>4</v>
-      </c>
-      <c r="C16" s="87">
-        <v>4</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="85"/>
-      <c r="B17" s="88"/>
-      <c r="C17" s="88"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="86"/>
-      <c r="B18" s="89"/>
-      <c r="C18" s="89"/>
-      <c r="D18" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="84" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19" s="87">
-        <v>2</v>
-      </c>
-      <c r="C19" s="87">
-        <v>2</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="86"/>
-      <c r="B20" s="89"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-    </row>
-    <row r="22" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="2">
-        <v>2</v>
-      </c>
-      <c r="C22" s="2">
-        <v>2</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="46" t="s">
-        <v>104</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="43" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="137" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="140">
+        <v>1</v>
+      </c>
+      <c r="D24" s="140">
+        <v>1</v>
+      </c>
+      <c r="E24" s="138" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="137"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
+      <c r="E25" s="138" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="45"/>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="2">
-        <v>1</v>
-      </c>
-      <c r="C25" s="2">
-        <v>1</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>99</v>
-      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27" s="3"/>
       <c r="C27" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="29"/>
-      <c r="B28" s="2">
-        <v>2</v>
-      </c>
-      <c r="C28" s="2">
-        <v>2</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="B29" s="2">
-        <v>2</v>
-      </c>
-      <c r="C29" s="2">
-        <v>2</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="46" t="s">
-        <v>104</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="46" t="s">
-        <v>110</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="84" t="s">
-        <v>112</v>
-      </c>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="143" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="85"/>
-      <c r="B33" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D33" s="32" t="s">
+      <c r="B29" s="143"/>
+      <c r="C29" s="143"/>
+      <c r="D29" s="143"/>
+      <c r="E29" s="143"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="144" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="86"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="33" t="s">
+      <c r="B30" s="144"/>
+      <c r="C30" s="144"/>
+      <c r="D30" s="144"/>
+      <c r="E30" s="144"/>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="143" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" s="2">
-        <v>1</v>
-      </c>
-      <c r="C35" s="2">
-        <v>1</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="46" t="s">
+      <c r="B31" s="143"/>
+      <c r="C31" s="143"/>
+      <c r="D31" s="143"/>
+      <c r="E31" s="143"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="B36" s="95" t="s">
+      <c r="B32" s="58"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="C36" s="96"/>
-      <c r="D36" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="94" t="s">
+      <c r="B33" s="58"/>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="B38" s="94"/>
-      <c r="C38" s="94"/>
-      <c r="D38" s="94"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="93" t="s">
+      <c r="B34" s="58"/>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="B39" s="93"/>
-      <c r="C39" s="93"/>
-      <c r="D39" s="93"/>
-    </row>
-    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="94" t="s">
+      <c r="B35" s="58"/>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="B40" s="94"/>
-      <c r="C40" s="94"/>
-      <c r="D40" s="94"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="34" t="s">
+      <c r="B36" s="58"/>
+    </row>
+    <row r="37" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="34"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="34" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="35" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="35" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="35" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="35"/>
-    </row>
-    <row r="48" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="16" t="s">
-        <v>127</v>
-      </c>
+      <c r="B37" s="118"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C12:C15"/>
+  <mergeCells count="7">
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A29:E29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3854,10 +4416,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{650A72E0-513B-499A-8298-BC1A582937B2}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="A9" sqref="A9:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3868,132 +4430,139 @@
     <col min="4" max="4" width="47.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="30">
+        <v>21</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2" s="120"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="30">
+        <v>8</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="61"/>
+      <c r="E3" s="120"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="30">
+        <v>6</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="62"/>
+      <c r="E4" s="120"/>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="B5" s="28">
+        <v>1</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="120"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" s="28">
+        <v>1</v>
+      </c>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="120"/>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="27">
+        <v>3</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" s="120"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="D1" s="51" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
-        <v>149</v>
-      </c>
-      <c r="B2" s="52">
-        <v>21</v>
-      </c>
-      <c r="C2" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="97" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" s="52">
+      <c r="B8" s="27">
+        <v>2</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="120"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" s="27">
+        <v>1</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="B10" s="27">
         <v>8</v>
       </c>
-      <c r="C3" s="54" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="98"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="53" t="s">
-        <v>95</v>
-      </c>
-      <c r="B4" s="52">
-        <v>6</v>
-      </c>
-      <c r="C4" s="54" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="99"/>
-    </row>
-    <row r="5" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="53" t="s">
-        <v>153</v>
-      </c>
-      <c r="B5" s="50">
-        <v>1</v>
-      </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="55" t="s">
-        <v>144</v>
-      </c>
-      <c r="B6" s="50">
-        <v>1</v>
-      </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-    </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="53" t="s">
+      <c r="C10" s="27"/>
+      <c r="D10" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="B7" s="49">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="27">
         <v>3</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="53" t="s">
-        <v>140</v>
-      </c>
-      <c r="B8" s="49">
-        <v>2</v>
-      </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="53" t="s">
-        <v>148</v>
-      </c>
-      <c r="B9" s="49">
-        <v>1</v>
-      </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="53" t="s">
+      <c r="C11" s="27"/>
+      <c r="D11" s="27" t="s">
         <v>141</v>
-      </c>
-      <c r="B10" s="49">
-        <v>8</v>
-      </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="49">
-        <v>3</v>
-      </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49" t="s">
-        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -4003,4 +4572,873 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF68FD9D-31AB-4F63-B9B6-43B34ED18B03}">
+  <dimension ref="A1:H39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="49.7109375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="9" customWidth="1"/>
+    <col min="4" max="6" width="22.28515625" style="94" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" style="117" customWidth="1"/>
+    <col min="8" max="8" width="23.140625" style="118" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="82"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="83" t="s">
+        <v>197</v>
+      </c>
+      <c r="E1" s="84"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="86" t="s">
+        <v>200</v>
+      </c>
+      <c r="H1" s="86"/>
+    </row>
+    <row r="2" spans="1:8" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="87"/>
+      <c r="C2" s="96" t="s">
+        <v>212</v>
+      </c>
+      <c r="D2" s="88" t="s">
+        <v>189</v>
+      </c>
+      <c r="E2" s="89" t="s">
+        <v>190</v>
+      </c>
+      <c r="F2" s="90" t="s">
+        <v>191</v>
+      </c>
+      <c r="G2" s="105" t="s">
+        <v>199</v>
+      </c>
+      <c r="H2" s="106" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="121"/>
+      <c r="B3" s="97" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="98"/>
+      <c r="D3" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="78" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="79" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="121"/>
+      <c r="B4" s="99" t="s">
+        <v>220</v>
+      </c>
+      <c r="C4" s="100"/>
+      <c r="D4" s="67" t="s">
+        <v>198</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F4" s="68" t="s">
+        <v>198</v>
+      </c>
+      <c r="G4" s="107" t="s">
+        <v>202</v>
+      </c>
+      <c r="H4" s="74" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="121"/>
+      <c r="B5" s="99" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="100"/>
+      <c r="D5" s="104" t="s">
+        <v>219</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="F5" s="77" t="s">
+        <v>219</v>
+      </c>
+      <c r="G5" s="70" t="s">
+        <v>205</v>
+      </c>
+      <c r="H5" s="80" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="122"/>
+      <c r="B6" s="99" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="100"/>
+      <c r="D6" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="110"/>
+      <c r="H6" s="111"/>
+    </row>
+    <row r="7" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="122"/>
+      <c r="B7" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="100"/>
+      <c r="D7" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="123" t="s">
+        <v>208</v>
+      </c>
+      <c r="H7" s="124" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="121"/>
+      <c r="B8" s="99" t="s">
+        <v>207</v>
+      </c>
+      <c r="C8" s="100"/>
+      <c r="D8" s="67" t="s">
+        <v>198</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F8" s="68" t="s">
+        <v>198</v>
+      </c>
+      <c r="G8" s="109">
+        <v>8.6</v>
+      </c>
+      <c r="H8" s="108">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="122"/>
+      <c r="B9" s="99" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="100"/>
+      <c r="D9" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="110"/>
+      <c r="H9" s="111"/>
+    </row>
+    <row r="10" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="122"/>
+      <c r="B10" s="99" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="100"/>
+      <c r="D10" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="110"/>
+      <c r="H10" s="111"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="121"/>
+      <c r="B11" s="99" t="s">
+        <v>209</v>
+      </c>
+      <c r="C11" s="100"/>
+      <c r="D11" s="67" t="s">
+        <v>198</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F11" s="68" t="s">
+        <v>198</v>
+      </c>
+      <c r="G11" s="109" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="108" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="121"/>
+      <c r="B12" s="99" t="s">
+        <v>148</v>
+      </c>
+      <c r="C12" s="100"/>
+      <c r="D12" s="69" t="s">
+        <v>149</v>
+      </c>
+      <c r="E12" s="64" t="s">
+        <v>149</v>
+      </c>
+      <c r="F12" s="65" t="s">
+        <v>150</v>
+      </c>
+      <c r="G12" s="112" t="s">
+        <v>221</v>
+      </c>
+      <c r="H12" s="108" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="121"/>
+      <c r="B13" s="99" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13" s="100"/>
+      <c r="D13" s="69" t="s">
+        <v>186</v>
+      </c>
+      <c r="E13" s="64" t="s">
+        <v>186</v>
+      </c>
+      <c r="F13" s="65" t="s">
+        <v>185</v>
+      </c>
+      <c r="G13" s="107">
+        <v>70</v>
+      </c>
+      <c r="H13" s="108">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="121"/>
+      <c r="B14" s="99" t="s">
+        <v>152</v>
+      </c>
+      <c r="C14" s="100"/>
+      <c r="D14" s="69" t="s">
+        <v>187</v>
+      </c>
+      <c r="E14" s="64" t="s">
+        <v>187</v>
+      </c>
+      <c r="F14" s="65" t="s">
+        <v>188</v>
+      </c>
+      <c r="G14" s="107">
+        <v>-40</v>
+      </c>
+      <c r="H14" s="108">
+        <v>-55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="122"/>
+      <c r="B15" s="99" t="s">
+        <v>153</v>
+      </c>
+      <c r="C15" s="100"/>
+      <c r="D15" s="69">
+        <v>4600</v>
+      </c>
+      <c r="E15" s="64">
+        <v>4600</v>
+      </c>
+      <c r="F15" s="68" t="s">
+        <v>198</v>
+      </c>
+      <c r="G15" s="110"/>
+      <c r="H15" s="68" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="122"/>
+      <c r="B16" s="99" t="s">
+        <v>154</v>
+      </c>
+      <c r="C16" s="100"/>
+      <c r="D16" s="69" t="s">
+        <v>233</v>
+      </c>
+      <c r="E16" s="64">
+        <v>12200</v>
+      </c>
+      <c r="F16" s="68" t="s">
+        <v>198</v>
+      </c>
+      <c r="G16" s="110"/>
+      <c r="H16" s="68" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="122"/>
+      <c r="B17" s="99" t="s">
+        <v>155</v>
+      </c>
+      <c r="C17" s="100"/>
+      <c r="D17" s="69">
+        <v>170</v>
+      </c>
+      <c r="E17" s="64">
+        <v>170</v>
+      </c>
+      <c r="F17" s="68" t="s">
+        <v>198</v>
+      </c>
+      <c r="G17" s="110"/>
+      <c r="H17" s="68" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="121"/>
+      <c r="B18" s="99" t="s">
+        <v>156</v>
+      </c>
+      <c r="C18" s="100"/>
+      <c r="D18" s="69" t="s">
+        <v>157</v>
+      </c>
+      <c r="E18" s="64" t="s">
+        <v>157</v>
+      </c>
+      <c r="F18" s="65" t="s">
+        <v>158</v>
+      </c>
+      <c r="G18" s="107" t="s">
+        <v>161</v>
+      </c>
+      <c r="H18" s="127" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="121"/>
+      <c r="B19" s="99" t="s">
+        <v>159</v>
+      </c>
+      <c r="C19" s="100"/>
+      <c r="D19" s="69" t="s">
+        <v>160</v>
+      </c>
+      <c r="E19" s="64" t="s">
+        <v>160</v>
+      </c>
+      <c r="F19" s="65" t="s">
+        <v>161</v>
+      </c>
+      <c r="G19" s="112" t="s">
+        <v>158</v>
+      </c>
+      <c r="H19" s="113" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="121"/>
+      <c r="B20" s="99" t="s">
+        <v>162</v>
+      </c>
+      <c r="C20" s="100"/>
+      <c r="D20" s="69" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="65" t="s">
+        <v>163</v>
+      </c>
+      <c r="G20" s="107" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" s="114" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="121"/>
+      <c r="B21" s="99" t="s">
+        <v>164</v>
+      </c>
+      <c r="C21" s="100"/>
+      <c r="D21" s="69" t="s">
+        <v>165</v>
+      </c>
+      <c r="E21" s="64" t="s">
+        <v>192</v>
+      </c>
+      <c r="F21" s="66" t="s">
+        <v>165</v>
+      </c>
+      <c r="G21" s="133" t="s">
+        <v>201</v>
+      </c>
+      <c r="H21" s="132" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="121"/>
+      <c r="B22" s="99" t="s">
+        <v>166</v>
+      </c>
+      <c r="C22" s="100"/>
+      <c r="D22" s="73" t="s">
+        <v>198</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F22" s="119" t="s">
+        <v>167</v>
+      </c>
+      <c r="G22" s="107" t="s">
+        <v>167</v>
+      </c>
+      <c r="H22" s="108" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="121"/>
+      <c r="B23" s="99" t="s">
+        <v>168</v>
+      </c>
+      <c r="C23" s="100"/>
+      <c r="D23" s="73" t="s">
+        <v>198</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F23" s="119" t="s">
+        <v>169</v>
+      </c>
+      <c r="G23" s="107" t="s">
+        <v>223</v>
+      </c>
+      <c r="H23" s="108" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="121"/>
+      <c r="B24" s="99" t="s">
+        <v>213</v>
+      </c>
+      <c r="C24" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="D24" s="73" t="s">
+        <v>198</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F24" s="119" t="s">
+        <v>196</v>
+      </c>
+      <c r="G24" s="73" t="s">
+        <v>198</v>
+      </c>
+      <c r="H24" s="100" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="121"/>
+      <c r="B25" s="99" t="s">
+        <v>170</v>
+      </c>
+      <c r="C25" s="100"/>
+      <c r="D25" s="69" t="s">
+        <v>167</v>
+      </c>
+      <c r="E25" s="64" t="s">
+        <v>167</v>
+      </c>
+      <c r="F25" s="65" t="s">
+        <v>169</v>
+      </c>
+      <c r="G25" s="128" t="s">
+        <v>224</v>
+      </c>
+      <c r="H25" s="108" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="121"/>
+      <c r="B26" s="99" t="s">
+        <v>171</v>
+      </c>
+      <c r="C26" s="100" t="s">
+        <v>214</v>
+      </c>
+      <c r="D26" s="69" t="s">
+        <v>167</v>
+      </c>
+      <c r="E26" s="64" t="s">
+        <v>167</v>
+      </c>
+      <c r="F26" s="65" t="s">
+        <v>196</v>
+      </c>
+      <c r="G26" s="112" t="s">
+        <v>196</v>
+      </c>
+      <c r="H26" s="108" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="121"/>
+      <c r="B27" s="99" t="s">
+        <v>172</v>
+      </c>
+      <c r="C27" s="100"/>
+      <c r="D27" s="69" t="s">
+        <v>167</v>
+      </c>
+      <c r="E27" s="64" t="s">
+        <v>167</v>
+      </c>
+      <c r="F27" s="65" t="s">
+        <v>169</v>
+      </c>
+      <c r="G27" s="107" t="s">
+        <v>167</v>
+      </c>
+      <c r="H27" s="132" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="121"/>
+      <c r="B28" s="99" t="s">
+        <v>173</v>
+      </c>
+      <c r="C28" s="100"/>
+      <c r="D28" s="69" t="s">
+        <v>161</v>
+      </c>
+      <c r="E28" s="64" t="s">
+        <v>160</v>
+      </c>
+      <c r="F28" s="65" t="s">
+        <v>161</v>
+      </c>
+      <c r="G28" s="112" t="s">
+        <v>158</v>
+      </c>
+      <c r="H28" s="113" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="121"/>
+      <c r="B29" s="99" t="s">
+        <v>174</v>
+      </c>
+      <c r="C29" s="100"/>
+      <c r="D29" s="69" t="s">
+        <v>175</v>
+      </c>
+      <c r="E29" s="64" t="s">
+        <v>175</v>
+      </c>
+      <c r="F29" s="65" t="s">
+        <v>175</v>
+      </c>
+      <c r="G29" s="112" t="s">
+        <v>158</v>
+      </c>
+      <c r="H29" s="113" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="121"/>
+      <c r="B30" s="99" t="s">
+        <v>176</v>
+      </c>
+      <c r="C30" s="100"/>
+      <c r="D30" s="69" t="s">
+        <v>158</v>
+      </c>
+      <c r="E30" s="64" t="s">
+        <v>158</v>
+      </c>
+      <c r="F30" s="65" t="s">
+        <v>158</v>
+      </c>
+      <c r="G30" s="112" t="s">
+        <v>163</v>
+      </c>
+      <c r="H30" s="113" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="121"/>
+      <c r="B31" s="99" t="s">
+        <v>177</v>
+      </c>
+      <c r="C31" s="100"/>
+      <c r="D31" s="69" t="s">
+        <v>178</v>
+      </c>
+      <c r="E31" s="64" t="s">
+        <v>178</v>
+      </c>
+      <c r="F31" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="G31" s="107" t="s">
+        <v>178</v>
+      </c>
+      <c r="H31" s="108" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="121"/>
+      <c r="B32" s="99" t="s">
+        <v>215</v>
+      </c>
+      <c r="C32" s="100" t="s">
+        <v>218</v>
+      </c>
+      <c r="D32" s="69" t="s">
+        <v>193</v>
+      </c>
+      <c r="E32" s="64" t="s">
+        <v>193</v>
+      </c>
+      <c r="F32" s="65" t="s">
+        <v>193</v>
+      </c>
+      <c r="G32" s="125" t="s">
+        <v>226</v>
+      </c>
+      <c r="H32" s="126" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="121"/>
+      <c r="B33" s="99" t="s">
+        <v>179</v>
+      </c>
+      <c r="C33" s="100"/>
+      <c r="D33" s="69" t="s">
+        <v>180</v>
+      </c>
+      <c r="E33" s="64" t="s">
+        <v>180</v>
+      </c>
+      <c r="F33" s="65" t="s">
+        <v>180</v>
+      </c>
+      <c r="G33" s="107" t="s">
+        <v>227</v>
+      </c>
+      <c r="H33" s="108" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="121"/>
+      <c r="B34" s="99" t="s">
+        <v>216</v>
+      </c>
+      <c r="C34" s="100" t="s">
+        <v>218</v>
+      </c>
+      <c r="D34" s="69" t="s">
+        <v>194</v>
+      </c>
+      <c r="E34" s="64" t="s">
+        <v>194</v>
+      </c>
+      <c r="F34" s="65" t="s">
+        <v>195</v>
+      </c>
+      <c r="G34" s="112" t="s">
+        <v>229</v>
+      </c>
+      <c r="H34" s="127" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="121"/>
+      <c r="B35" s="99" t="s">
+        <v>181</v>
+      </c>
+      <c r="C35" s="100"/>
+      <c r="D35" s="73" t="s">
+        <v>198</v>
+      </c>
+      <c r="E35" s="73" t="s">
+        <v>198</v>
+      </c>
+      <c r="F35" s="73" t="s">
+        <v>198</v>
+      </c>
+      <c r="G35" s="112" t="s">
+        <v>231</v>
+      </c>
+      <c r="H35" s="129" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="121"/>
+      <c r="B36" s="99" t="s">
+        <v>182</v>
+      </c>
+      <c r="C36" s="100"/>
+      <c r="D36" s="73" t="s">
+        <v>198</v>
+      </c>
+      <c r="E36" s="73" t="s">
+        <v>198</v>
+      </c>
+      <c r="F36" s="73" t="s">
+        <v>198</v>
+      </c>
+      <c r="G36" s="73" t="s">
+        <v>198</v>
+      </c>
+      <c r="H36" s="113" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="121"/>
+      <c r="B37" s="99" t="s">
+        <v>183</v>
+      </c>
+      <c r="C37" s="100"/>
+      <c r="D37" s="69" t="s">
+        <v>184</v>
+      </c>
+      <c r="E37" s="64" t="s">
+        <v>184</v>
+      </c>
+      <c r="F37" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="G37" s="107" t="s">
+        <v>167</v>
+      </c>
+      <c r="H37" s="113" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="121"/>
+      <c r="B38" s="101" t="s">
+        <v>217</v>
+      </c>
+      <c r="C38" s="100" t="s">
+        <v>218</v>
+      </c>
+      <c r="D38" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="E38" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="F38" s="81" t="s">
+        <v>158</v>
+      </c>
+      <c r="G38" s="115" t="s">
+        <v>158</v>
+      </c>
+      <c r="H38" s="116" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="121"/>
+      <c r="B39" s="102" t="s">
+        <v>211</v>
+      </c>
+      <c r="C39" s="103" t="s">
+        <v>218</v>
+      </c>
+      <c r="D39" s="91" t="s">
+        <v>157</v>
+      </c>
+      <c r="E39" s="92" t="s">
+        <v>157</v>
+      </c>
+      <c r="F39" s="93" t="s">
+        <v>157</v>
+      </c>
+      <c r="G39" s="130" t="s">
+        <v>167</v>
+      </c>
+      <c r="H39" s="131" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/ssj/new ssj.xlsx
+++ b/ssj/new ssj.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkProject\PACVIC\ssj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA84F86-D157-4346-8C1E-57A4C75F0132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C745FC6A-23D9-4E91-AE35-7DB541511671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{2D8AD6FB-06A8-429F-AD3B-DAC79497FD29}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{2D8AD6FB-06A8-429F-AD3B-DAC79497FD29}"/>
   </bookViews>
   <sheets>
     <sheet name="СП" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="237">
   <si>
     <t>Видеокамеры</t>
   </si>
@@ -293,9 +293,6 @@
   </si>
   <si>
     <t>Наименование</t>
-  </si>
-  <si>
-    <t>Кол-во на</t>
   </si>
   <si>
     <t>самолет 97001</t>
@@ -1138,7 +1135,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;₽&quot;"/>
     <numFmt numFmtId="166" formatCode="[$$-409]#,##0.00"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1210,13 +1207,6 @@
     <font>
       <vertAlign val="superscript"/>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="7.5"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -1714,9 +1704,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1794,7 +1784,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1810,14 +1800,14 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1835,13 +1825,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2025,7 +2015,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2059,9 +2048,6 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2074,7 +2060,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2092,6 +2078,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2443,18 +2430,18 @@
         <v>16</v>
       </c>
       <c r="F1" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="G1" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="G1" s="39" t="s">
-        <v>124</v>
-      </c>
       <c r="H1" s="36" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B2" s="36"/>
       <c r="C2" s="37"/>
@@ -2648,7 +2635,7 @@
     </row>
     <row r="13" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2671,7 +2658,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2719,7 +2706,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2739,7 +2726,7 @@
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E17" s="40">
         <v>10</v>
@@ -3201,7 +3188,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -3306,7 +3293,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -3328,7 +3315,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -3650,7 +3637,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="36" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -3672,7 +3659,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B63" s="15"/>
       <c r="C63" s="15"/>
@@ -3740,7 +3727,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="50" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -3784,7 +3771,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -3806,7 +3793,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -3828,7 +3815,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -3867,13 +3854,13 @@
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="26"/>
       <c r="F77" s="54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G77" s="55">
         <v>140</v>
       </c>
       <c r="H77" s="56" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -3919,7 +3906,7 @@
   <mergeCells count="1">
     <mergeCell ref="A83:A85"/>
   </mergeCells>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -3927,10 +3914,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F5F18FA-93CB-4509-8941-2E26BAFE3826}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3943,43 +3930,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="134"/>
-      <c r="B1" s="135" t="s">
+      <c r="A1" s="133" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="133" t="s">
+        <v>234</v>
+      </c>
+      <c r="C1" s="133" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="134"/>
+      <c r="D1" s="133" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="133" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="135" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="135" t="s">
-        <v>235</v>
-      </c>
-      <c r="C2" s="135" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="135" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" s="135" t="s">
+      <c r="A2" s="134" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="136" t="s">
-        <v>129</v>
-      </c>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="3">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
@@ -3988,51 +3983,49 @@
         <v>21</v>
       </c>
       <c r="D4" s="3">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B5" s="3">
+        <v>93</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="3">
-        <v>7</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B6" s="3"/>
       <c r="C6" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="3">
-        <v>1</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="B7" s="3"/>
       <c r="C7" s="3">
         <v>1</v>
       </c>
@@ -4040,14 +4033,16 @@
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="B8" s="3"/>
+        <v>126</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
       <c r="C8" s="3">
         <v>1</v>
       </c>
@@ -4055,72 +4050,72 @@
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="134" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B9" s="3">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>98</v>
-      </c>
+      <c r="B9" s="134"/>
+      <c r="C9" s="134"/>
+      <c r="D9" s="134"/>
+      <c r="E9" s="134"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="136" t="s">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3">
+        <v>5</v>
+      </c>
+      <c r="D10" s="3">
+        <v>5</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B10" s="136"/>
-      <c r="C10" s="136"/>
-      <c r="D10" s="136"/>
-      <c r="E10" s="136"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
       <c r="C11" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="3">
+        <v>60</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="3">
         <v>1</v>
       </c>
-      <c r="C12" s="3">
-        <v>4</v>
-      </c>
-      <c r="D12" s="3">
-        <v>4</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="3"/>
       <c r="C13" s="3">
         <v>2</v>
       </c>
@@ -4128,57 +4123,57 @@
         <v>2</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>236</v>
       </c>
       <c r="B14" s="3">
         <v>1</v>
       </c>
       <c r="C14" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="36"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B15" s="3">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3">
-        <v>1</v>
-      </c>
-      <c r="D15" s="3">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="36"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
       <c r="C17" s="3">
         <v>1</v>
       </c>
@@ -4186,16 +4181,14 @@
         <v>1</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="3">
-        <v>1</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="B18" s="3"/>
       <c r="C18" s="3">
         <v>1</v>
       </c>
@@ -4203,29 +4196,27 @@
         <v>1</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="139" t="s">
         <v>104</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19" s="137"/>
       <c r="C19" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="141" t="s">
-        <v>105</v>
-      </c>
-      <c r="B20" s="139"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="140"/>
+      <c r="B20" s="3"/>
       <c r="C20" s="3">
         <v>2</v>
       </c>
@@ -4233,136 +4224,129 @@
         <v>2</v>
       </c>
       <c r="E20" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="142"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3">
-        <v>2</v>
-      </c>
-      <c r="D21" s="3">
-        <v>2</v>
+      <c r="D21" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>107</v>
+      <c r="A23" s="135" t="s">
+        <v>108</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>108</v>
+      <c r="C23" s="138">
+        <v>1</v>
+      </c>
+      <c r="D23" s="138">
+        <v>1</v>
+      </c>
+      <c r="E23" s="136" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="137" t="s">
-        <v>109</v>
-      </c>
+      <c r="A24" s="135"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="140">
+      <c r="C24" s="3">
         <v>1</v>
       </c>
-      <c r="D24" s="140">
+      <c r="D24" s="3">
         <v>1</v>
       </c>
-      <c r="E24" s="138" t="s">
+      <c r="E24" s="136" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="137"/>
-      <c r="B25" s="3"/>
+      <c r="A25" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
       <c r="C25" s="3">
         <v>1</v>
       </c>
       <c r="D25" s="3">
         <v>1</v>
       </c>
-      <c r="E25" s="138" t="s">
+      <c r="E25" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" s="3">
-        <v>1</v>
-      </c>
-      <c r="C26" s="3">
-        <v>1</v>
-      </c>
-      <c r="D26" s="3">
-        <v>1</v>
-      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="141" t="s">
         <v>113</v>
       </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="143" t="s">
+      <c r="B28" s="141"/>
+      <c r="C28" s="141"/>
+      <c r="D28" s="141"/>
+      <c r="E28" s="141"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="142" t="s">
         <v>114</v>
       </c>
-      <c r="B29" s="143"/>
-      <c r="C29" s="143"/>
-      <c r="D29" s="143"/>
-      <c r="E29" s="143"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="144" t="s">
+      <c r="B29" s="142"/>
+      <c r="C29" s="142"/>
+      <c r="D29" s="142"/>
+      <c r="E29" s="142"/>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="141" t="s">
         <v>115</v>
       </c>
-      <c r="B30" s="144"/>
-      <c r="C30" s="144"/>
-      <c r="D30" s="144"/>
-      <c r="E30" s="144"/>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="143" t="s">
+      <c r="B30" s="141"/>
+      <c r="C30" s="141"/>
+      <c r="D30" s="141"/>
+      <c r="E30" s="141"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="B31" s="143"/>
-      <c r="C31" s="143"/>
-      <c r="D31" s="143"/>
-      <c r="E31" s="143"/>
+      <c r="B31" s="58"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
@@ -4370,8 +4354,8 @@
       </c>
       <c r="B32" s="58"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="16" t="s">
+    <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
         <v>118</v>
       </c>
       <c r="B33" s="58"/>
@@ -4388,27 +4372,21 @@
       </c>
       <c r="B35" s="58"/>
     </row>
-    <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+    <row r="36" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B36" s="58"/>
-    </row>
-    <row r="37" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B37" s="118"/>
+      <c r="B36" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A29:E29"/>
     <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A28:E28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4419,7 +4397,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD11"/>
+      <selection activeCell="E2" sqref="E2:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4438,15 +4416,15 @@
         <v>16</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B2" s="30">
         <v>21</v>
@@ -4455,13 +4433,13 @@
         <v>26</v>
       </c>
       <c r="D2" s="60" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E2" s="120"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" s="30">
         <v>8</v>
@@ -4474,7 +4452,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="30">
         <v>6</v>
@@ -4487,7 +4465,7 @@
     </row>
     <row r="5" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B5" s="28">
         <v>1</v>
@@ -4498,7 +4476,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B6" s="28">
         <v>1</v>
@@ -4509,20 +4487,20 @@
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B7" s="27">
         <v>3</v>
       </c>
       <c r="C7" s="27"/>
       <c r="D7" s="27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E7" s="120"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B8" s="27">
         <v>2</v>
@@ -4533,7 +4511,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B9" s="27">
         <v>1</v>
@@ -4543,14 +4521,14 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B10" s="27">
         <v>8</v>
       </c>
       <c r="C10" s="27"/>
       <c r="D10" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -4562,7 +4540,7 @@
       </c>
       <c r="C11" s="27"/>
       <c r="D11" s="27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -4578,8 +4556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF68FD9D-31AB-4F63-B9B6-43B34ED18B03}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4595,34 +4573,34 @@
       <c r="B1" s="82"/>
       <c r="C1" s="95"/>
       <c r="D1" s="83" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E1" s="84"/>
       <c r="F1" s="85"/>
       <c r="G1" s="86" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H1" s="86"/>
     </row>
     <row r="2" spans="1:8" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="87"/>
       <c r="C2" s="96" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D2" s="88" t="s">
+        <v>188</v>
+      </c>
+      <c r="E2" s="89" t="s">
         <v>189</v>
       </c>
-      <c r="E2" s="89" t="s">
+      <c r="F2" s="90" t="s">
         <v>190</v>
       </c>
-      <c r="F2" s="90" t="s">
-        <v>191</v>
-      </c>
       <c r="G2" s="105" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H2" s="106" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -4650,23 +4628,23 @@
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="121"/>
       <c r="B4" s="99" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C4" s="100"/>
       <c r="D4" s="67" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F4" s="68" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G4" s="107" t="s">
+        <v>201</v>
+      </c>
+      <c r="H4" s="74" t="s">
         <v>202</v>
-      </c>
-      <c r="H4" s="74" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
@@ -4676,23 +4654,23 @@
       </c>
       <c r="C5" s="100"/>
       <c r="D5" s="104" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F5" s="77" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G5" s="70" t="s">
+        <v>204</v>
+      </c>
+      <c r="H5" s="80" t="s">
         <v>205</v>
       </c>
-      <c r="H5" s="80" t="s">
-        <v>206</v>
-      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="122"/>
+      <c r="A6" s="143"/>
       <c r="B6" s="99" t="s">
         <v>22</v>
       </c>
@@ -4710,7 +4688,7 @@
       <c r="H6" s="111"/>
     </row>
     <row r="7" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="122"/>
+      <c r="A7" s="143"/>
       <c r="B7" s="99" t="s">
         <v>23</v>
       </c>
@@ -4724,27 +4702,27 @@
       <c r="F7" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="123" t="s">
-        <v>208</v>
-      </c>
-      <c r="H7" s="124" t="s">
-        <v>208</v>
+      <c r="G7" s="122" t="s">
+        <v>207</v>
+      </c>
+      <c r="H7" s="123" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="121"/>
+      <c r="A8" s="143"/>
       <c r="B8" s="99" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C8" s="100"/>
       <c r="D8" s="67" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F8" s="68" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G8" s="109">
         <v>8.6</v>
@@ -4754,7 +4732,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="122"/>
+      <c r="A9" s="143"/>
       <c r="B9" s="99" t="s">
         <v>24</v>
       </c>
@@ -4772,7 +4750,7 @@
       <c r="H9" s="111"/>
     </row>
     <row r="10" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="122"/>
+      <c r="A10" s="143"/>
       <c r="B10" s="99" t="s">
         <v>4</v>
       </c>
@@ -4790,63 +4768,63 @@
       <c r="H10" s="111"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="121"/>
+      <c r="A11" s="143"/>
       <c r="B11" s="99" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C11" s="100"/>
       <c r="D11" s="67" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F11" s="68" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G11" s="109" t="s">
         <v>11</v>
       </c>
       <c r="H11" s="108" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="121"/>
+      <c r="A12" s="143"/>
       <c r="B12" s="99" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C12" s="100"/>
       <c r="D12" s="69" t="s">
+        <v>148</v>
+      </c>
+      <c r="E12" s="64" t="s">
+        <v>148</v>
+      </c>
+      <c r="F12" s="65" t="s">
         <v>149</v>
       </c>
-      <c r="E12" s="64" t="s">
+      <c r="G12" s="112" t="s">
+        <v>220</v>
+      </c>
+      <c r="H12" s="108" t="s">
         <v>149</v>
       </c>
-      <c r="F12" s="65" t="s">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="143"/>
+      <c r="B13" s="99" t="s">
         <v>150</v>
-      </c>
-      <c r="G12" s="112" t="s">
-        <v>221</v>
-      </c>
-      <c r="H12" s="108" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="121"/>
-      <c r="B13" s="99" t="s">
-        <v>151</v>
       </c>
       <c r="C13" s="100"/>
       <c r="D13" s="69" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E13" s="64" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F13" s="65" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G13" s="107">
         <v>70</v>
@@ -4856,19 +4834,19 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="121"/>
+      <c r="A14" s="143"/>
       <c r="B14" s="99" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C14" s="100"/>
       <c r="D14" s="69" t="s">
+        <v>186</v>
+      </c>
+      <c r="E14" s="64" t="s">
+        <v>186</v>
+      </c>
+      <c r="F14" s="65" t="s">
         <v>187</v>
-      </c>
-      <c r="E14" s="64" t="s">
-        <v>187</v>
-      </c>
-      <c r="F14" s="65" t="s">
-        <v>188</v>
       </c>
       <c r="G14" s="107">
         <v>-40</v>
@@ -4878,9 +4856,9 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="122"/>
+      <c r="A15" s="143"/>
       <c r="B15" s="99" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C15" s="100"/>
       <c r="D15" s="69">
@@ -4890,37 +4868,37 @@
         <v>4600</v>
       </c>
       <c r="F15" s="68" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G15" s="110"/>
       <c r="H15" s="68" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="122"/>
+      <c r="A16" s="143"/>
       <c r="B16" s="99" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C16" s="100"/>
       <c r="D16" s="69" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E16" s="64">
         <v>12200</v>
       </c>
       <c r="F16" s="68" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G16" s="110"/>
       <c r="H16" s="68" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="122"/>
+      <c r="A17" s="143"/>
       <c r="B17" s="99" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C17" s="100"/>
       <c r="D17" s="69">
@@ -4930,61 +4908,61 @@
         <v>170</v>
       </c>
       <c r="F17" s="68" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G17" s="110"/>
       <c r="H17" s="68" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="121"/>
+      <c r="A18" s="143"/>
       <c r="B18" s="99" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C18" s="100"/>
       <c r="D18" s="69" t="s">
+        <v>156</v>
+      </c>
+      <c r="E18" s="64" t="s">
+        <v>156</v>
+      </c>
+      <c r="F18" s="65" t="s">
         <v>157</v>
       </c>
-      <c r="E18" s="64" t="s">
-        <v>157</v>
-      </c>
-      <c r="F18" s="65" t="s">
-        <v>158</v>
-      </c>
       <c r="G18" s="107" t="s">
-        <v>161</v>
-      </c>
-      <c r="H18" s="127" t="s">
-        <v>222</v>
+        <v>160</v>
+      </c>
+      <c r="H18" s="126" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="121"/>
       <c r="B19" s="99" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C19" s="100"/>
       <c r="D19" s="69" t="s">
+        <v>159</v>
+      </c>
+      <c r="E19" s="64" t="s">
+        <v>159</v>
+      </c>
+      <c r="F19" s="65" t="s">
         <v>160</v>
       </c>
-      <c r="E19" s="64" t="s">
+      <c r="G19" s="112" t="s">
+        <v>157</v>
+      </c>
+      <c r="H19" s="113" t="s">
         <v>160</v>
-      </c>
-      <c r="F19" s="65" t="s">
-        <v>161</v>
-      </c>
-      <c r="G19" s="112" t="s">
-        <v>158</v>
-      </c>
-      <c r="H19" s="113" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A20" s="121"/>
       <c r="B20" s="99" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C20" s="100"/>
       <c r="D20" s="69" t="s">
@@ -4994,7 +4972,7 @@
         <v>75</v>
       </c>
       <c r="F20" s="65" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G20" s="107" t="s">
         <v>75</v>
@@ -5006,431 +4984,431 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="121"/>
       <c r="B21" s="99" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C21" s="100"/>
       <c r="D21" s="69" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E21" s="64" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F21" s="66" t="s">
-        <v>165</v>
-      </c>
-      <c r="G21" s="133" t="s">
-        <v>201</v>
-      </c>
-      <c r="H21" s="132" t="s">
-        <v>204</v>
+        <v>164</v>
+      </c>
+      <c r="G21" s="132" t="s">
+        <v>200</v>
+      </c>
+      <c r="H21" s="131" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="121"/>
       <c r="B22" s="99" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C22" s="100"/>
       <c r="D22" s="73" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F22" s="119" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G22" s="107" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H22" s="108" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="121"/>
       <c r="B23" s="99" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C23" s="100"/>
       <c r="D23" s="73" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F23" s="119" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G23" s="107" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H23" s="108" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A24" s="121"/>
       <c r="B24" s="99" t="s">
+        <v>212</v>
+      </c>
+      <c r="C24" s="100" t="s">
         <v>213</v>
       </c>
-      <c r="C24" s="100" t="s">
-        <v>214</v>
-      </c>
       <c r="D24" s="73" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F24" s="119" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G24" s="73" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H24" s="100" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="121"/>
       <c r="B25" s="99" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C25" s="100"/>
       <c r="D25" s="69" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E25" s="64" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F25" s="65" t="s">
-        <v>169</v>
-      </c>
-      <c r="G25" s="128" t="s">
-        <v>224</v>
+        <v>168</v>
+      </c>
+      <c r="G25" s="127" t="s">
+        <v>223</v>
       </c>
       <c r="H25" s="108" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A26" s="121"/>
       <c r="B26" s="99" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C26" s="100" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D26" s="69" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E26" s="64" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F26" s="65" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G26" s="112" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H26" s="108" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="121"/>
       <c r="B27" s="99" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C27" s="100"/>
       <c r="D27" s="69" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E27" s="64" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F27" s="65" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G27" s="107" t="s">
-        <v>167</v>
-      </c>
-      <c r="H27" s="132" t="s">
-        <v>225</v>
+        <v>166</v>
+      </c>
+      <c r="H27" s="131" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="121"/>
       <c r="B28" s="99" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C28" s="100"/>
       <c r="D28" s="69" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E28" s="64" t="s">
+        <v>159</v>
+      </c>
+      <c r="F28" s="65" t="s">
         <v>160</v>
       </c>
-      <c r="F28" s="65" t="s">
-        <v>161</v>
-      </c>
       <c r="G28" s="112" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H28" s="113" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="121"/>
       <c r="B29" s="99" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C29" s="100"/>
       <c r="D29" s="69" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E29" s="64" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F29" s="65" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G29" s="112" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H29" s="113" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="121"/>
       <c r="B30" s="99" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C30" s="100"/>
       <c r="D30" s="69" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E30" s="64" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F30" s="65" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G30" s="112" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H30" s="113" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="121"/>
       <c r="B31" s="99" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C31" s="100"/>
       <c r="D31" s="69" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E31" s="64" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F31" s="65" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G31" s="107" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H31" s="108" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="121"/>
       <c r="B32" s="99" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C32" s="100" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D32" s="69" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E32" s="64" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F32" s="65" t="s">
-        <v>193</v>
-      </c>
-      <c r="G32" s="125" t="s">
-        <v>226</v>
-      </c>
-      <c r="H32" s="126" t="s">
-        <v>226</v>
+        <v>192</v>
+      </c>
+      <c r="G32" s="124" t="s">
+        <v>225</v>
+      </c>
+      <c r="H32" s="125" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="121"/>
       <c r="B33" s="99" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C33" s="100"/>
       <c r="D33" s="69" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E33" s="64" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F33" s="65" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G33" s="107" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H33" s="108" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="121"/>
       <c r="B34" s="99" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C34" s="100" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D34" s="69" t="s">
+        <v>193</v>
+      </c>
+      <c r="E34" s="64" t="s">
+        <v>193</v>
+      </c>
+      <c r="F34" s="65" t="s">
         <v>194</v>
       </c>
-      <c r="E34" s="64" t="s">
-        <v>194</v>
-      </c>
-      <c r="F34" s="65" t="s">
-        <v>195</v>
-      </c>
       <c r="G34" s="112" t="s">
+        <v>228</v>
+      </c>
+      <c r="H34" s="126" t="s">
         <v>229</v>
-      </c>
-      <c r="H34" s="127" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A35" s="121"/>
       <c r="B35" s="99" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C35" s="100"/>
       <c r="D35" s="73" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E35" s="73" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F35" s="73" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G35" s="112" t="s">
+        <v>230</v>
+      </c>
+      <c r="H35" s="128" t="s">
         <v>231</v>
-      </c>
-      <c r="H35" s="129" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="121"/>
       <c r="B36" s="99" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C36" s="100"/>
       <c r="D36" s="73" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E36" s="73" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F36" s="73" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G36" s="73" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H36" s="113" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="121"/>
       <c r="B37" s="99" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C37" s="100"/>
       <c r="D37" s="69" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E37" s="64" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F37" s="65" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G37" s="107" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H37" s="113" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="121"/>
       <c r="B38" s="101" t="s">
+        <v>216</v>
+      </c>
+      <c r="C38" s="100" t="s">
         <v>217</v>
       </c>
-      <c r="C38" s="100" t="s">
-        <v>218</v>
-      </c>
       <c r="D38" s="75" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E38" s="76" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F38" s="81" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G38" s="115" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H38" s="116" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="121"/>
       <c r="B39" s="102" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C39" s="103" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D39" s="91" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E39" s="92" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F39" s="93" t="s">
-        <v>157</v>
-      </c>
-      <c r="G39" s="130" t="s">
-        <v>167</v>
-      </c>
-      <c r="H39" s="131" t="s">
-        <v>167</v>
+        <v>156</v>
+      </c>
+      <c r="G39" s="129" t="s">
+        <v>166</v>
+      </c>
+      <c r="H39" s="130" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/ssj/new ssj.xlsx
+++ b/ssj/new ssj.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkProject\PACVIC\ssj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C745FC6A-23D9-4E91-AE35-7DB541511671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5C5CF6-A9DE-4A1F-B513-DE8220AA1478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{2D8AD6FB-06A8-429F-AD3B-DAC79497FD29}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="243">
   <si>
     <t>Видеокамеры</t>
   </si>
@@ -1124,6 +1124,24 @@
   </si>
   <si>
     <t>Комплект соединительных кабелей, к-т</t>
+  </si>
+  <si>
+    <t>1920 x 1080 (2048х1536)</t>
+  </si>
+  <si>
+    <t>Н.264</t>
+  </si>
+  <si>
+    <t>нет (требуется доработка ПО)</t>
+  </si>
+  <si>
+    <t>Разъемы подключения</t>
+  </si>
+  <si>
+    <t>Немного отличная два экрана</t>
+  </si>
+  <si>
+    <t>могут (нужны испытания)</t>
   </si>
 </sst>
 </file>
@@ -1267,7 +1285,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1298,6 +1316,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="31">
     <border>
@@ -1836,18 +1860,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1906,18 +1918,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1983,12 +1983,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2015,12 +2009,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2051,34 +2039,70 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3879,13 +3903,13 @@
       <c r="A82" s="25"/>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="59"/>
+      <c r="A83" s="126"/>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="59"/>
+      <c r="A84" s="126"/>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="59"/>
+      <c r="A85" s="126"/>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="26"/>
@@ -3923,37 +3947,37 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="69.140625" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" style="63" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="63" customWidth="1"/>
-    <col min="4" max="4" width="16" style="63" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="59" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="59" customWidth="1"/>
+    <col min="4" max="4" width="16" style="59" customWidth="1"/>
     <col min="5" max="5" width="46" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="121" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="133" t="s">
+      <c r="B1" s="121" t="s">
         <v>234</v>
       </c>
-      <c r="C1" s="133" t="s">
+      <c r="C1" s="121" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="133" t="s">
+      <c r="D1" s="121" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="133" t="s">
+      <c r="E1" s="121" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="134" t="s">
+      <c r="A2" s="129" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -4021,7 +4045,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>235</v>
       </c>
@@ -4036,7 +4060,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>126</v>
       </c>
@@ -4054,13 +4078,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="134" t="s">
+      <c r="A9" s="129" t="s">
         <v>98</v>
       </c>
-      <c r="B9" s="134"/>
-      <c r="C9" s="134"/>
-      <c r="D9" s="134"/>
-      <c r="E9" s="134"/>
+      <c r="B9" s="129"/>
+      <c r="C9" s="129"/>
+      <c r="D9" s="129"/>
+      <c r="E9" s="129"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -4200,10 +4224,10 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="139" t="s">
+      <c r="A19" s="127" t="s">
         <v>104</v>
       </c>
-      <c r="B19" s="137"/>
+      <c r="B19" s="123"/>
       <c r="C19" s="3">
         <v>2</v>
       </c>
@@ -4215,7 +4239,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="140"/>
+      <c r="A20" s="128"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3">
         <v>2</v>
@@ -4258,22 +4282,22 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="135" t="s">
+      <c r="A23" s="132" t="s">
         <v>108</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="138">
+      <c r="C23" s="124">
         <v>1</v>
       </c>
-      <c r="D23" s="138">
+      <c r="D23" s="124">
         <v>1</v>
       </c>
-      <c r="E23" s="136" t="s">
+      <c r="E23" s="122" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="135"/>
+      <c r="A24" s="132"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3">
         <v>1</v>
@@ -4281,7 +4305,7 @@
       <c r="D24" s="3">
         <v>1</v>
       </c>
-      <c r="E24" s="136" t="s">
+      <c r="E24" s="122" t="s">
         <v>110</v>
       </c>
     </row>
@@ -4316,31 +4340,31 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="141" t="s">
+      <c r="A28" s="131" t="s">
         <v>113</v>
       </c>
-      <c r="B28" s="141"/>
-      <c r="C28" s="141"/>
-      <c r="D28" s="141"/>
-      <c r="E28" s="141"/>
+      <c r="B28" s="131"/>
+      <c r="C28" s="131"/>
+      <c r="D28" s="131"/>
+      <c r="E28" s="131"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="142" t="s">
+      <c r="A29" s="130" t="s">
         <v>114</v>
       </c>
-      <c r="B29" s="142"/>
-      <c r="C29" s="142"/>
-      <c r="D29" s="142"/>
-      <c r="E29" s="142"/>
+      <c r="B29" s="130"/>
+      <c r="C29" s="130"/>
+      <c r="D29" s="130"/>
+      <c r="E29" s="130"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="141" t="s">
+      <c r="A30" s="131" t="s">
         <v>115</v>
       </c>
-      <c r="B30" s="141"/>
-      <c r="C30" s="141"/>
-      <c r="D30" s="141"/>
-      <c r="E30" s="141"/>
+      <c r="B30" s="131"/>
+      <c r="C30" s="131"/>
+      <c r="D30" s="131"/>
+      <c r="E30" s="131"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
@@ -4376,7 +4400,7 @@
       <c r="A36" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B36" s="118"/>
+      <c r="B36" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4432,10 +4456,10 @@
       <c r="C2" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="60" t="s">
+      <c r="D2" s="133" t="s">
         <v>146</v>
       </c>
-      <c r="E2" s="120"/>
+      <c r="E2" s="110"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
@@ -4447,8 +4471,8 @@
       <c r="C3" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="61"/>
-      <c r="E3" s="120"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="110"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
@@ -4460,8 +4484,8 @@
       <c r="C4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="120"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="110"/>
     </row>
     <row r="5" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
@@ -4472,7 +4496,7 @@
       </c>
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
-      <c r="E5" s="120"/>
+      <c r="E5" s="110"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
@@ -4483,7 +4507,7 @@
       </c>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
-      <c r="E6" s="120"/>
+      <c r="E6" s="110"/>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
@@ -4496,7 +4520,7 @@
       <c r="D7" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="E7" s="120"/>
+      <c r="E7" s="110"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
@@ -4507,7 +4531,7 @@
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
-      <c r="E8" s="120"/>
+      <c r="E8" s="110"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
@@ -4554,860 +4578,890 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF68FD9D-31AB-4F63-B9B6-43B34ED18B03}">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="49.7109375" style="9" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" style="9" customWidth="1"/>
-    <col min="4" max="6" width="22.28515625" style="94" customWidth="1"/>
-    <col min="7" max="7" width="23.140625" style="117" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" style="118" customWidth="1"/>
+    <col min="4" max="6" width="22.28515625" style="86" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" style="107" customWidth="1"/>
+    <col min="8" max="8" width="23.140625" style="108" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="82"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="83" t="s">
+      <c r="B1" s="78"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="136" t="s">
         <v>196</v>
       </c>
-      <c r="E1" s="84"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="86" t="s">
+      <c r="E1" s="137"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="139" t="s">
         <v>199</v>
       </c>
-      <c r="H1" s="86"/>
+      <c r="H1" s="139"/>
     </row>
     <row r="2" spans="1:8" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="87"/>
-      <c r="C2" s="96" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="88" t="s">
         <v>211</v>
       </c>
-      <c r="D2" s="88" t="s">
+      <c r="D2" s="80" t="s">
         <v>188</v>
       </c>
-      <c r="E2" s="89" t="s">
+      <c r="E2" s="81" t="s">
         <v>189</v>
       </c>
-      <c r="F2" s="90" t="s">
+      <c r="F2" s="82" t="s">
         <v>190</v>
       </c>
-      <c r="G2" s="105" t="s">
+      <c r="G2" s="97" t="s">
         <v>198</v>
       </c>
-      <c r="H2" s="106" t="s">
+      <c r="H2" s="98" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="121"/>
-      <c r="B3" s="97" t="s">
+      <c r="A3" s="111"/>
+      <c r="B3" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="98"/>
-      <c r="D3" s="70" t="s">
+      <c r="C3" s="90"/>
+      <c r="D3" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="71" t="s">
+      <c r="E3" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="72" t="s">
+      <c r="F3" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="78" t="s">
+      <c r="G3" s="74" t="s">
+        <v>237</v>
+      </c>
+      <c r="H3" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="79" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="121"/>
-      <c r="B4" s="99" t="s">
+      <c r="A4" s="111"/>
+      <c r="B4" s="91" t="s">
         <v>219</v>
       </c>
-      <c r="C4" s="100"/>
-      <c r="D4" s="67" t="s">
+      <c r="C4" s="92"/>
+      <c r="D4" s="63" t="s">
         <v>197</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="F4" s="68" t="s">
+      <c r="F4" s="64" t="s">
         <v>197</v>
       </c>
-      <c r="G4" s="107" t="s">
+      <c r="G4" s="99" t="s">
         <v>201</v>
       </c>
-      <c r="H4" s="74" t="s">
+      <c r="H4" s="70" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="121"/>
-      <c r="B5" s="99" t="s">
+      <c r="A5" s="111"/>
+      <c r="B5" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="100"/>
-      <c r="D5" s="104" t="s">
+      <c r="C5" s="92"/>
+      <c r="D5" s="96" t="s">
         <v>218</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="F5" s="77" t="s">
+      <c r="F5" s="73" t="s">
         <v>218</v>
       </c>
-      <c r="G5" s="70" t="s">
+      <c r="G5" s="66" t="s">
         <v>204</v>
       </c>
-      <c r="H5" s="80" t="s">
+      <c r="H5" s="76" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="143"/>
-      <c r="B6" s="99" t="s">
+    <row r="6" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="125"/>
+      <c r="B6" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="100"/>
-      <c r="D6" s="67" t="s">
+      <c r="C6" s="92"/>
+      <c r="D6" s="63" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="68" t="s">
+      <c r="F6" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="110"/>
-      <c r="H6" s="111"/>
-    </row>
-    <row r="7" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="143"/>
-      <c r="B7" s="99" t="s">
+      <c r="G6" s="140" t="s">
+        <v>239</v>
+      </c>
+      <c r="H6" s="140" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="125"/>
+      <c r="B7" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="100"/>
-      <c r="D7" s="67" t="s">
+      <c r="C7" s="92"/>
+      <c r="D7" s="63" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="68" t="s">
+      <c r="F7" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="122" t="s">
+      <c r="G7" s="140" t="s">
+        <v>241</v>
+      </c>
+      <c r="H7" s="140" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="125"/>
+      <c r="B8" s="91" t="s">
+        <v>240</v>
+      </c>
+      <c r="C8" s="92"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="141" t="s">
         <v>207</v>
       </c>
-      <c r="H7" s="123" t="s">
+      <c r="H8" s="142" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="143"/>
-      <c r="B8" s="99" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="125"/>
+      <c r="B9" s="91" t="s">
         <v>206</v>
       </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="67" t="s">
+      <c r="C9" s="92"/>
+      <c r="D9" s="63" t="s">
         <v>197</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="F8" s="68" t="s">
+      <c r="F9" s="64" t="s">
         <v>197</v>
       </c>
-      <c r="G8" s="109">
+      <c r="G9" s="101">
         <v>8.6</v>
       </c>
-      <c r="H8" s="108">
+      <c r="H9" s="100">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="143"/>
-      <c r="B9" s="99" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="125"/>
+      <c r="B10" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="100"/>
-      <c r="D9" s="67" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="68" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="110"/>
-      <c r="H9" s="111"/>
-    </row>
-    <row r="10" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="143"/>
-      <c r="B10" s="99" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="100"/>
-      <c r="D10" s="67" t="s">
+      <c r="C10" s="92"/>
+      <c r="D10" s="63" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="68" t="s">
+      <c r="F10" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="110"/>
-      <c r="H10" s="111"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="143"/>
-      <c r="B11" s="99" t="s">
+      <c r="G10" s="140" t="s">
+        <v>238</v>
+      </c>
+      <c r="H10" s="140" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="125"/>
+      <c r="B11" s="91" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="92"/>
+      <c r="D11" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="102"/>
+      <c r="H11" s="103"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="125"/>
+      <c r="B12" s="91" t="s">
         <v>208</v>
       </c>
-      <c r="C11" s="100"/>
-      <c r="D11" s="67" t="s">
+      <c r="C12" s="92"/>
+      <c r="D12" s="63" t="s">
         <v>197</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="F11" s="68" t="s">
+      <c r="F12" s="64" t="s">
         <v>197</v>
       </c>
-      <c r="G11" s="109" t="s">
+      <c r="G12" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="108" t="s">
+      <c r="H12" s="100" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="143"/>
-      <c r="B12" s="99" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="125"/>
+      <c r="B13" s="91" t="s">
         <v>147</v>
       </c>
-      <c r="C12" s="100"/>
-      <c r="D12" s="69" t="s">
+      <c r="C13" s="92"/>
+      <c r="D13" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="E12" s="64" t="s">
+      <c r="E13" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="F12" s="65" t="s">
+      <c r="F13" s="61" t="s">
         <v>149</v>
       </c>
-      <c r="G12" s="112" t="s">
+      <c r="G13" s="102" t="s">
         <v>220</v>
       </c>
-      <c r="H12" s="108" t="s">
+      <c r="H13" s="100" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="143"/>
-      <c r="B13" s="99" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="125"/>
+      <c r="B14" s="91" t="s">
         <v>150</v>
       </c>
-      <c r="C13" s="100"/>
-      <c r="D13" s="69" t="s">
+      <c r="C14" s="92"/>
+      <c r="D14" s="65" t="s">
         <v>185</v>
       </c>
-      <c r="E13" s="64" t="s">
+      <c r="E14" s="60" t="s">
         <v>185</v>
       </c>
-      <c r="F13" s="65" t="s">
+      <c r="F14" s="61" t="s">
         <v>184</v>
       </c>
-      <c r="G13" s="107">
+      <c r="G14" s="99">
         <v>70</v>
       </c>
-      <c r="H13" s="108">
+      <c r="H14" s="100">
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="143"/>
-      <c r="B14" s="99" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="125"/>
+      <c r="B15" s="91" t="s">
         <v>151</v>
       </c>
-      <c r="C14" s="100"/>
-      <c r="D14" s="69" t="s">
+      <c r="C15" s="92"/>
+      <c r="D15" s="65" t="s">
         <v>186</v>
       </c>
-      <c r="E14" s="64" t="s">
+      <c r="E15" s="60" t="s">
         <v>186</v>
       </c>
-      <c r="F14" s="65" t="s">
+      <c r="F15" s="61" t="s">
         <v>187</v>
       </c>
-      <c r="G14" s="107">
+      <c r="G15" s="99">
         <v>-40</v>
       </c>
-      <c r="H14" s="108">
+      <c r="H15" s="100">
         <v>-55</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="143"/>
-      <c r="B15" s="99" t="s">
+    <row r="16" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="125"/>
+      <c r="B16" s="91" t="s">
         <v>152</v>
       </c>
-      <c r="C15" s="100"/>
-      <c r="D15" s="69">
+      <c r="C16" s="92"/>
+      <c r="D16" s="65">
         <v>4600</v>
       </c>
-      <c r="E15" s="64">
+      <c r="E16" s="60">
         <v>4600</v>
       </c>
-      <c r="F15" s="68" t="s">
+      <c r="F16" s="64" t="s">
         <v>197</v>
       </c>
-      <c r="G15" s="110"/>
-      <c r="H15" s="68" t="s">
+      <c r="G16" s="143" t="s">
+        <v>242</v>
+      </c>
+      <c r="H16" s="64" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="143"/>
-      <c r="B16" s="99" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="125"/>
+      <c r="B17" s="91" t="s">
         <v>153</v>
       </c>
-      <c r="C16" s="100"/>
-      <c r="D16" s="69" t="s">
+      <c r="C17" s="92"/>
+      <c r="D17" s="65" t="s">
         <v>232</v>
       </c>
-      <c r="E16" s="64">
+      <c r="E17" s="60">
         <v>12200</v>
       </c>
-      <c r="F16" s="68" t="s">
+      <c r="F17" s="64" t="s">
         <v>197</v>
       </c>
-      <c r="G16" s="110"/>
-      <c r="H16" s="68" t="s">
+      <c r="G17" s="143" t="s">
+        <v>242</v>
+      </c>
+      <c r="H17" s="64" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="143"/>
-      <c r="B17" s="99" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="125"/>
+      <c r="B18" s="91" t="s">
         <v>154</v>
       </c>
-      <c r="C17" s="100"/>
-      <c r="D17" s="69">
+      <c r="C18" s="92"/>
+      <c r="D18" s="65">
         <v>170</v>
       </c>
-      <c r="E17" s="64">
+      <c r="E18" s="60">
         <v>170</v>
       </c>
-      <c r="F17" s="68" t="s">
+      <c r="F18" s="64" t="s">
         <v>197</v>
       </c>
-      <c r="G17" s="110"/>
-      <c r="H17" s="68" t="s">
+      <c r="G18" s="143" t="s">
+        <v>242</v>
+      </c>
+      <c r="H18" s="64" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="143"/>
-      <c r="B18" s="99" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="125"/>
+      <c r="B19" s="91" t="s">
         <v>155</v>
       </c>
-      <c r="C18" s="100"/>
-      <c r="D18" s="69" t="s">
+      <c r="C19" s="92"/>
+      <c r="D19" s="65" t="s">
         <v>156</v>
       </c>
-      <c r="E18" s="64" t="s">
+      <c r="E19" s="60" t="s">
         <v>156</v>
       </c>
-      <c r="F18" s="65" t="s">
+      <c r="F19" s="61" t="s">
         <v>157</v>
       </c>
-      <c r="G18" s="107" t="s">
+      <c r="G19" s="99" t="s">
         <v>160</v>
       </c>
-      <c r="H18" s="126" t="s">
+      <c r="H19" s="114" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="121"/>
-      <c r="B19" s="99" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="111"/>
+      <c r="B20" s="91" t="s">
         <v>158</v>
       </c>
-      <c r="C19" s="100"/>
-      <c r="D19" s="69" t="s">
+      <c r="C20" s="92"/>
+      <c r="D20" s="65" t="s">
         <v>159</v>
       </c>
-      <c r="E19" s="64" t="s">
+      <c r="E20" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="F19" s="65" t="s">
+      <c r="F20" s="61" t="s">
         <v>160</v>
       </c>
-      <c r="G19" s="112" t="s">
+      <c r="G20" s="102" t="s">
         <v>157</v>
       </c>
-      <c r="H19" s="113" t="s">
+      <c r="H20" s="103" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="121"/>
-      <c r="B20" s="99" t="s">
+    <row r="21" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="111"/>
+      <c r="B21" s="91" t="s">
         <v>161</v>
       </c>
-      <c r="C20" s="100"/>
-      <c r="D20" s="69" t="s">
+      <c r="C21" s="92"/>
+      <c r="D21" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="64" t="s">
+      <c r="E21" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="F20" s="65" t="s">
+      <c r="F21" s="61" t="s">
         <v>162</v>
       </c>
-      <c r="G20" s="107" t="s">
+      <c r="G21" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="H20" s="114" t="s">
+      <c r="H21" s="104" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="121"/>
-      <c r="B21" s="99" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="111"/>
+      <c r="B22" s="91" t="s">
         <v>163</v>
       </c>
-      <c r="C21" s="100"/>
-      <c r="D21" s="69" t="s">
+      <c r="C22" s="92"/>
+      <c r="D22" s="65" t="s">
         <v>164</v>
       </c>
-      <c r="E21" s="64" t="s">
+      <c r="E22" s="60" t="s">
         <v>191</v>
       </c>
-      <c r="F21" s="66" t="s">
+      <c r="F22" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="G21" s="132" t="s">
+      <c r="G22" s="120" t="s">
         <v>200</v>
       </c>
-      <c r="H21" s="131" t="s">
+      <c r="H22" s="119" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="121"/>
-      <c r="B22" s="99" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="111"/>
+      <c r="B23" s="91" t="s">
         <v>165</v>
       </c>
-      <c r="C22" s="100"/>
-      <c r="D22" s="73" t="s">
-        <v>197</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="F22" s="119" t="s">
-        <v>166</v>
-      </c>
-      <c r="G22" s="107" t="s">
-        <v>166</v>
-      </c>
-      <c r="H22" s="108" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="121"/>
-      <c r="B23" s="99" t="s">
-        <v>167</v>
-      </c>
-      <c r="C23" s="100"/>
-      <c r="D23" s="73" t="s">
+      <c r="C23" s="92"/>
+      <c r="D23" s="69" t="s">
         <v>197</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="F23" s="119" t="s">
-        <v>168</v>
-      </c>
-      <c r="G23" s="107" t="s">
-        <v>222</v>
-      </c>
-      <c r="H23" s="108" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="121"/>
-      <c r="B24" s="99" t="s">
-        <v>212</v>
-      </c>
-      <c r="C24" s="100" t="s">
-        <v>213</v>
-      </c>
-      <c r="D24" s="73" t="s">
+      <c r="F23" s="109" t="s">
+        <v>166</v>
+      </c>
+      <c r="G23" s="99" t="s">
+        <v>166</v>
+      </c>
+      <c r="H23" s="100" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="111"/>
+      <c r="B24" s="91" t="s">
+        <v>167</v>
+      </c>
+      <c r="C24" s="92"/>
+      <c r="D24" s="69" t="s">
         <v>197</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="F24" s="119" t="s">
+      <c r="F24" s="109" t="s">
+        <v>168</v>
+      </c>
+      <c r="G24" s="99" t="s">
+        <v>222</v>
+      </c>
+      <c r="H24" s="100" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="111"/>
+      <c r="B25" s="91" t="s">
+        <v>212</v>
+      </c>
+      <c r="C25" s="92" t="s">
+        <v>213</v>
+      </c>
+      <c r="D25" s="69" t="s">
+        <v>197</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F25" s="109" t="s">
         <v>195</v>
       </c>
-      <c r="G24" s="73" t="s">
+      <c r="G25" s="69" t="s">
         <v>197</v>
       </c>
-      <c r="H24" s="100" t="s">
+      <c r="H25" s="92" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="121"/>
-      <c r="B25" s="99" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="111"/>
+      <c r="B26" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="C25" s="100"/>
-      <c r="D25" s="69" t="s">
+      <c r="C26" s="92"/>
+      <c r="D26" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="E25" s="64" t="s">
+      <c r="E26" s="60" t="s">
         <v>166</v>
       </c>
-      <c r="F25" s="65" t="s">
+      <c r="F26" s="61" t="s">
         <v>168</v>
       </c>
-      <c r="G25" s="127" t="s">
+      <c r="G26" s="115" t="s">
         <v>223</v>
       </c>
-      <c r="H25" s="108" t="s">
+      <c r="H26" s="100" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="121"/>
-      <c r="B26" s="99" t="s">
+    <row r="27" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="111"/>
+      <c r="B27" s="91" t="s">
         <v>170</v>
       </c>
-      <c r="C26" s="100" t="s">
+      <c r="C27" s="92" t="s">
         <v>213</v>
       </c>
-      <c r="D26" s="69" t="s">
+      <c r="D27" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="E26" s="64" t="s">
+      <c r="E27" s="60" t="s">
         <v>166</v>
       </c>
-      <c r="F26" s="65" t="s">
+      <c r="F27" s="61" t="s">
         <v>195</v>
       </c>
-      <c r="G26" s="112" t="s">
+      <c r="G27" s="102" t="s">
         <v>195</v>
       </c>
-      <c r="H26" s="108" t="s">
+      <c r="H27" s="100" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="121"/>
-      <c r="B27" s="99" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="111"/>
+      <c r="B28" s="91" t="s">
         <v>171</v>
       </c>
-      <c r="C27" s="100"/>
-      <c r="D27" s="69" t="s">
+      <c r="C28" s="92"/>
+      <c r="D28" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="E27" s="64" t="s">
+      <c r="E28" s="60" t="s">
         <v>166</v>
       </c>
-      <c r="F27" s="65" t="s">
+      <c r="F28" s="61" t="s">
         <v>168</v>
       </c>
-      <c r="G27" s="107" t="s">
+      <c r="G28" s="99" t="s">
         <v>166</v>
       </c>
-      <c r="H27" s="131" t="s">
+      <c r="H28" s="119" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="121"/>
-      <c r="B28" s="99" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="111"/>
+      <c r="B29" s="91" t="s">
         <v>172</v>
       </c>
-      <c r="C28" s="100"/>
-      <c r="D28" s="69" t="s">
+      <c r="C29" s="92"/>
+      <c r="D29" s="65" t="s">
         <v>160</v>
       </c>
-      <c r="E28" s="64" t="s">
+      <c r="E29" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="F28" s="65" t="s">
+      <c r="F29" s="61" t="s">
         <v>160</v>
       </c>
-      <c r="G28" s="112" t="s">
+      <c r="G29" s="102" t="s">
         <v>157</v>
       </c>
-      <c r="H28" s="113" t="s">
+      <c r="H29" s="103" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="121"/>
-      <c r="B29" s="99" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="111"/>
+      <c r="B30" s="91" t="s">
         <v>173</v>
       </c>
-      <c r="C29" s="100"/>
-      <c r="D29" s="69" t="s">
+      <c r="C30" s="92"/>
+      <c r="D30" s="65" t="s">
         <v>174</v>
       </c>
-      <c r="E29" s="64" t="s">
+      <c r="E30" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="F29" s="65" t="s">
+      <c r="F30" s="61" t="s">
         <v>174</v>
       </c>
-      <c r="G29" s="112" t="s">
+      <c r="G30" s="102" t="s">
         <v>157</v>
       </c>
-      <c r="H29" s="113" t="s">
+      <c r="H30" s="103" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="121"/>
-      <c r="B30" s="99" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="111"/>
+      <c r="B31" s="91" t="s">
         <v>175</v>
       </c>
-      <c r="C30" s="100"/>
-      <c r="D30" s="69" t="s">
+      <c r="C31" s="92"/>
+      <c r="D31" s="65" t="s">
         <v>157</v>
       </c>
-      <c r="E30" s="64" t="s">
+      <c r="E31" s="60" t="s">
         <v>157</v>
       </c>
-      <c r="F30" s="65" t="s">
+      <c r="F31" s="61" t="s">
         <v>157</v>
       </c>
-      <c r="G30" s="112" t="s">
+      <c r="G31" s="102" t="s">
         <v>162</v>
       </c>
-      <c r="H30" s="113" t="s">
+      <c r="H31" s="103" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="121"/>
-      <c r="B31" s="99" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="111"/>
+      <c r="B32" s="91" t="s">
         <v>176</v>
       </c>
-      <c r="C31" s="100"/>
-      <c r="D31" s="69" t="s">
+      <c r="C32" s="92"/>
+      <c r="D32" s="65" t="s">
         <v>177</v>
       </c>
-      <c r="E31" s="64" t="s">
+      <c r="E32" s="60" t="s">
         <v>177</v>
       </c>
-      <c r="F31" s="65" t="s">
+      <c r="F32" s="61" t="s">
         <v>177</v>
       </c>
-      <c r="G31" s="107" t="s">
+      <c r="G32" s="99" t="s">
         <v>177</v>
       </c>
-      <c r="H31" s="108" t="s">
+      <c r="H32" s="100" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="121"/>
-      <c r="B32" s="99" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="111"/>
+      <c r="B33" s="91" t="s">
         <v>214</v>
       </c>
-      <c r="C32" s="100" t="s">
+      <c r="C33" s="92" t="s">
         <v>217</v>
       </c>
-      <c r="D32" s="69" t="s">
+      <c r="D33" s="65" t="s">
         <v>192</v>
       </c>
-      <c r="E32" s="64" t="s">
+      <c r="E33" s="60" t="s">
         <v>192</v>
       </c>
-      <c r="F32" s="65" t="s">
+      <c r="F33" s="61" t="s">
         <v>192</v>
       </c>
-      <c r="G32" s="124" t="s">
+      <c r="G33" s="112" t="s">
         <v>225</v>
       </c>
-      <c r="H32" s="125" t="s">
+      <c r="H33" s="113" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="121"/>
-      <c r="B33" s="99" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="111"/>
+      <c r="B34" s="91" t="s">
         <v>178</v>
       </c>
-      <c r="C33" s="100"/>
-      <c r="D33" s="69" t="s">
+      <c r="C34" s="92"/>
+      <c r="D34" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="E33" s="64" t="s">
+      <c r="E34" s="60" t="s">
         <v>179</v>
       </c>
-      <c r="F33" s="65" t="s">
+      <c r="F34" s="61" t="s">
         <v>179</v>
       </c>
-      <c r="G33" s="107" t="s">
+      <c r="G34" s="99" t="s">
         <v>226</v>
       </c>
-      <c r="H33" s="108" t="s">
+      <c r="H34" s="100" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="121"/>
-      <c r="B34" s="99" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="111"/>
+      <c r="B35" s="91" t="s">
         <v>215</v>
       </c>
-      <c r="C34" s="100" t="s">
+      <c r="C35" s="92" t="s">
         <v>217</v>
       </c>
-      <c r="D34" s="69" t="s">
+      <c r="D35" s="65" t="s">
         <v>193</v>
       </c>
-      <c r="E34" s="64" t="s">
+      <c r="E35" s="60" t="s">
         <v>193</v>
       </c>
-      <c r="F34" s="65" t="s">
+      <c r="F35" s="61" t="s">
         <v>194</v>
       </c>
-      <c r="G34" s="112" t="s">
+      <c r="G35" s="102" t="s">
         <v>228</v>
       </c>
-      <c r="H34" s="126" t="s">
+      <c r="H35" s="114" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="121"/>
-      <c r="B35" s="99" t="s">
+    <row r="36" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A36" s="111"/>
+      <c r="B36" s="91" t="s">
         <v>180</v>
       </c>
-      <c r="C35" s="100"/>
-      <c r="D35" s="73" t="s">
+      <c r="C36" s="92"/>
+      <c r="D36" s="69" t="s">
         <v>197</v>
       </c>
-      <c r="E35" s="73" t="s">
+      <c r="E36" s="69" t="s">
         <v>197</v>
       </c>
-      <c r="F35" s="73" t="s">
+      <c r="F36" s="69" t="s">
         <v>197</v>
       </c>
-      <c r="G35" s="112" t="s">
+      <c r="G36" s="102" t="s">
         <v>230</v>
       </c>
-      <c r="H35" s="128" t="s">
+      <c r="H36" s="116" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="121"/>
-      <c r="B36" s="99" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="111"/>
+      <c r="B37" s="91" t="s">
         <v>181</v>
       </c>
-      <c r="C36" s="100"/>
-      <c r="D36" s="73" t="s">
+      <c r="C37" s="92"/>
+      <c r="D37" s="69" t="s">
         <v>197</v>
       </c>
-      <c r="E36" s="73" t="s">
+      <c r="E37" s="69" t="s">
         <v>197</v>
       </c>
-      <c r="F36" s="73" t="s">
+      <c r="F37" s="69" t="s">
         <v>197</v>
       </c>
-      <c r="G36" s="73" t="s">
+      <c r="G37" s="69" t="s">
         <v>197</v>
       </c>
-      <c r="H36" s="113" t="s">
+      <c r="H37" s="103" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="121"/>
-      <c r="B37" s="99" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="111"/>
+      <c r="B38" s="91" t="s">
         <v>182</v>
       </c>
-      <c r="C37" s="100"/>
-      <c r="D37" s="69" t="s">
+      <c r="C38" s="92"/>
+      <c r="D38" s="65" t="s">
         <v>183</v>
       </c>
-      <c r="E37" s="64" t="s">
+      <c r="E38" s="60" t="s">
         <v>183</v>
       </c>
-      <c r="F37" s="65" t="s">
+      <c r="F38" s="61" t="s">
         <v>166</v>
       </c>
-      <c r="G37" s="107" t="s">
+      <c r="G38" s="99" t="s">
         <v>166</v>
       </c>
-      <c r="H37" s="113" t="s">
+      <c r="H38" s="103" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="121"/>
-      <c r="B38" s="101" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="111"/>
+      <c r="B39" s="93" t="s">
         <v>216</v>
       </c>
-      <c r="C38" s="100" t="s">
+      <c r="C39" s="92" t="s">
         <v>217</v>
       </c>
-      <c r="D38" s="75" t="s">
+      <c r="D39" s="71" t="s">
         <v>157</v>
       </c>
-      <c r="E38" s="76" t="s">
+      <c r="E39" s="72" t="s">
         <v>157</v>
       </c>
-      <c r="F38" s="81" t="s">
+      <c r="F39" s="77" t="s">
         <v>157</v>
       </c>
-      <c r="G38" s="115" t="s">
+      <c r="G39" s="105" t="s">
         <v>157</v>
       </c>
-      <c r="H38" s="116" t="s">
+      <c r="H39" s="106" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="121"/>
-      <c r="B39" s="102" t="s">
+    <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="111"/>
+      <c r="B40" s="94" t="s">
         <v>210</v>
       </c>
-      <c r="C39" s="103" t="s">
+      <c r="C40" s="95" t="s">
         <v>217</v>
       </c>
-      <c r="D39" s="91" t="s">
+      <c r="D40" s="83" t="s">
         <v>156</v>
       </c>
-      <c r="E39" s="92" t="s">
+      <c r="E40" s="84" t="s">
         <v>156</v>
       </c>
-      <c r="F39" s="93" t="s">
+      <c r="F40" s="85" t="s">
         <v>156</v>
       </c>
-      <c r="G39" s="129" t="s">
+      <c r="G40" s="117" t="s">
         <v>166</v>
       </c>
-      <c r="H39" s="130" t="s">
+      <c r="H40" s="118" t="s">
         <v>166</v>
       </c>
     </row>

--- a/ssj/new ssj.xlsx
+++ b/ssj/new ssj.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkProject\PACVIC\ssj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5C5CF6-A9DE-4A1F-B513-DE8220AA1478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0307285C-2C95-4EC1-8FF3-EED6D464B4FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{2D8AD6FB-06A8-429F-AD3B-DAC79497FD29}"/>
+    <workbookView xWindow="-28920" yWindow="-75" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{2D8AD6FB-06A8-429F-AD3B-DAC79497FD29}"/>
   </bookViews>
   <sheets>
     <sheet name="СП" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="запрос КП" sheetId="3" r:id="rId3"/>
     <sheet name="ТХ камер" sheetId="5" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'ТХ камер'!$G$1:$H$41</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="270">
   <si>
     <t>Видеокамеры</t>
   </si>
@@ -1010,9 +1013,6 @@
     <t>Внутреняя</t>
   </si>
   <si>
-    <t>БАЙТ ЭРГ</t>
-  </si>
-  <si>
     <t>R (C, C1)</t>
   </si>
   <si>
@@ -1046,15 +1046,9 @@
     <t>Устойчивость к возгоранию</t>
   </si>
   <si>
-    <t>Прим</t>
-  </si>
-  <si>
     <t xml:space="preserve">Загрязняющие жидкости </t>
   </si>
   <si>
-    <t>инженерный анализ</t>
-  </si>
-  <si>
     <t xml:space="preserve">Помехи индукции </t>
   </si>
   <si>
@@ -1062,9 +1056,6 @@
   </si>
   <si>
     <t xml:space="preserve">Электростатический разряд </t>
-  </si>
-  <si>
-    <t>если применимо</t>
   </si>
   <si>
     <t>Ethernet 100/1000BASE-T</t>
@@ -1111,9 +1102,6 @@
 B3K3L3</t>
   </si>
   <si>
-    <t>12200</t>
-  </si>
-  <si>
     <t>Элементы для крепления видеокамер, комплект</t>
   </si>
   <si>
@@ -1138,10 +1126,106 @@
     <t>Разъемы подключения</t>
   </si>
   <si>
-    <t>Немного отличная два экрана</t>
-  </si>
-  <si>
     <t>могут (нужны испытания)</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>4.6.1</t>
+  </si>
+  <si>
+    <t>4.6.2</t>
+  </si>
+  <si>
+    <t>11.0</t>
+  </si>
+  <si>
+    <t>12.0</t>
+  </si>
+  <si>
+    <t>14.0</t>
+  </si>
+  <si>
+    <t>15.0</t>
+  </si>
+  <si>
+    <t>16.0</t>
+  </si>
+  <si>
+    <t>17.0</t>
+  </si>
+  <si>
+    <t>18.0</t>
+  </si>
+  <si>
+    <t>13.0</t>
+  </si>
+  <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>22.0</t>
+  </si>
+  <si>
+    <t>23.0</t>
+  </si>
+  <si>
+    <t>24.0</t>
+  </si>
+  <si>
+    <t>25.0</t>
+  </si>
+  <si>
+    <t>№ по КТ</t>
+  </si>
+  <si>
+    <t>19.0 если применимо</t>
+  </si>
+  <si>
+    <t>21.0 если применимо</t>
+  </si>
+  <si>
+    <t>26.0 если применимо</t>
+  </si>
+  <si>
+    <t>Немного отличная?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Поддержка стандарта сжатия видео </t>
+  </si>
+  <si>
+    <t>Н.265</t>
+  </si>
+  <si>
+    <t>Предложение БАЙТ ЭРГ</t>
+  </si>
+  <si>
+    <t>Характеристика</t>
+  </si>
+  <si>
+    <t>ПО сервера?</t>
   </si>
 </sst>
 </file>
@@ -1285,7 +1369,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1295,18 +1379,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1323,7 +1395,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -1415,10 +1487,25 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -1433,7 +1520,7 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -1451,7 +1538,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1460,13 +1547,28 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1475,9 +1577,20 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1490,106 +1603,11 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1657,10 +1675,10 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1671,21 +1689,89 @@
         <color indexed="64"/>
       </left>
       <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1694,6 +1780,99 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -1702,27 +1881,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1730,7 +1898,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1866,242 +2034,258 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3903,13 +4087,13 @@
       <c r="A82" s="25"/>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="126"/>
+      <c r="A83" s="119"/>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="126"/>
+      <c r="A84" s="119"/>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="126"/>
+      <c r="A85" s="119"/>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="26"/>
@@ -3954,30 +4138,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="93" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="121" t="s">
-        <v>234</v>
-      </c>
-      <c r="C1" s="121" t="s">
+      <c r="B1" s="93" t="s">
+        <v>229</v>
+      </c>
+      <c r="C1" s="93" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="121" t="s">
+      <c r="D1" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="121" t="s">
+      <c r="E1" s="93" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="122" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -4047,7 +4231,7 @@
     </row>
     <row r="7" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3">
@@ -4078,13 +4262,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="129" t="s">
+      <c r="A9" s="122" t="s">
         <v>98</v>
       </c>
-      <c r="B9" s="129"/>
-      <c r="C9" s="129"/>
-      <c r="D9" s="129"/>
-      <c r="E9" s="129"/>
+      <c r="B9" s="122"/>
+      <c r="C9" s="122"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="122"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -4152,7 +4336,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B14" s="3">
         <v>1</v>
@@ -4224,10 +4408,10 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="127" t="s">
+      <c r="A19" s="120" t="s">
         <v>104</v>
       </c>
-      <c r="B19" s="123"/>
+      <c r="B19" s="95"/>
       <c r="C19" s="3">
         <v>2</v>
       </c>
@@ -4239,7 +4423,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="128"/>
+      <c r="A20" s="121"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3">
         <v>2</v>
@@ -4282,22 +4466,22 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="132" t="s">
+      <c r="A23" s="125" t="s">
         <v>108</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="124">
+      <c r="C23" s="96">
         <v>1</v>
       </c>
-      <c r="D23" s="124">
+      <c r="D23" s="96">
         <v>1</v>
       </c>
-      <c r="E23" s="122" t="s">
+      <c r="E23" s="94" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="132"/>
+      <c r="A24" s="125"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3">
         <v>1</v>
@@ -4305,7 +4489,7 @@
       <c r="D24" s="3">
         <v>1</v>
       </c>
-      <c r="E24" s="122" t="s">
+      <c r="E24" s="94" t="s">
         <v>110</v>
       </c>
     </row>
@@ -4340,31 +4524,31 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="131" t="s">
+      <c r="A28" s="124" t="s">
         <v>113</v>
       </c>
-      <c r="B28" s="131"/>
-      <c r="C28" s="131"/>
-      <c r="D28" s="131"/>
-      <c r="E28" s="131"/>
+      <c r="B28" s="124"/>
+      <c r="C28" s="124"/>
+      <c r="D28" s="124"/>
+      <c r="E28" s="124"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="130" t="s">
+      <c r="A29" s="123" t="s">
         <v>114</v>
       </c>
-      <c r="B29" s="130"/>
-      <c r="C29" s="130"/>
-      <c r="D29" s="130"/>
-      <c r="E29" s="130"/>
+      <c r="B29" s="123"/>
+      <c r="C29" s="123"/>
+      <c r="D29" s="123"/>
+      <c r="E29" s="123"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="131" t="s">
+      <c r="A30" s="124" t="s">
         <v>115</v>
       </c>
-      <c r="B30" s="131"/>
-      <c r="C30" s="131"/>
-      <c r="D30" s="131"/>
-      <c r="E30" s="131"/>
+      <c r="B30" s="124"/>
+      <c r="C30" s="124"/>
+      <c r="D30" s="124"/>
+      <c r="E30" s="124"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
@@ -4400,7 +4584,7 @@
       <c r="A36" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B36" s="108"/>
+      <c r="B36" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4456,10 +4640,10 @@
       <c r="C2" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="133" t="s">
+      <c r="D2" s="126" t="s">
         <v>146</v>
       </c>
-      <c r="E2" s="110"/>
+      <c r="E2" s="88"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
@@ -4471,8 +4655,8 @@
       <c r="C3" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="134"/>
-      <c r="E3" s="110"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="88"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
@@ -4484,19 +4668,19 @@
       <c r="C4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="135"/>
-      <c r="E4" s="110"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="88"/>
     </row>
     <row r="5" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B5" s="28">
         <v>1</v>
       </c>
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
-      <c r="E5" s="110"/>
+      <c r="E5" s="88"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
@@ -4507,7 +4691,7 @@
       </c>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
-      <c r="E6" s="110"/>
+      <c r="E6" s="88"/>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
@@ -4520,7 +4704,7 @@
       <c r="D7" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="E7" s="110"/>
+      <c r="E7" s="88"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
@@ -4531,7 +4715,7 @@
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
-      <c r="E8" s="110"/>
+      <c r="E8" s="88"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
@@ -4578,84 +4762,87 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF68FD9D-31AB-4F63-B9B6-43B34ED18B03}">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="49.7109375" style="9" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="9" customWidth="1"/>
-    <col min="4" max="6" width="22.28515625" style="86" customWidth="1"/>
-    <col min="7" max="7" width="23.140625" style="107" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" style="108" customWidth="1"/>
+    <col min="2" max="2" width="47.7109375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="9" customWidth="1"/>
+    <col min="4" max="6" width="22.28515625" style="72" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" style="86" customWidth="1"/>
+    <col min="8" max="8" width="23.140625" style="87" customWidth="1"/>
+    <col min="11" max="12" width="9.140625" style="102"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="78"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="136" t="s">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="70"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="116" t="s">
         <v>196</v>
       </c>
-      <c r="E1" s="137"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="139" t="s">
-        <v>199</v>
-      </c>
-      <c r="H1" s="139"/>
-    </row>
-    <row r="2" spans="1:8" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="79"/>
-      <c r="C2" s="88" t="s">
-        <v>211</v>
-      </c>
-      <c r="D2" s="80" t="s">
+      <c r="E1" s="118"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="116" t="s">
+        <v>267</v>
+      </c>
+      <c r="H1" s="117"/>
+    </row>
+    <row r="2" spans="1:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="112" t="s">
+        <v>268</v>
+      </c>
+      <c r="C2" s="112" t="s">
+        <v>260</v>
+      </c>
+      <c r="D2" s="113" t="s">
         <v>188</v>
       </c>
-      <c r="E2" s="81" t="s">
+      <c r="E2" s="114" t="s">
         <v>189</v>
       </c>
-      <c r="F2" s="82" t="s">
+      <c r="F2" s="115" t="s">
         <v>190</v>
       </c>
-      <c r="G2" s="97" t="s">
+      <c r="G2" s="77" t="s">
         <v>198</v>
       </c>
-      <c r="H2" s="98" t="s">
+      <c r="H2" s="78" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="111"/>
-      <c r="B3" s="89" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="89"/>
+      <c r="B3" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="90"/>
-      <c r="D3" s="66" t="s">
+      <c r="C3" s="110"/>
+      <c r="D3" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="67" t="s">
+      <c r="E3" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="68" t="s">
+      <c r="F3" s="137" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="74" t="s">
-        <v>237</v>
-      </c>
-      <c r="H3" s="75" t="s">
+      <c r="G3" s="68" t="s">
+        <v>232</v>
+      </c>
+      <c r="H3" s="69" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="111"/>
-      <c r="B4" s="91" t="s">
-        <v>219</v>
-      </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="63" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="89"/>
+      <c r="B4" s="73" t="s">
+        <v>215</v>
+      </c>
+      <c r="C4" s="74"/>
+      <c r="D4" s="104" t="s">
         <v>197</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -4664,42 +4851,42 @@
       <c r="F4" s="64" t="s">
         <v>197</v>
       </c>
-      <c r="G4" s="99" t="s">
+      <c r="G4" s="79" t="s">
+        <v>200</v>
+      </c>
+      <c r="H4" s="65" t="s">
         <v>201</v>
       </c>
-      <c r="H4" s="70" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="111"/>
-      <c r="B5" s="91" t="s">
+    </row>
+    <row r="5" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="89"/>
+      <c r="B5" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="96" t="s">
-        <v>218</v>
+      <c r="C5" s="74"/>
+      <c r="D5" s="105" t="s">
+        <v>214</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="F5" s="73" t="s">
-        <v>218</v>
-      </c>
-      <c r="G5" s="66" t="s">
+        <v>214</v>
+      </c>
+      <c r="F5" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="G5" s="129" t="s">
+        <v>203</v>
+      </c>
+      <c r="H5" s="62" t="s">
         <v>204</v>
       </c>
-      <c r="H5" s="76" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="125"/>
-      <c r="B6" s="91" t="s">
+    </row>
+    <row r="6" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="97"/>
+      <c r="B6" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="92"/>
-      <c r="D6" s="63" t="s">
+      <c r="C6" s="74"/>
+      <c r="D6" s="104" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -4708,20 +4895,20 @@
       <c r="F6" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="140" t="s">
-        <v>239</v>
-      </c>
-      <c r="H6" s="140" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="125"/>
-      <c r="B7" s="91" t="s">
+      <c r="G6" s="130" t="s">
+        <v>234</v>
+      </c>
+      <c r="H6" s="142" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="97"/>
+      <c r="B7" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="92"/>
-      <c r="D7" s="63" t="s">
+      <c r="C7" s="74"/>
+      <c r="D7" s="104" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -4730,36 +4917,42 @@
       <c r="F7" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="140" t="s">
-        <v>241</v>
-      </c>
-      <c r="H7" s="140" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="125"/>
-      <c r="B8" s="91" t="s">
-        <v>240</v>
-      </c>
-      <c r="C8" s="92"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="141" t="s">
-        <v>207</v>
-      </c>
-      <c r="H8" s="142" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="125"/>
-      <c r="B9" s="91" t="s">
+      <c r="G7" s="130" t="s">
+        <v>264</v>
+      </c>
+      <c r="H7" s="142" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="97"/>
+      <c r="B8" s="73" t="s">
+        <v>235</v>
+      </c>
+      <c r="C8" s="74"/>
+      <c r="D8" s="104" t="s">
+        <v>197</v>
+      </c>
+      <c r="E8" s="104" t="s">
+        <v>197</v>
+      </c>
+      <c r="F8" s="104" t="s">
+        <v>197</v>
+      </c>
+      <c r="G8" s="131" t="s">
         <v>206</v>
       </c>
-      <c r="C9" s="92"/>
-      <c r="D9" s="63" t="s">
+      <c r="H8" s="98" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="97"/>
+      <c r="B9" s="73" t="s">
+        <v>205</v>
+      </c>
+      <c r="C9" s="74"/>
+      <c r="D9" s="104" t="s">
         <v>197</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -4768,42 +4961,42 @@
       <c r="F9" s="64" t="s">
         <v>197</v>
       </c>
-      <c r="G9" s="101">
+      <c r="G9" s="132">
         <v>8.6</v>
       </c>
-      <c r="H9" s="100">
+      <c r="H9" s="80">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="125"/>
-      <c r="B10" s="91" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="92"/>
-      <c r="D10" s="63" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="64" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="140" t="s">
-        <v>238</v>
-      </c>
-      <c r="H10" s="140" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="125"/>
-      <c r="B11" s="91" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="97"/>
+      <c r="B10" s="73" t="s">
+        <v>265</v>
+      </c>
+      <c r="C10" s="74"/>
+      <c r="D10" s="148" t="s">
+        <v>266</v>
+      </c>
+      <c r="E10" s="136" t="s">
+        <v>266</v>
+      </c>
+      <c r="F10" s="149" t="s">
+        <v>266</v>
+      </c>
+      <c r="G10" s="147" t="s">
+        <v>233</v>
+      </c>
+      <c r="H10" s="65" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="97"/>
+      <c r="B11" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="92"/>
-      <c r="D11" s="63" t="s">
+      <c r="C11" s="74"/>
+      <c r="D11" s="104" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -4812,16 +5005,20 @@
       <c r="F11" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="102"/>
-      <c r="H11" s="103"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="125"/>
-      <c r="B12" s="91" t="s">
-        <v>208</v>
-      </c>
-      <c r="C12" s="92"/>
-      <c r="D12" s="63" t="s">
+      <c r="G11" s="130" t="s">
+        <v>269</v>
+      </c>
+      <c r="H11" s="142" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="97"/>
+      <c r="B12" s="73" t="s">
+        <v>207</v>
+      </c>
+      <c r="C12" s="74"/>
+      <c r="D12" s="104" t="s">
         <v>197</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -4830,86 +5027,97 @@
       <c r="F12" s="64" t="s">
         <v>197</v>
       </c>
-      <c r="G12" s="101" t="s">
+      <c r="G12" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="100" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="125"/>
-      <c r="B13" s="91" t="s">
+      <c r="H12" s="80" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="97"/>
+      <c r="B13" s="73" t="s">
         <v>147</v>
       </c>
-      <c r="C13" s="92"/>
-      <c r="D13" s="65" t="s">
+      <c r="C13" s="61" t="s">
+        <v>237</v>
+      </c>
+      <c r="D13" s="100" t="s">
         <v>148</v>
       </c>
       <c r="E13" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="F13" s="61" t="s">
+      <c r="F13" s="138" t="s">
         <v>149</v>
       </c>
-      <c r="G13" s="102" t="s">
-        <v>220</v>
-      </c>
-      <c r="H13" s="100" t="s">
+      <c r="G13" s="133" t="s">
+        <v>216</v>
+      </c>
+      <c r="H13" s="80" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="125"/>
-      <c r="B14" s="91" t="s">
+      <c r="M13" s="99"/>
+    </row>
+    <row r="14" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="97"/>
+      <c r="B14" s="73" t="s">
         <v>150</v>
       </c>
-      <c r="C14" s="92"/>
-      <c r="D14" s="65" t="s">
+      <c r="C14" s="61" t="s">
+        <v>244</v>
+      </c>
+      <c r="D14" s="100" t="s">
         <v>185</v>
       </c>
       <c r="E14" s="60" t="s">
         <v>185</v>
       </c>
-      <c r="F14" s="61" t="s">
+      <c r="F14" s="138" t="s">
         <v>184</v>
       </c>
-      <c r="G14" s="99">
+      <c r="G14" s="134">
         <v>70</v>
       </c>
-      <c r="H14" s="100">
+      <c r="H14" s="80">
         <v>70</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="125"/>
-      <c r="B15" s="91" t="s">
+      <c r="M14" s="99"/>
+    </row>
+    <row r="15" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="97"/>
+      <c r="B15" s="73" t="s">
         <v>151</v>
       </c>
-      <c r="C15" s="92"/>
-      <c r="D15" s="65" t="s">
+      <c r="C15" s="61" t="s">
+        <v>244</v>
+      </c>
+      <c r="D15" s="100" t="s">
         <v>186</v>
       </c>
       <c r="E15" s="60" t="s">
         <v>186</v>
       </c>
-      <c r="F15" s="61" t="s">
+      <c r="F15" s="138" t="s">
         <v>187</v>
       </c>
-      <c r="G15" s="99">
+      <c r="G15" s="134">
         <v>-40</v>
       </c>
-      <c r="H15" s="100">
+      <c r="H15" s="80">
         <v>-55</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="125"/>
-      <c r="B16" s="91" t="s">
+      <c r="M15" s="99"/>
+    </row>
+    <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="97"/>
+      <c r="B16" s="73" t="s">
         <v>152</v>
       </c>
-      <c r="C16" s="92"/>
-      <c r="D16" s="65">
+      <c r="C16" s="61" t="s">
+        <v>245</v>
+      </c>
+      <c r="D16" s="100">
         <v>4600</v>
       </c>
       <c r="E16" s="60">
@@ -4918,21 +5126,24 @@
       <c r="F16" s="64" t="s">
         <v>197</v>
       </c>
-      <c r="G16" s="143" t="s">
-        <v>242</v>
-      </c>
-      <c r="H16" s="64" t="s">
+      <c r="G16" s="135" t="s">
+        <v>236</v>
+      </c>
+      <c r="H16" s="62" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="125"/>
-      <c r="B17" s="91" t="s">
+      <c r="M16" s="99"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="97"/>
+      <c r="B17" s="73" t="s">
         <v>153</v>
       </c>
-      <c r="C17" s="92"/>
-      <c r="D17" s="65" t="s">
-        <v>232</v>
+      <c r="C17" s="61" t="s">
+        <v>246</v>
+      </c>
+      <c r="D17" s="106">
+        <v>12200</v>
       </c>
       <c r="E17" s="60">
         <v>12200</v>
@@ -4940,20 +5151,23 @@
       <c r="F17" s="64" t="s">
         <v>197</v>
       </c>
-      <c r="G17" s="143" t="s">
-        <v>242</v>
-      </c>
-      <c r="H17" s="64" t="s">
+      <c r="G17" s="135" t="s">
+        <v>236</v>
+      </c>
+      <c r="H17" s="62" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="125"/>
-      <c r="B18" s="91" t="s">
+      <c r="M17" s="99"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="97"/>
+      <c r="B18" s="73" t="s">
         <v>154</v>
       </c>
-      <c r="C18" s="92"/>
-      <c r="D18" s="65">
+      <c r="C18" s="61" t="s">
+        <v>246</v>
+      </c>
+      <c r="D18" s="100">
         <v>170</v>
       </c>
       <c r="E18" s="60">
@@ -4962,515 +5176,573 @@
       <c r="F18" s="64" t="s">
         <v>197</v>
       </c>
-      <c r="G18" s="143" t="s">
-        <v>242</v>
-      </c>
-      <c r="H18" s="64" t="s">
+      <c r="G18" s="135" t="s">
+        <v>236</v>
+      </c>
+      <c r="H18" s="62" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="125"/>
-      <c r="B19" s="91" t="s">
+      <c r="M18" s="99"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="97"/>
+      <c r="B19" s="73" t="s">
         <v>155</v>
       </c>
-      <c r="C19" s="92"/>
-      <c r="D19" s="65" t="s">
+      <c r="C19" s="61" t="s">
+        <v>238</v>
+      </c>
+      <c r="D19" s="100" t="s">
         <v>156</v>
       </c>
       <c r="E19" s="60" t="s">
         <v>156</v>
       </c>
-      <c r="F19" s="61" t="s">
+      <c r="F19" s="138" t="s">
         <v>157</v>
       </c>
-      <c r="G19" s="99" t="s">
+      <c r="G19" s="134" t="s">
         <v>160</v>
       </c>
-      <c r="H19" s="114" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="111"/>
-      <c r="B20" s="91" t="s">
+      <c r="H19" s="90" t="s">
+        <v>217</v>
+      </c>
+      <c r="M19" s="99"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="89"/>
+      <c r="B20" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="C20" s="92"/>
-      <c r="D20" s="65" t="s">
+      <c r="C20" s="61" t="s">
+        <v>239</v>
+      </c>
+      <c r="D20" s="100" t="s">
         <v>159</v>
       </c>
       <c r="E20" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="F20" s="61" t="s">
+      <c r="F20" s="138" t="s">
         <v>160</v>
       </c>
-      <c r="G20" s="102" t="s">
+      <c r="G20" s="133" t="s">
         <v>157</v>
       </c>
-      <c r="H20" s="103" t="s">
+      <c r="H20" s="82" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="111"/>
-      <c r="B21" s="91" t="s">
+      <c r="M20" s="99"/>
+    </row>
+    <row r="21" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="89"/>
+      <c r="B21" s="73" t="s">
         <v>161</v>
       </c>
-      <c r="C21" s="92"/>
-      <c r="D21" s="65" t="s">
+      <c r="C21" s="61" t="s">
+        <v>240</v>
+      </c>
+      <c r="D21" s="100" t="s">
         <v>75</v>
       </c>
       <c r="E21" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="F21" s="61" t="s">
+      <c r="F21" s="138" t="s">
         <v>162</v>
       </c>
-      <c r="G21" s="99" t="s">
+      <c r="G21" s="134" t="s">
         <v>75</v>
       </c>
-      <c r="H21" s="104" t="s">
+      <c r="H21" s="83" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="111"/>
-      <c r="B22" s="91" t="s">
+      <c r="M21" s="99"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="89"/>
+      <c r="B22" s="73" t="s">
         <v>163</v>
       </c>
-      <c r="C22" s="92"/>
-      <c r="D22" s="65" t="s">
+      <c r="C22" s="61" t="s">
+        <v>241</v>
+      </c>
+      <c r="D22" s="144" t="s">
         <v>164</v>
       </c>
-      <c r="E22" s="60" t="s">
+      <c r="E22" s="145" t="s">
         <v>191</v>
       </c>
-      <c r="F22" s="62" t="s">
+      <c r="F22" s="146" t="s">
         <v>164</v>
       </c>
-      <c r="G22" s="120" t="s">
-        <v>200</v>
-      </c>
-      <c r="H22" s="119" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="111"/>
-      <c r="B23" s="91" t="s">
+      <c r="G22" s="133" t="s">
+        <v>199</v>
+      </c>
+      <c r="H22" s="142" t="s">
+        <v>202</v>
+      </c>
+      <c r="M22" s="99"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="89"/>
+      <c r="B23" s="73" t="s">
         <v>165</v>
       </c>
-      <c r="C23" s="92"/>
-      <c r="D23" s="69" t="s">
+      <c r="C23" s="61" t="s">
+        <v>242</v>
+      </c>
+      <c r="D23" s="101" t="s">
         <v>197</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="F23" s="109" t="s">
+      <c r="F23" s="139" t="s">
         <v>166</v>
       </c>
-      <c r="G23" s="99" t="s">
+      <c r="G23" s="134" t="s">
         <v>166</v>
       </c>
-      <c r="H23" s="100" t="s">
+      <c r="H23" s="80" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="111"/>
-      <c r="B24" s="91" t="s">
+      <c r="M23" s="99"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="89"/>
+      <c r="B24" s="73" t="s">
         <v>167</v>
       </c>
-      <c r="C24" s="92"/>
-      <c r="D24" s="69" t="s">
+      <c r="C24" s="61" t="s">
+        <v>243</v>
+      </c>
+      <c r="D24" s="101" t="s">
         <v>197</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="F24" s="109" t="s">
+      <c r="F24" s="139" t="s">
         <v>168</v>
       </c>
-      <c r="G24" s="99" t="s">
-        <v>222</v>
-      </c>
-      <c r="H24" s="100" t="s">
+      <c r="G24" s="134" t="s">
+        <v>218</v>
+      </c>
+      <c r="H24" s="80" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="111"/>
-      <c r="B25" s="91" t="s">
-        <v>212</v>
-      </c>
-      <c r="C25" s="92" t="s">
-        <v>213</v>
-      </c>
-      <c r="D25" s="69" t="s">
+      <c r="M24" s="99"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="89"/>
+      <c r="B25" s="73" t="s">
+        <v>210</v>
+      </c>
+      <c r="C25" s="61" t="s">
+        <v>247</v>
+      </c>
+      <c r="D25" s="101" t="s">
         <v>197</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="F25" s="109" t="s">
+      <c r="F25" s="139" t="s">
         <v>195</v>
       </c>
-      <c r="G25" s="69" t="s">
+      <c r="G25" s="143" t="s">
         <v>197</v>
       </c>
-      <c r="H25" s="92" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="111"/>
-      <c r="B26" s="91" t="s">
+      <c r="H25" s="80" t="s">
+        <v>195</v>
+      </c>
+      <c r="M25" s="99"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="89"/>
+      <c r="B26" s="73" t="s">
         <v>169</v>
       </c>
-      <c r="C26" s="92"/>
-      <c r="D26" s="65" t="s">
+      <c r="C26" s="61" t="s">
+        <v>248</v>
+      </c>
+      <c r="D26" s="100" t="s">
         <v>166</v>
       </c>
       <c r="E26" s="60" t="s">
         <v>166</v>
       </c>
-      <c r="F26" s="61" t="s">
+      <c r="F26" s="138" t="s">
         <v>168</v>
       </c>
-      <c r="G26" s="115" t="s">
-        <v>223</v>
-      </c>
-      <c r="H26" s="100" t="s">
+      <c r="G26" s="133" t="s">
+        <v>219</v>
+      </c>
+      <c r="H26" s="80" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="111"/>
-      <c r="B27" s="91" t="s">
+      <c r="M26" s="99"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="89"/>
+      <c r="B27" s="73" t="s">
         <v>170</v>
       </c>
-      <c r="C27" s="92" t="s">
-        <v>213</v>
-      </c>
-      <c r="D27" s="65" t="s">
+      <c r="C27" s="61" t="s">
+        <v>254</v>
+      </c>
+      <c r="D27" s="100" t="s">
         <v>166</v>
       </c>
       <c r="E27" s="60" t="s">
         <v>166</v>
       </c>
-      <c r="F27" s="61" t="s">
+      <c r="F27" s="138" t="s">
         <v>195</v>
       </c>
-      <c r="G27" s="102" t="s">
+      <c r="G27" s="133" t="s">
         <v>195</v>
       </c>
-      <c r="H27" s="100" t="s">
+      <c r="H27" s="80" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="111"/>
-      <c r="B28" s="91" t="s">
+      <c r="M27" s="99"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="89"/>
+      <c r="B28" s="73" t="s">
         <v>171</v>
       </c>
-      <c r="C28" s="92"/>
-      <c r="D28" s="65" t="s">
+      <c r="C28" s="61" t="s">
+        <v>249</v>
+      </c>
+      <c r="D28" s="100" t="s">
         <v>166</v>
       </c>
       <c r="E28" s="60" t="s">
         <v>166</v>
       </c>
-      <c r="F28" s="61" t="s">
+      <c r="F28" s="138" t="s">
         <v>168</v>
       </c>
-      <c r="G28" s="99" t="s">
+      <c r="G28" s="134" t="s">
         <v>166</v>
       </c>
-      <c r="H28" s="119" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="111"/>
-      <c r="B29" s="91" t="s">
+      <c r="H28" s="90" t="s">
+        <v>220</v>
+      </c>
+      <c r="M28" s="99"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="89"/>
+      <c r="B29" s="73" t="s">
         <v>172</v>
       </c>
-      <c r="C29" s="92"/>
-      <c r="D29" s="65" t="s">
+      <c r="C29" s="61" t="s">
+        <v>250</v>
+      </c>
+      <c r="D29" s="100" t="s">
         <v>160</v>
       </c>
       <c r="E29" s="60" t="s">
         <v>159</v>
       </c>
-      <c r="F29" s="61" t="s">
+      <c r="F29" s="138" t="s">
         <v>160</v>
       </c>
-      <c r="G29" s="102" t="s">
+      <c r="G29" s="133" t="s">
         <v>157</v>
       </c>
-      <c r="H29" s="103" t="s">
+      <c r="H29" s="82" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="111"/>
-      <c r="B30" s="91" t="s">
+      <c r="M29" s="99"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="89"/>
+      <c r="B30" s="73" t="s">
         <v>173</v>
       </c>
-      <c r="C30" s="92"/>
-      <c r="D30" s="65" t="s">
+      <c r="C30" s="61" t="s">
+        <v>251</v>
+      </c>
+      <c r="D30" s="100" t="s">
         <v>174</v>
       </c>
       <c r="E30" s="60" t="s">
         <v>174</v>
       </c>
-      <c r="F30" s="61" t="s">
+      <c r="F30" s="138" t="s">
         <v>174</v>
       </c>
-      <c r="G30" s="102" t="s">
+      <c r="G30" s="133" t="s">
         <v>157</v>
       </c>
-      <c r="H30" s="103" t="s">
+      <c r="H30" s="82" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="111"/>
-      <c r="B31" s="91" t="s">
+      <c r="M30" s="99"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="89"/>
+      <c r="B31" s="73" t="s">
         <v>175</v>
       </c>
-      <c r="C31" s="92"/>
-      <c r="D31" s="65" t="s">
+      <c r="C31" s="61" t="s">
+        <v>252</v>
+      </c>
+      <c r="D31" s="100" t="s">
         <v>157</v>
       </c>
       <c r="E31" s="60" t="s">
         <v>157</v>
       </c>
-      <c r="F31" s="61" t="s">
+      <c r="F31" s="138" t="s">
         <v>157</v>
       </c>
-      <c r="G31" s="102" t="s">
+      <c r="G31" s="133" t="s">
         <v>162</v>
       </c>
-      <c r="H31" s="103" t="s">
+      <c r="H31" s="82" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="111"/>
-      <c r="B32" s="91" t="s">
+      <c r="M31" s="99"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="89"/>
+      <c r="B32" s="73" t="s">
         <v>176</v>
       </c>
-      <c r="C32" s="92"/>
-      <c r="D32" s="65" t="s">
+      <c r="C32" s="61" t="s">
+        <v>253</v>
+      </c>
+      <c r="D32" s="100" t="s">
         <v>177</v>
       </c>
       <c r="E32" s="60" t="s">
         <v>177</v>
       </c>
-      <c r="F32" s="61" t="s">
+      <c r="F32" s="138" t="s">
         <v>177</v>
       </c>
-      <c r="G32" s="99" t="s">
+      <c r="G32" s="134" t="s">
         <v>177</v>
       </c>
-      <c r="H32" s="100" t="s">
+      <c r="H32" s="80" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="111"/>
-      <c r="B33" s="91" t="s">
-        <v>214</v>
-      </c>
-      <c r="C33" s="92" t="s">
-        <v>217</v>
-      </c>
-      <c r="D33" s="65" t="s">
+      <c r="M32" s="99"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="89"/>
+      <c r="B33" s="73" t="s">
+        <v>211</v>
+      </c>
+      <c r="C33" s="61" t="s">
+        <v>261</v>
+      </c>
+      <c r="D33" s="100" t="s">
         <v>192</v>
       </c>
       <c r="E33" s="60" t="s">
         <v>192</v>
       </c>
-      <c r="F33" s="61" t="s">
+      <c r="F33" s="138" t="s">
         <v>192</v>
       </c>
-      <c r="G33" s="112" t="s">
-        <v>225</v>
-      </c>
-      <c r="H33" s="113" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="111"/>
-      <c r="B34" s="91" t="s">
+      <c r="G33" s="133" t="s">
+        <v>221</v>
+      </c>
+      <c r="H33" s="65" t="s">
+        <v>221</v>
+      </c>
+      <c r="M33" s="99"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="89"/>
+      <c r="B34" s="73" t="s">
         <v>178</v>
       </c>
-      <c r="C34" s="92"/>
-      <c r="D34" s="65" t="s">
+      <c r="C34" s="61" t="s">
+        <v>255</v>
+      </c>
+      <c r="D34" s="100" t="s">
         <v>179</v>
       </c>
       <c r="E34" s="60" t="s">
         <v>179</v>
       </c>
-      <c r="F34" s="61" t="s">
+      <c r="F34" s="138" t="s">
         <v>179</v>
       </c>
-      <c r="G34" s="99" t="s">
-        <v>226</v>
-      </c>
-      <c r="H34" s="100" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="111"/>
-      <c r="B35" s="91" t="s">
-        <v>215</v>
-      </c>
-      <c r="C35" s="92" t="s">
-        <v>217</v>
-      </c>
-      <c r="D35" s="65" t="s">
+      <c r="G34" s="134" t="s">
+        <v>222</v>
+      </c>
+      <c r="H34" s="80" t="s">
+        <v>222</v>
+      </c>
+      <c r="M34" s="99"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="89"/>
+      <c r="B35" s="73" t="s">
+        <v>212</v>
+      </c>
+      <c r="C35" s="61" t="s">
+        <v>262</v>
+      </c>
+      <c r="D35" s="100" t="s">
         <v>193</v>
       </c>
       <c r="E35" s="60" t="s">
         <v>193</v>
       </c>
-      <c r="F35" s="61" t="s">
+      <c r="F35" s="138" t="s">
         <v>194</v>
       </c>
-      <c r="G35" s="102" t="s">
-        <v>228</v>
-      </c>
-      <c r="H35" s="114" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="111"/>
-      <c r="B36" s="91" t="s">
+      <c r="G35" s="133" t="s">
+        <v>224</v>
+      </c>
+      <c r="H35" s="142" t="s">
+        <v>225</v>
+      </c>
+      <c r="M35" s="99"/>
+    </row>
+    <row r="36" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A36" s="89"/>
+      <c r="B36" s="73" t="s">
         <v>180</v>
       </c>
-      <c r="C36" s="92"/>
-      <c r="D36" s="69" t="s">
+      <c r="C36" s="61" t="s">
+        <v>256</v>
+      </c>
+      <c r="D36" s="101" t="s">
         <v>197</v>
       </c>
-      <c r="E36" s="69" t="s">
+      <c r="E36" s="64" t="s">
         <v>197</v>
       </c>
-      <c r="F36" s="69" t="s">
+      <c r="F36" s="64" t="s">
         <v>197</v>
       </c>
-      <c r="G36" s="102" t="s">
-        <v>230</v>
-      </c>
-      <c r="H36" s="116" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="111"/>
-      <c r="B37" s="91" t="s">
+      <c r="G36" s="81" t="s">
+        <v>226</v>
+      </c>
+      <c r="H36" s="90" t="s">
+        <v>227</v>
+      </c>
+      <c r="M36" s="99"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="89"/>
+      <c r="B37" s="73" t="s">
         <v>181</v>
       </c>
-      <c r="C37" s="92"/>
-      <c r="D37" s="69" t="s">
+      <c r="C37" s="61" t="s">
+        <v>257</v>
+      </c>
+      <c r="D37" s="101" t="s">
         <v>197</v>
       </c>
-      <c r="E37" s="69" t="s">
+      <c r="E37" s="64" t="s">
         <v>197</v>
       </c>
-      <c r="F37" s="69" t="s">
+      <c r="F37" s="64" t="s">
         <v>197</v>
       </c>
-      <c r="G37" s="69" t="s">
+      <c r="G37" s="143" t="s">
         <v>197</v>
       </c>
-      <c r="H37" s="103" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="111"/>
-      <c r="B38" s="91" t="s">
+      <c r="H37" s="82" t="s">
+        <v>223</v>
+      </c>
+      <c r="M37" s="99"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="89"/>
+      <c r="B38" s="73" t="s">
         <v>182</v>
       </c>
-      <c r="C38" s="92"/>
-      <c r="D38" s="65" t="s">
+      <c r="C38" s="61" t="s">
+        <v>258</v>
+      </c>
+      <c r="D38" s="100" t="s">
         <v>183</v>
       </c>
       <c r="E38" s="60" t="s">
         <v>183</v>
       </c>
-      <c r="F38" s="61" t="s">
+      <c r="F38" s="138" t="s">
         <v>166</v>
       </c>
-      <c r="G38" s="99" t="s">
+      <c r="G38" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="H38" s="103" t="s">
+      <c r="H38" s="82" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="111"/>
-      <c r="B39" s="93" t="s">
-        <v>216</v>
-      </c>
-      <c r="C39" s="92" t="s">
-        <v>217</v>
-      </c>
-      <c r="D39" s="71" t="s">
+      <c r="M38" s="99"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="89"/>
+      <c r="B39" s="75" t="s">
+        <v>213</v>
+      </c>
+      <c r="C39" s="61" t="s">
+        <v>259</v>
+      </c>
+      <c r="D39" s="107" t="s">
         <v>157</v>
       </c>
-      <c r="E39" s="72" t="s">
+      <c r="E39" s="66" t="s">
         <v>157</v>
       </c>
-      <c r="F39" s="77" t="s">
+      <c r="F39" s="140" t="s">
         <v>157</v>
       </c>
-      <c r="G39" s="105" t="s">
+      <c r="G39" s="84" t="s">
         <v>157</v>
       </c>
-      <c r="H39" s="106" t="s">
+      <c r="H39" s="85" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="111"/>
-      <c r="B40" s="94" t="s">
-        <v>210</v>
-      </c>
-      <c r="C40" s="95" t="s">
-        <v>217</v>
-      </c>
-      <c r="D40" s="83" t="s">
+      <c r="M39" s="99"/>
+    </row>
+    <row r="40" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="89"/>
+      <c r="B40" s="76" t="s">
+        <v>209</v>
+      </c>
+      <c r="C40" s="111" t="s">
+        <v>263</v>
+      </c>
+      <c r="D40" s="108" t="s">
         <v>156</v>
       </c>
-      <c r="E40" s="84" t="s">
+      <c r="E40" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="F40" s="85" t="s">
+      <c r="F40" s="141" t="s">
         <v>156</v>
       </c>
-      <c r="G40" s="117" t="s">
+      <c r="G40" s="91" t="s">
         <v>166</v>
       </c>
-      <c r="H40" s="118" t="s">
+      <c r="H40" s="92" t="s">
         <v>166</v>
       </c>
+      <c r="M40" s="99"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M41" s="99"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:H1"/>
-  </mergeCells>
+  <autoFilter ref="G1:H41" xr:uid="{AF68FD9D-31AB-4F63-B9B6-43B34ED18B03}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="C16:C18" twoDigitTextYear="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>